--- a/ShortWalkAcc.xlsx
+++ b/ShortWalkAcc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Acceleration_Right</t>
   </si>
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -55,14 +55,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,16 +86,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -106,7 +110,7 @@
         <v>-1375</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -120,7 +124,7 @@
         <v>-1384</v>
       </c>
       <c r="D3">
-        <v>0.0019999999999527063</v>
+        <v>-0.0019999999999527063</v>
       </c>
     </row>
     <row r="4">
@@ -134,7 +138,7 @@
         <v>-1396</v>
       </c>
       <c r="D4">
-        <v>0.022999999999967713</v>
+        <v>-0.022999999999967713</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +152,7 @@
         <v>-1365</v>
       </c>
       <c r="D5">
-        <v>0.025999999999953616</v>
+        <v>-0.025999999999953616</v>
       </c>
     </row>
     <row r="6">
@@ -162,7 +166,7 @@
         <v>-1403</v>
       </c>
       <c r="D6">
-        <v>0.044999999999959073</v>
+        <v>-0.044999999999959073</v>
       </c>
     </row>
     <row r="7">
@@ -176,7 +180,7 @@
         <v>-1397</v>
       </c>
       <c r="D7">
-        <v>0.046999999999968622</v>
+        <v>-0.046999999999968622</v>
       </c>
     </row>
     <row r="8">
@@ -190,7 +194,7 @@
         <v>-1403</v>
       </c>
       <c r="D8">
-        <v>0.054999999999949978</v>
+        <v>-0.054999999999949978</v>
       </c>
     </row>
     <row r="9">
@@ -204,7 +208,7 @@
         <v>-1399</v>
       </c>
       <c r="D9">
-        <v>0.056999999999959527</v>
+        <v>-0.056999999999959527</v>
       </c>
     </row>
     <row r="10">
@@ -218,7 +222,7 @@
         <v>-1400</v>
       </c>
       <c r="D10">
-        <v>0.078999999999950887</v>
+        <v>-0.078999999999950887</v>
       </c>
     </row>
     <row r="11">
@@ -232,7 +236,7 @@
         <v>-1378</v>
       </c>
       <c r="D11">
-        <v>0.081999999999993634</v>
+        <v>-0.081999999999993634</v>
       </c>
     </row>
     <row r="12">
@@ -246,7 +250,7 @@
         <v>-1397</v>
       </c>
       <c r="D12">
-        <v>0.10099999999999909</v>
+        <v>-0.10099999999999909</v>
       </c>
     </row>
     <row r="13">
@@ -260,7 +264,7 @@
         <v>-1391</v>
       </c>
       <c r="D13">
-        <v>0.10399999999998499</v>
+        <v>-0.10399999999998499</v>
       </c>
     </row>
     <row r="14">
@@ -274,7 +278,7 @@
         <v>-1423</v>
       </c>
       <c r="D14">
-        <v>0.13299999999998136</v>
+        <v>-0.13299999999998136</v>
       </c>
     </row>
     <row r="15">
@@ -288,7 +292,7 @@
         <v>-1425</v>
       </c>
       <c r="D15">
-        <v>0.13499999999999091</v>
+        <v>-0.13499999999999091</v>
       </c>
     </row>
     <row r="16">
@@ -302,7 +306,7 @@
         <v>-1402</v>
       </c>
       <c r="D16">
-        <v>0.13700000000000045</v>
+        <v>-0.13700000000000045</v>
       </c>
     </row>
     <row r="17">
@@ -316,7 +320,7 @@
         <v>-1422</v>
       </c>
       <c r="D17">
-        <v>0.13799999999997681</v>
+        <v>-0.13799999999997681</v>
       </c>
     </row>
     <row r="18">
@@ -330,7 +334,7 @@
         <v>-1394</v>
       </c>
       <c r="D18">
-        <v>0.17899999999997362</v>
+        <v>-0.17899999999997362</v>
       </c>
     </row>
     <row r="19">
@@ -344,7 +348,7 @@
         <v>-1352</v>
       </c>
       <c r="D19">
-        <v>0.18099999999998317</v>
+        <v>-0.18099999999998317</v>
       </c>
     </row>
     <row r="20">
@@ -358,7 +362,7 @@
         <v>-1361</v>
       </c>
       <c r="D20">
-        <v>0.18199999999995953</v>
+        <v>-0.18199999999995953</v>
       </c>
     </row>
     <row r="21">
@@ -372,7 +376,7 @@
         <v>-1372</v>
       </c>
       <c r="D21">
-        <v>0.18399999999996908</v>
+        <v>-0.18399999999996908</v>
       </c>
     </row>
     <row r="22">
@@ -386,7 +390,7 @@
         <v>-1346</v>
       </c>
       <c r="D22">
-        <v>0.20199999999999818</v>
+        <v>-0.20199999999999818</v>
       </c>
     </row>
     <row r="23">
@@ -400,7 +404,7 @@
         <v>-1355</v>
       </c>
       <c r="D23">
-        <v>0.20499999999998408</v>
+        <v>-0.20499999999998408</v>
       </c>
     </row>
     <row r="24">
@@ -414,7 +418,7 @@
         <v>-1342</v>
       </c>
       <c r="D24">
-        <v>0.22299999999995634</v>
+        <v>-0.22299999999995634</v>
       </c>
     </row>
     <row r="25">
@@ -428,7 +432,7 @@
         <v>-1357</v>
       </c>
       <c r="D25">
-        <v>0.22499999999996589</v>
+        <v>-0.22499999999996589</v>
       </c>
     </row>
     <row r="26">
@@ -442,7 +446,7 @@
         <v>-1364</v>
       </c>
       <c r="D26">
-        <v>0.2349999999999568</v>
+        <v>-0.2349999999999568</v>
       </c>
     </row>
     <row r="27">
@@ -456,7 +460,7 @@
         <v>-1358</v>
       </c>
       <c r="D27">
-        <v>0.23599999999999</v>
+        <v>-0.23599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -470,7 +474,7 @@
         <v>-1348</v>
       </c>
       <c r="D28">
-        <v>0.25799999999998136</v>
+        <v>-0.25799999999998136</v>
       </c>
     </row>
     <row r="29">
@@ -484,7 +488,7 @@
         <v>-1353</v>
       </c>
       <c r="D29">
-        <v>0.26099999999996726</v>
+        <v>-0.26099999999996726</v>
       </c>
     </row>
     <row r="30">
@@ -498,7 +502,7 @@
         <v>-1383</v>
       </c>
       <c r="D30">
-        <v>0.28099999999994907</v>
+        <v>-0.28099999999994907</v>
       </c>
     </row>
     <row r="31">
@@ -512,7 +516,7 @@
         <v>-1401</v>
       </c>
       <c r="D31">
-        <v>0.28299999999995862</v>
+        <v>-0.28299999999995862</v>
       </c>
     </row>
     <row r="32">
@@ -526,7 +530,7 @@
         <v>-1366</v>
       </c>
       <c r="D32">
-        <v>0.31199999999995498</v>
+        <v>-0.31199999999995498</v>
       </c>
     </row>
     <row r="33">
@@ -540,7 +544,7 @@
         <v>-1376</v>
       </c>
       <c r="D33">
-        <v>0.31299999999998818</v>
+        <v>-0.31299999999998818</v>
       </c>
     </row>
     <row r="34">
@@ -554,7 +558,7 @@
         <v>-1376</v>
       </c>
       <c r="D34">
-        <v>0.31499999999999773</v>
+        <v>-0.31499999999999773</v>
       </c>
     </row>
     <row r="35">
@@ -568,7 +572,7 @@
         <v>-1391</v>
       </c>
       <c r="D35">
-        <v>0.31700000000000728</v>
+        <v>-0.31700000000000728</v>
       </c>
     </row>
     <row r="36">
@@ -582,7 +586,7 @@
         <v>-1360</v>
       </c>
       <c r="D36">
-        <v>0.33799999999996544</v>
+        <v>-0.33799999999996544</v>
       </c>
     </row>
     <row r="37">
@@ -596,7 +600,7 @@
         <v>-1366</v>
       </c>
       <c r="D37">
-        <v>0.33999999999997499</v>
+        <v>-0.33999999999997499</v>
       </c>
     </row>
     <row r="38">
@@ -610,7 +614,7 @@
         <v>-1411</v>
       </c>
       <c r="D38">
-        <v>0.3599999999999568</v>
+        <v>-0.3599999999999568</v>
       </c>
     </row>
     <row r="39">
@@ -624,7 +628,7 @@
         <v>-1366</v>
       </c>
       <c r="D39">
-        <v>0.36299999999999955</v>
+        <v>-0.36299999999999955</v>
       </c>
     </row>
     <row r="40">
@@ -638,7 +642,7 @@
         <v>-1402</v>
       </c>
       <c r="D40">
-        <v>0.38399999999995771</v>
+        <v>-0.38399999999995771</v>
       </c>
     </row>
     <row r="41">
@@ -652,7 +656,7 @@
         <v>-1388</v>
       </c>
       <c r="D41">
-        <v>0.38599999999996726</v>
+        <v>-0.38599999999996726</v>
       </c>
     </row>
     <row r="42">
@@ -666,7 +670,7 @@
         <v>-1354</v>
       </c>
       <c r="D42">
-        <v>0.40399999999999636</v>
+        <v>-0.40399999999999636</v>
       </c>
     </row>
     <row r="43">
@@ -680,7 +684,7 @@
         <v>-1383</v>
       </c>
       <c r="D43">
-        <v>0.40599999999994907</v>
+        <v>-0.40599999999994907</v>
       </c>
     </row>
     <row r="44">
@@ -694,7 +698,7 @@
         <v>-1353</v>
       </c>
       <c r="D44">
-        <v>0.41499999999996362</v>
+        <v>-0.41499999999996362</v>
       </c>
     </row>
     <row r="45">
@@ -708,7 +712,7 @@
         <v>-1354</v>
       </c>
       <c r="D45">
-        <v>0.41699999999997317</v>
+        <v>-0.41699999999997317</v>
       </c>
     </row>
     <row r="46">
@@ -722,7 +726,7 @@
         <v>-1346</v>
       </c>
       <c r="D46">
-        <v>0.43899999999996453</v>
+        <v>-0.43899999999996453</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +740,7 @@
         <v>-1353</v>
       </c>
       <c r="D47">
-        <v>0.43999999999999773</v>
+        <v>-0.43999999999999773</v>
       </c>
     </row>
     <row r="48">
@@ -750,7 +754,7 @@
         <v>-1347</v>
       </c>
       <c r="D48">
-        <v>0.46199999999998909</v>
+        <v>-0.46199999999998909</v>
       </c>
     </row>
     <row r="49">
@@ -764,7 +768,7 @@
         <v>-1371</v>
       </c>
       <c r="D49">
-        <v>0.46499999999997499</v>
+        <v>-0.46499999999997499</v>
       </c>
     </row>
     <row r="50">
@@ -778,7 +782,7 @@
         <v>-1383</v>
       </c>
       <c r="D50">
-        <v>0.4919999999999618</v>
+        <v>-0.4919999999999618</v>
       </c>
     </row>
     <row r="51">
@@ -792,7 +796,7 @@
         <v>-1381</v>
       </c>
       <c r="D51">
-        <v>0.49500000000000455</v>
+        <v>-0.49500000000000455</v>
       </c>
     </row>
     <row r="52">
@@ -806,7 +810,7 @@
         <v>-1387</v>
       </c>
       <c r="D52">
-        <v>0.49799999999999045</v>
+        <v>-0.49799999999999045</v>
       </c>
     </row>
     <row r="53">
@@ -820,7 +824,7 @@
         <v>-1370</v>
       </c>
       <c r="D53">
-        <v>0.4989999999999668</v>
+        <v>-0.4989999999999668</v>
       </c>
     </row>
     <row r="54">
@@ -834,7 +838,7 @@
         <v>-1368</v>
       </c>
       <c r="D54">
-        <v>0.52199999999999136</v>
+        <v>-0.52199999999999136</v>
       </c>
     </row>
     <row r="55">
@@ -848,7 +852,7 @@
         <v>-1387</v>
       </c>
       <c r="D55">
-        <v>0.52400000000000091</v>
+        <v>-0.52400000000000091</v>
       </c>
     </row>
     <row r="56">
@@ -862,7 +866,7 @@
         <v>-1378</v>
       </c>
       <c r="D56">
-        <v>0.53899999999998727</v>
+        <v>-0.53899999999998727</v>
       </c>
     </row>
     <row r="57">
@@ -876,7 +880,7 @@
         <v>-1377</v>
       </c>
       <c r="D57">
-        <v>0.54300000000000637</v>
+        <v>-0.54300000000000637</v>
       </c>
     </row>
     <row r="58">
@@ -890,7 +894,7 @@
         <v>-1363</v>
       </c>
       <c r="D58">
-        <v>0.56199999999995498</v>
+        <v>-0.56199999999995498</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +908,7 @@
         <v>-1362</v>
       </c>
       <c r="D59">
-        <v>0.56399999999996453</v>
+        <v>-0.56399999999996453</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +922,7 @@
         <v>-1381</v>
       </c>
       <c r="D60">
-        <v>0.58399999999994634</v>
+        <v>-0.58399999999994634</v>
       </c>
     </row>
     <row r="61">
@@ -932,7 +936,7 @@
         <v>-1380</v>
       </c>
       <c r="D61">
-        <v>0.58599999999995589</v>
+        <v>-0.58599999999995589</v>
       </c>
     </row>
     <row r="62">
@@ -946,7 +950,7 @@
         <v>-1346</v>
       </c>
       <c r="D62">
-        <v>0.59399999999999409</v>
+        <v>-0.59399999999999409</v>
       </c>
     </row>
     <row r="63">
@@ -960,7 +964,7 @@
         <v>-1347</v>
       </c>
       <c r="D63">
-        <v>0.59600000000000364</v>
+        <v>-0.59600000000000364</v>
       </c>
     </row>
     <row r="64">
@@ -974,7 +978,7 @@
         <v>-1344</v>
       </c>
       <c r="D64">
-        <v>0.617999999999995</v>
+        <v>-0.617999999999995</v>
       </c>
     </row>
     <row r="65">
@@ -988,7 +992,7 @@
         <v>-1363</v>
       </c>
       <c r="D65">
-        <v>0.6209999999999809</v>
+        <v>-0.6209999999999809</v>
       </c>
     </row>
     <row r="66">
@@ -1002,7 +1006,7 @@
         <v>-1335</v>
       </c>
       <c r="D66">
-        <v>0.64099999999996271</v>
+        <v>-0.64099999999996271</v>
       </c>
     </row>
     <row r="67">
@@ -1016,7 +1020,7 @@
         <v>-1357</v>
       </c>
       <c r="D67">
-        <v>0.64400000000000546</v>
+        <v>-0.64400000000000546</v>
       </c>
     </row>
     <row r="68">
@@ -1030,7 +1034,7 @@
         <v>-1346</v>
       </c>
       <c r="D68">
-        <v>0.67300000000000182</v>
+        <v>-0.67300000000000182</v>
       </c>
     </row>
     <row r="69">
@@ -1044,7 +1048,7 @@
         <v>-1387</v>
       </c>
       <c r="D69">
-        <v>0.67499999999995453</v>
+        <v>-0.67499999999995453</v>
       </c>
     </row>
     <row r="70">
@@ -1058,7 +1062,7 @@
         <v>-1365</v>
       </c>
       <c r="D70">
-        <v>0.67699999999996407</v>
+        <v>-0.67699999999996407</v>
       </c>
     </row>
     <row r="71">
@@ -1072,7 +1076,7 @@
         <v>-1347</v>
       </c>
       <c r="D71">
-        <v>0.67799999999999727</v>
+        <v>-0.67799999999999727</v>
       </c>
     </row>
     <row r="72">
@@ -1086,7 +1090,7 @@
         <v>-1385</v>
       </c>
       <c r="D72">
-        <v>0.69599999999996953</v>
+        <v>-0.69599999999996953</v>
       </c>
     </row>
     <row r="73">
@@ -1100,7 +1104,7 @@
         <v>-1382</v>
       </c>
       <c r="D73">
-        <v>0.69799999999997908</v>
+        <v>-0.69799999999997908</v>
       </c>
     </row>
     <row r="74">
@@ -1114,7 +1118,7 @@
         <v>-1341</v>
       </c>
       <c r="D74">
-        <v>0.71899999999999409</v>
+        <v>-0.71899999999999409</v>
       </c>
     </row>
     <row r="75">
@@ -1128,7 +1132,7 @@
         <v>-1367</v>
       </c>
       <c r="D75">
-        <v>0.72199999999997999</v>
+        <v>-0.72199999999997999</v>
       </c>
     </row>
     <row r="76">
@@ -1142,7 +1146,7 @@
         <v>-1370</v>
       </c>
       <c r="D76">
-        <v>0.742999999999995</v>
+        <v>-0.742999999999995</v>
       </c>
     </row>
     <row r="77">
@@ -1156,7 +1160,7 @@
         <v>-1384</v>
       </c>
       <c r="D77">
-        <v>0.74500000000000455</v>
+        <v>-0.74500000000000455</v>
       </c>
     </row>
     <row r="78">
@@ -1170,7 +1174,7 @@
         <v>-1387</v>
       </c>
       <c r="D78">
-        <v>0.76299999999997681</v>
+        <v>-0.76299999999997681</v>
       </c>
     </row>
     <row r="79">
@@ -1184,7 +1188,7 @@
         <v>-1375</v>
       </c>
       <c r="D79">
-        <v>0.76499999999998636</v>
+        <v>-0.76499999999998636</v>
       </c>
     </row>
     <row r="80">
@@ -1198,7 +1202,7 @@
         <v>-1345</v>
       </c>
       <c r="D80">
-        <v>0.77400000000000091</v>
+        <v>-0.77400000000000091</v>
       </c>
     </row>
     <row r="81">
@@ -1212,7 +1216,7 @@
         <v>-1297</v>
       </c>
       <c r="D81">
-        <v>0.77699999999998681</v>
+        <v>-0.77699999999998681</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1230,7 @@
         <v>-1293</v>
       </c>
       <c r="D82">
-        <v>0.79899999999997817</v>
+        <v>-0.79899999999997817</v>
       </c>
     </row>
     <row r="83">
@@ -1240,7 +1244,7 @@
         <v>-1311</v>
       </c>
       <c r="D83">
-        <v>0.80099999999998772</v>
+        <v>-0.80099999999998772</v>
       </c>
     </row>
     <row r="84">
@@ -1254,7 +1258,7 @@
         <v>-1360</v>
       </c>
       <c r="D84">
-        <v>0.82099999999996953</v>
+        <v>-0.82099999999996953</v>
       </c>
     </row>
     <row r="85">
@@ -1268,7 +1272,7 @@
         <v>-1331</v>
       </c>
       <c r="D85">
-        <v>0.82399999999995543</v>
+        <v>-0.82399999999995543</v>
       </c>
     </row>
     <row r="86">
@@ -1282,7 +1286,7 @@
         <v>-1332</v>
       </c>
       <c r="D86">
-        <v>0.85199999999997544</v>
+        <v>-0.85199999999997544</v>
       </c>
     </row>
     <row r="87">
@@ -1296,7 +1300,7 @@
         <v>-1516</v>
       </c>
       <c r="D87">
-        <v>0.85399999999998499</v>
+        <v>-0.85399999999998499</v>
       </c>
     </row>
     <row r="88">
@@ -1310,7 +1314,7 @@
         <v>-1357</v>
       </c>
       <c r="D88">
-        <v>0.85599999999999454</v>
+        <v>-0.85599999999999454</v>
       </c>
     </row>
     <row r="89">
@@ -1324,7 +1328,7 @@
         <v>-1360</v>
       </c>
       <c r="D89">
-        <v>0.85799999999994725</v>
+        <v>-0.85799999999994725</v>
       </c>
     </row>
     <row r="90">
@@ -1338,7 +1342,7 @@
         <v>-1314</v>
       </c>
       <c r="D90">
-        <v>0.87599999999997635</v>
+        <v>-0.87599999999997635</v>
       </c>
     </row>
     <row r="91">
@@ -1352,7 +1356,7 @@
         <v>-1310</v>
       </c>
       <c r="D91">
-        <v>0.87999999999999545</v>
+        <v>-0.87999999999999545</v>
       </c>
     </row>
     <row r="92">
@@ -1366,7 +1370,7 @@
         <v>-1590</v>
       </c>
       <c r="D92">
-        <v>0.90099999999995362</v>
+        <v>-0.90099999999995362</v>
       </c>
     </row>
     <row r="93">
@@ -1380,7 +1384,7 @@
         <v>-1299</v>
       </c>
       <c r="D93">
-        <v>0.90399999999999636</v>
+        <v>-0.90399999999999636</v>
       </c>
     </row>
     <row r="94">
@@ -1394,7 +1398,7 @@
         <v>-1280</v>
       </c>
       <c r="D94">
-        <v>0.92399999999997817</v>
+        <v>-0.92399999999997817</v>
       </c>
     </row>
     <row r="95">
@@ -1408,7 +1412,7 @@
         <v>-1602</v>
       </c>
       <c r="D95">
-        <v>0.92599999999998772</v>
+        <v>-0.92599999999998772</v>
       </c>
     </row>
     <row r="96">
@@ -1422,7 +1426,7 @@
         <v>-1270</v>
       </c>
       <c r="D96">
-        <v>0.94299999999998363</v>
+        <v>-0.94299999999998363</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1440,7 @@
         <v>-1929</v>
       </c>
       <c r="D97">
-        <v>0.94499999999999318</v>
+        <v>-0.94499999999999318</v>
       </c>
     </row>
     <row r="98">
@@ -1450,7 +1454,7 @@
         <v>-1634</v>
       </c>
       <c r="D98">
-        <v>0.95499999999998408</v>
+        <v>-0.95499999999998408</v>
       </c>
     </row>
     <row r="99">
@@ -1464,7 +1468,7 @@
         <v>-1554</v>
       </c>
       <c r="D99">
-        <v>0.95699999999999363</v>
+        <v>-0.95699999999999363</v>
       </c>
     </row>
     <row r="100">
@@ -1478,7 +1482,7 @@
         <v>-2569</v>
       </c>
       <c r="D100">
-        <v>0.9779999999999518</v>
+        <v>-0.9779999999999518</v>
       </c>
     </row>
     <row r="101">
@@ -1492,7 +1496,7 @@
         <v>-933</v>
       </c>
       <c r="D101">
-        <v>0.97999999999996135</v>
+        <v>-0.97999999999996135</v>
       </c>
     </row>
     <row r="102">
@@ -1506,7 +1510,7 @@
         <v>-2296</v>
       </c>
       <c r="D102">
-        <v>1.0009999999999764</v>
+        <v>-1.0009999999999764</v>
       </c>
     </row>
     <row r="103">
@@ -1520,7 +1524,7 @@
         <v>-1520</v>
       </c>
       <c r="D103">
-        <v>1.0069999999999482</v>
+        <v>-1.0069999999999482</v>
       </c>
     </row>
     <row r="104">
@@ -1534,7 +1538,7 @@
         <v>-38</v>
       </c>
       <c r="D104">
-        <v>1.0339999999999918</v>
+        <v>-1.0339999999999918</v>
       </c>
     </row>
     <row r="105">
@@ -1548,7 +1552,7 @@
         <v>-1606</v>
       </c>
       <c r="D105">
-        <v>1.0369999999999777</v>
+        <v>-1.0369999999999777</v>
       </c>
     </row>
     <row r="106">
@@ -1562,7 +1566,7 @@
         <v>-54</v>
       </c>
       <c r="D106">
-        <v>1.0379999999999541</v>
+        <v>-1.0379999999999541</v>
       </c>
     </row>
     <row r="107">
@@ -1576,7 +1580,7 @@
         <v>2422</v>
       </c>
       <c r="D107">
-        <v>1.0399999999999636</v>
+        <v>-1.0399999999999636</v>
       </c>
     </row>
     <row r="108">
@@ -1590,7 +1594,7 @@
         <v>6725</v>
       </c>
       <c r="D108">
-        <v>1.0559999999999832</v>
+        <v>-1.0559999999999832</v>
       </c>
     </row>
     <row r="109">
@@ -1604,7 +1608,7 @@
         <v>4631</v>
       </c>
       <c r="D109">
-        <v>1.0569999999999595</v>
+        <v>-1.0569999999999595</v>
       </c>
     </row>
     <row r="110">
@@ -1618,7 +1622,7 @@
         <v>4230</v>
       </c>
       <c r="D110">
-        <v>1.0789999999999509</v>
+        <v>-1.0789999999999509</v>
       </c>
     </row>
     <row r="111">
@@ -1632,7 +1636,7 @@
         <v>3578</v>
       </c>
       <c r="D111">
-        <v>1.0809999999999604</v>
+        <v>-1.0809999999999604</v>
       </c>
     </row>
     <row r="112">
@@ -1646,7 +1650,7 @@
         <v>2684</v>
       </c>
       <c r="D112">
-        <v>1.1019999999999754</v>
+        <v>-1.1019999999999754</v>
       </c>
     </row>
     <row r="113">
@@ -1660,7 +1664,7 @@
         <v>1953</v>
       </c>
       <c r="D113">
-        <v>1.103999999999985</v>
+        <v>-1.103999999999985</v>
       </c>
     </row>
     <row r="114">
@@ -1674,7 +1678,7 @@
         <v>1319</v>
       </c>
       <c r="D114">
-        <v>1.1239999999999668</v>
+        <v>-1.1239999999999668</v>
       </c>
     </row>
     <row r="115">
@@ -1688,7 +1692,7 @@
         <v>510</v>
       </c>
       <c r="D115">
-        <v>1.125</v>
+        <v>-1.125</v>
       </c>
     </row>
     <row r="116">
@@ -1702,7 +1706,7 @@
         <v>-147</v>
       </c>
       <c r="D116">
-        <v>1.1349999999999909</v>
+        <v>-1.1349999999999909</v>
       </c>
     </row>
     <row r="117">
@@ -1716,7 +1720,7 @@
         <v>-559</v>
       </c>
       <c r="D117">
-        <v>1.1370000000000005</v>
+        <v>-1.1370000000000005</v>
       </c>
     </row>
     <row r="118">
@@ -1730,7 +1734,7 @@
         <v>-484</v>
       </c>
       <c r="D118">
-        <v>1.1649999999999636</v>
+        <v>-1.1649999999999636</v>
       </c>
     </row>
     <row r="119">
@@ -1744,7 +1748,7 @@
         <v>-554</v>
       </c>
       <c r="D119">
-        <v>1.1669999999999732</v>
+        <v>-1.1669999999999732</v>
       </c>
     </row>
     <row r="120">
@@ -1758,7 +1762,7 @@
         <v>-891</v>
       </c>
       <c r="D120">
-        <v>1.1789999999999736</v>
+        <v>-1.1789999999999736</v>
       </c>
     </row>
     <row r="121">
@@ -1772,7 +1776,7 @@
         <v>-1247</v>
       </c>
       <c r="D121">
-        <v>1.1809999999999832</v>
+        <v>-1.1809999999999832</v>
       </c>
     </row>
     <row r="122">
@@ -1786,7 +1790,7 @@
         <v>-1614</v>
       </c>
       <c r="D122">
-        <v>1.2129999999999654</v>
+        <v>-1.2129999999999654</v>
       </c>
     </row>
     <row r="123">
@@ -1800,7 +1804,7 @@
         <v>-1983</v>
       </c>
       <c r="D123">
-        <v>1.214999999999975</v>
+        <v>-1.214999999999975</v>
       </c>
     </row>
     <row r="124">
@@ -1814,7 +1818,7 @@
         <v>-2564</v>
       </c>
       <c r="D124">
-        <v>1.2160000000000082</v>
+        <v>-1.2160000000000082</v>
       </c>
     </row>
     <row r="125">
@@ -1828,7 +1832,7 @@
         <v>-2907</v>
       </c>
       <c r="D125">
-        <v>1.2179999999999609</v>
+        <v>-1.2179999999999609</v>
       </c>
     </row>
     <row r="126">
@@ -1842,7 +1846,7 @@
         <v>-3192</v>
       </c>
       <c r="D126">
-        <v>1.2349999999999568</v>
+        <v>-1.2349999999999568</v>
       </c>
     </row>
     <row r="127">
@@ -1856,7 +1860,7 @@
         <v>-3472</v>
       </c>
       <c r="D127">
-        <v>1.2369999999999663</v>
+        <v>-1.2369999999999663</v>
       </c>
     </row>
     <row r="128">
@@ -1870,7 +1874,7 @@
         <v>-3759</v>
       </c>
       <c r="D128">
-        <v>1.2599999999999909</v>
+        <v>-1.2599999999999909</v>
       </c>
     </row>
     <row r="129">
@@ -1884,7 +1888,7 @@
         <v>-4083</v>
       </c>
       <c r="D129">
-        <v>1.2620000000000005</v>
+        <v>-1.2620000000000005</v>
       </c>
     </row>
     <row r="130">
@@ -1898,7 +1902,7 @@
         <v>-4442</v>
       </c>
       <c r="D130">
-        <v>1.2819999999999823</v>
+        <v>-1.2819999999999823</v>
       </c>
     </row>
     <row r="131">
@@ -1912,7 +1916,7 @@
         <v>-4871</v>
       </c>
       <c r="D131">
-        <v>1.2839999999999918</v>
+        <v>-1.2839999999999918</v>
       </c>
     </row>
     <row r="132">
@@ -1926,7 +1930,7 @@
         <v>-4892</v>
       </c>
       <c r="D132">
-        <v>1.30499999999995</v>
+        <v>-1.30499999999995</v>
       </c>
     </row>
     <row r="133">
@@ -1940,7 +1944,7 @@
         <v>-4818</v>
       </c>
       <c r="D133">
-        <v>1.3059999999999832</v>
+        <v>-1.3059999999999832</v>
       </c>
     </row>
     <row r="134">
@@ -1954,7 +1958,7 @@
         <v>-4837</v>
       </c>
       <c r="D134">
-        <v>1.3139999999999645</v>
+        <v>-1.3139999999999645</v>
       </c>
     </row>
     <row r="135">
@@ -1968,7 +1972,7 @@
         <v>-4760</v>
       </c>
       <c r="D135">
-        <v>1.3149999999999977</v>
+        <v>-1.3149999999999977</v>
       </c>
     </row>
     <row r="136">
@@ -1982,7 +1986,7 @@
         <v>-4903</v>
       </c>
       <c r="D136">
-        <v>1.3359999999999559</v>
+        <v>-1.3359999999999559</v>
       </c>
     </row>
     <row r="137">
@@ -1996,7 +2000,7 @@
         <v>-5141</v>
       </c>
       <c r="D137">
-        <v>1.3379999999999654</v>
+        <v>-1.3379999999999654</v>
       </c>
     </row>
     <row r="138">
@@ -2010,7 +2014,7 @@
         <v>-5477</v>
       </c>
       <c r="D138">
-        <v>1.3599999999999568</v>
+        <v>-1.3599999999999568</v>
       </c>
     </row>
     <row r="139">
@@ -2024,7 +2028,7 @@
         <v>-5626</v>
       </c>
       <c r="D139">
-        <v>1.3619999999999663</v>
+        <v>-1.3619999999999663</v>
       </c>
     </row>
     <row r="140">
@@ -2038,7 +2042,7 @@
         <v>-5730</v>
       </c>
       <c r="D140">
-        <v>1.3919999999999959</v>
+        <v>-1.3919999999999959</v>
       </c>
     </row>
     <row r="141">
@@ -2052,7 +2056,7 @@
         <v>-9691</v>
       </c>
       <c r="D141">
-        <v>1.3940000000000055</v>
+        <v>-1.3940000000000055</v>
       </c>
     </row>
     <row r="142">
@@ -2066,7 +2070,7 @@
         <v>-1698</v>
       </c>
       <c r="D142">
-        <v>1.3949999999999818</v>
+        <v>-1.3949999999999818</v>
       </c>
     </row>
     <row r="143">
@@ -2080,7 +2084,7 @@
         <v>-1471</v>
       </c>
       <c r="D143">
-        <v>1.3969999999999914</v>
+        <v>-1.3969999999999914</v>
       </c>
     </row>
     <row r="144">
@@ -2094,7 +2098,7 @@
         <v>80</v>
       </c>
       <c r="D144">
-        <v>1.4159999999999968</v>
+        <v>-1.4159999999999968</v>
       </c>
     </row>
     <row r="145">
@@ -2108,7 +2112,7 @@
         <v>3456</v>
       </c>
       <c r="D145">
-        <v>1.4169999999999732</v>
+        <v>-1.4169999999999732</v>
       </c>
     </row>
     <row r="146">
@@ -2122,7 +2126,7 @@
         <v>782</v>
       </c>
       <c r="D146">
-        <v>1.4379999999999882</v>
+        <v>-1.4379999999999882</v>
       </c>
     </row>
     <row r="147">
@@ -2136,7 +2140,7 @@
         <v>-14</v>
       </c>
       <c r="D147">
-        <v>1.4389999999999645</v>
+        <v>-1.4389999999999645</v>
       </c>
     </row>
     <row r="148">
@@ -2150,7 +2154,7 @@
         <v>-1619</v>
       </c>
       <c r="D148">
-        <v>1.4609999999999559</v>
+        <v>-1.4609999999999559</v>
       </c>
     </row>
     <row r="149">
@@ -2164,7 +2168,7 @@
         <v>-1826</v>
       </c>
       <c r="D149">
-        <v>1.4619999999999891</v>
+        <v>-1.4619999999999891</v>
       </c>
     </row>
     <row r="150">
@@ -2178,7 +2182,7 @@
         <v>-1410</v>
       </c>
       <c r="D150">
-        <v>1.4879999999999995</v>
+        <v>-1.4879999999999995</v>
       </c>
     </row>
     <row r="151">
@@ -2192,7 +2196,7 @@
         <v>-1783</v>
       </c>
       <c r="D151">
-        <v>1.4900000000000091</v>
+        <v>-1.4900000000000091</v>
       </c>
     </row>
     <row r="152">
@@ -2206,7 +2210,7 @@
         <v>-2596</v>
       </c>
       <c r="D152">
-        <v>1.4979999999999905</v>
+        <v>-1.4979999999999905</v>
       </c>
     </row>
     <row r="153">
@@ -2220,7 +2224,7 @@
         <v>-2700</v>
       </c>
       <c r="D153">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="154">
@@ -2234,7 +2238,7 @@
         <v>-2023</v>
       </c>
       <c r="D154">
-        <v>1.5190000000000055</v>
+        <v>-1.5190000000000055</v>
       </c>
     </row>
     <row r="155">
@@ -2248,7 +2252,7 @@
         <v>-1293</v>
       </c>
       <c r="D155">
-        <v>1.5209999999999582</v>
+        <v>-1.5209999999999582</v>
       </c>
     </row>
     <row r="156">
@@ -2262,7 +2266,7 @@
         <v>-2167</v>
       </c>
       <c r="D156">
-        <v>1.5399999999999636</v>
+        <v>-1.5399999999999636</v>
       </c>
     </row>
     <row r="157">
@@ -2276,7 +2280,7 @@
         <v>-1193</v>
       </c>
       <c r="D157">
-        <v>1.5419999999999732</v>
+        <v>-1.5419999999999732</v>
       </c>
     </row>
     <row r="158">
@@ -2290,7 +2294,7 @@
         <v>-1426</v>
       </c>
       <c r="D158">
-        <v>1.5729999999999791</v>
+        <v>-1.5729999999999791</v>
       </c>
     </row>
     <row r="159">
@@ -2304,7 +2308,7 @@
         <v>-1921</v>
       </c>
       <c r="D159">
-        <v>1.5749999999999886</v>
+        <v>-1.5749999999999886</v>
       </c>
     </row>
     <row r="160">
@@ -2318,7 +2322,7 @@
         <v>-1438</v>
       </c>
       <c r="D160">
-        <v>1.5769999999999982</v>
+        <v>-1.5769999999999982</v>
       </c>
     </row>
     <row r="161">
@@ -2332,7 +2336,7 @@
         <v>-1496</v>
       </c>
       <c r="D161">
-        <v>1.5789999999999509</v>
+        <v>-1.5789999999999509</v>
       </c>
     </row>
     <row r="162">
@@ -2346,7 +2350,7 @@
         <v>-1548</v>
       </c>
       <c r="D162">
-        <v>1.59699999999998</v>
+        <v>-1.59699999999998</v>
       </c>
     </row>
     <row r="163">
@@ -2360,7 +2364,7 @@
         <v>-1462</v>
       </c>
       <c r="D163">
-        <v>1.5989999999999895</v>
+        <v>-1.5989999999999895</v>
       </c>
     </row>
     <row r="164">
@@ -2374,7 +2378,7 @@
         <v>-1397</v>
       </c>
       <c r="D164">
-        <v>1.6189999999999714</v>
+        <v>-1.6189999999999714</v>
       </c>
     </row>
     <row r="165">
@@ -2388,7 +2392,7 @@
         <v>-1404</v>
       </c>
       <c r="D165">
-        <v>1.6209999999999809</v>
+        <v>-1.6209999999999809</v>
       </c>
     </row>
     <row r="166">
@@ -2402,7 +2406,7 @@
         <v>-1406</v>
       </c>
       <c r="D166">
-        <v>1.6429999999999723</v>
+        <v>-1.6429999999999723</v>
       </c>
     </row>
     <row r="167">
@@ -2416,7 +2420,7 @@
         <v>-1324</v>
       </c>
       <c r="D167">
-        <v>1.6449999999999818</v>
+        <v>-1.6449999999999818</v>
       </c>
     </row>
     <row r="168">
@@ -2430,7 +2434,7 @@
         <v>-1295</v>
       </c>
       <c r="D168">
-        <v>1.6639999999999873</v>
+        <v>-1.6639999999999873</v>
       </c>
     </row>
     <row r="169">
@@ -2444,7 +2448,7 @@
         <v>-1339</v>
       </c>
       <c r="D169">
-        <v>1.6659999999999968</v>
+        <v>-1.6659999999999968</v>
       </c>
     </row>
     <row r="170">
@@ -2458,7 +2462,7 @@
         <v>-1336</v>
       </c>
       <c r="D170">
-        <v>1.6759999999999877</v>
+        <v>-1.6759999999999877</v>
       </c>
     </row>
     <row r="171">
@@ -2472,7 +2476,7 @@
         <v>-1399</v>
       </c>
       <c r="D171">
-        <v>1.6779999999999973</v>
+        <v>-1.6779999999999973</v>
       </c>
     </row>
     <row r="172">
@@ -2486,7 +2490,7 @@
         <v>-1407</v>
       </c>
       <c r="D172">
-        <v>1.6979999999999791</v>
+        <v>-1.6979999999999791</v>
       </c>
     </row>
     <row r="173">
@@ -2500,7 +2504,7 @@
         <v>-1432</v>
       </c>
       <c r="D173">
-        <v>1.700999999999965</v>
+        <v>-1.700999999999965</v>
       </c>
     </row>
     <row r="174">
@@ -2514,7 +2518,7 @@
         <v>-1449</v>
       </c>
       <c r="D174">
-        <v>1.7199999999999704</v>
+        <v>-1.7199999999999704</v>
       </c>
     </row>
     <row r="175">
@@ -2528,7 +2532,7 @@
         <v>-1398</v>
       </c>
       <c r="D175">
-        <v>1.72199999999998</v>
+        <v>-1.72199999999998</v>
       </c>
     </row>
     <row r="176">
@@ -2542,7 +2546,7 @@
         <v>-1440</v>
       </c>
       <c r="D176">
-        <v>1.7529999999999859</v>
+        <v>-1.7529999999999859</v>
       </c>
     </row>
     <row r="177">
@@ -2556,7 +2560,7 @@
         <v>-1490</v>
       </c>
       <c r="D177">
-        <v>1.7549999999999955</v>
+        <v>-1.7549999999999955</v>
       </c>
     </row>
     <row r="178">
@@ -2570,7 +2574,7 @@
         <v>-1450</v>
       </c>
       <c r="D178">
-        <v>1.7569999999999482</v>
+        <v>-1.7569999999999482</v>
       </c>
     </row>
     <row r="179">
@@ -2584,7 +2588,7 @@
         <v>-1468</v>
       </c>
       <c r="D179">
-        <v>1.7589999999999577</v>
+        <v>-1.7589999999999577</v>
       </c>
     </row>
     <row r="180">
@@ -2598,7 +2602,7 @@
         <v>-1420</v>
       </c>
       <c r="D180">
-        <v>1.7759999999999536</v>
+        <v>-1.7759999999999536</v>
       </c>
     </row>
     <row r="181">
@@ -2612,7 +2616,7 @@
         <v>-1454</v>
       </c>
       <c r="D181">
-        <v>1.7779999999999632</v>
+        <v>-1.7779999999999632</v>
       </c>
     </row>
     <row r="182">
@@ -2626,7 +2630,7 @@
         <v>-1458</v>
       </c>
       <c r="D182">
-        <v>1.7989999999999782</v>
+        <v>-1.7989999999999782</v>
       </c>
     </row>
     <row r="183">
@@ -2640,7 +2644,7 @@
         <v>-1417</v>
       </c>
       <c r="D183">
-        <v>1.8019999999999641</v>
+        <v>-1.8019999999999641</v>
       </c>
     </row>
     <row r="184">
@@ -2654,7 +2658,7 @@
         <v>-1429</v>
       </c>
       <c r="D184">
-        <v>1.8220000000000027</v>
+        <v>-1.8220000000000027</v>
       </c>
     </row>
     <row r="185">
@@ -2668,7 +2672,7 @@
         <v>-1433</v>
       </c>
       <c r="D185">
-        <v>1.8239999999999554</v>
+        <v>-1.8239999999999554</v>
       </c>
     </row>
     <row r="186">
@@ -2682,7 +2686,7 @@
         <v>-1428</v>
       </c>
       <c r="D186">
-        <v>1.8460000000000036</v>
+        <v>-1.8460000000000036</v>
       </c>
     </row>
     <row r="187">
@@ -2696,7 +2700,7 @@
         <v>-1424</v>
       </c>
       <c r="D187">
-        <v>1.8479999999999563</v>
+        <v>-1.8479999999999563</v>
       </c>
     </row>
     <row r="188">
@@ -2710,7 +2714,7 @@
         <v>-1447</v>
       </c>
       <c r="D188">
-        <v>1.853999999999985</v>
+        <v>-1.853999999999985</v>
       </c>
     </row>
     <row r="189">
@@ -2724,7 +2728,7 @@
         <v>-1436</v>
       </c>
       <c r="D189">
-        <v>1.8559999999999945</v>
+        <v>-1.8559999999999945</v>
       </c>
     </row>
     <row r="190">
@@ -2738,7 +2742,7 @@
         <v>-1528</v>
       </c>
       <c r="D190">
-        <v>1.8769999999999527</v>
+        <v>-1.8769999999999527</v>
       </c>
     </row>
     <row r="191">
@@ -2752,7 +2756,7 @@
         <v>-1473</v>
       </c>
       <c r="D191">
-        <v>1.8799999999999955</v>
+        <v>-1.8799999999999955</v>
       </c>
     </row>
     <row r="192">
@@ -2766,7 +2770,7 @@
         <v>-1448</v>
       </c>
       <c r="D192">
-        <v>1.8990000000000009</v>
+        <v>-1.8990000000000009</v>
       </c>
     </row>
     <row r="193">
@@ -2780,7 +2784,7 @@
         <v>-1444</v>
       </c>
       <c r="D193">
-        <v>1.9009999999999536</v>
+        <v>-1.9009999999999536</v>
       </c>
     </row>
     <row r="194">
@@ -2794,7 +2798,7 @@
         <v>-1429</v>
       </c>
       <c r="D194">
-        <v>1.9319999999999595</v>
+        <v>-1.9319999999999595</v>
       </c>
     </row>
     <row r="195">
@@ -2808,7 +2812,7 @@
         <v>-1418</v>
       </c>
       <c r="D195">
-        <v>1.9339999999999691</v>
+        <v>-1.9339999999999691</v>
       </c>
     </row>
     <row r="196">
@@ -2822,7 +2826,7 @@
         <v>-1371</v>
       </c>
       <c r="D196">
-        <v>1.9359999999999786</v>
+        <v>-1.9359999999999786</v>
       </c>
     </row>
     <row r="197">
@@ -2836,7 +2840,7 @@
         <v>-1440</v>
       </c>
       <c r="D197">
-        <v>1.9379999999999882</v>
+        <v>-1.9379999999999882</v>
       </c>
     </row>
     <row r="198">
@@ -2850,7 +2854,7 @@
         <v>-1417</v>
       </c>
       <c r="D198">
-        <v>1.9559999999999604</v>
+        <v>-1.9559999999999604</v>
       </c>
     </row>
     <row r="199">
@@ -2864,7 +2868,7 @@
         <v>-1464</v>
       </c>
       <c r="D199">
-        <v>1.95799999999997</v>
+        <v>-1.95799999999997</v>
       </c>
     </row>
     <row r="200">
@@ -2878,7 +2882,7 @@
         <v>-1486</v>
       </c>
       <c r="D200">
-        <v>1.978999999999985</v>
+        <v>-1.978999999999985</v>
       </c>
     </row>
     <row r="201">
@@ -2892,7 +2896,7 @@
         <v>-1461</v>
       </c>
       <c r="D201">
-        <v>1.9809999999999945</v>
+        <v>-1.9809999999999945</v>
       </c>
     </row>
     <row r="202">
@@ -2906,7 +2910,7 @@
         <v>-1448</v>
       </c>
       <c r="D202">
-        <v>2.0009999999999764</v>
+        <v>-2.0009999999999764</v>
       </c>
     </row>
     <row r="203">
@@ -2920,7 +2924,7 @@
         <v>-1420</v>
       </c>
       <c r="D203">
-        <v>2.0039999999999623</v>
+        <v>-2.0039999999999623</v>
       </c>
     </row>
     <row r="204">
@@ -2934,7 +2938,7 @@
         <v>-1620</v>
       </c>
       <c r="D204">
-        <v>2.0229999999999677</v>
+        <v>-2.0229999999999677</v>
       </c>
     </row>
     <row r="205">
@@ -2948,7 +2952,7 @@
         <v>-1587</v>
       </c>
       <c r="D205">
-        <v>2.0249999999999773</v>
+        <v>-2.0249999999999773</v>
       </c>
     </row>
     <row r="206">
@@ -2962,7 +2966,7 @@
         <v>-1406</v>
       </c>
       <c r="D206">
-        <v>2.0349999999999682</v>
+        <v>-2.0349999999999682</v>
       </c>
     </row>
     <row r="207">
@@ -2976,7 +2980,7 @@
         <v>-1397</v>
       </c>
       <c r="D207">
-        <v>2.0369999999999777</v>
+        <v>-2.0369999999999777</v>
       </c>
     </row>
     <row r="208">
@@ -2990,7 +2994,7 @@
         <v>-1606</v>
       </c>
       <c r="D208">
-        <v>2.0600000000000023</v>
+        <v>-2.0600000000000023</v>
       </c>
     </row>
     <row r="209">
@@ -3004,7 +3008,7 @@
         <v>-1915</v>
       </c>
       <c r="D209">
-        <v>2.0629999999999882</v>
+        <v>-2.0629999999999882</v>
       </c>
     </row>
     <row r="210">
@@ -3018,7 +3022,7 @@
         <v>-1248</v>
       </c>
       <c r="D210">
-        <v>2.0809999999999604</v>
+        <v>-2.0809999999999604</v>
       </c>
     </row>
     <row r="211">
@@ -3032,7 +3036,7 @@
         <v>-1465</v>
       </c>
       <c r="D211">
-        <v>2.08299999999997</v>
+        <v>-2.08299999999997</v>
       </c>
     </row>
     <row r="212">
@@ -3046,7 +3050,7 @@
         <v>-1743</v>
       </c>
       <c r="D212">
-        <v>2.1119999999999663</v>
+        <v>-2.1119999999999663</v>
       </c>
     </row>
     <row r="213">
@@ -3060,7 +3064,7 @@
         <v>-1485</v>
       </c>
       <c r="D213">
-        <v>2.1139999999999759</v>
+        <v>-2.1139999999999759</v>
       </c>
     </row>
     <row r="214">
@@ -3074,7 +3078,7 @@
         <v>-1355</v>
       </c>
       <c r="D214">
-        <v>2.1150000000000091</v>
+        <v>-2.1150000000000091</v>
       </c>
     </row>
     <row r="215">
@@ -3088,7 +3092,7 @@
         <v>-1367</v>
       </c>
       <c r="D215">
-        <v>2.1169999999999618</v>
+        <v>-2.1169999999999618</v>
       </c>
     </row>
     <row r="216">
@@ -3102,7 +3106,7 @@
         <v>-1353</v>
       </c>
       <c r="D216">
-        <v>2.1359999999999673</v>
+        <v>-2.1359999999999673</v>
       </c>
     </row>
     <row r="217">
@@ -3116,7 +3120,7 @@
         <v>-1343</v>
       </c>
       <c r="D217">
-        <v>2.1379999999999768</v>
+        <v>-2.1379999999999768</v>
       </c>
     </row>
     <row r="218">
@@ -3130,7 +3134,7 @@
         <v>-1177</v>
       </c>
       <c r="D218">
-        <v>2.1610000000000014</v>
+        <v>-2.1610000000000014</v>
       </c>
     </row>
     <row r="219">
@@ -3144,7 +3148,7 @@
         <v>-1989</v>
       </c>
       <c r="D219">
-        <v>2.1629999999999541</v>
+        <v>-2.1629999999999541</v>
       </c>
     </row>
     <row r="220">
@@ -3158,7 +3162,7 @@
         <v>-1692</v>
       </c>
       <c r="D220">
-        <v>2.1839999999999691</v>
+        <v>-2.1839999999999691</v>
       </c>
     </row>
     <row r="221">
@@ -3172,7 +3176,7 @@
         <v>-1384</v>
       </c>
       <c r="D221">
-        <v>2.1850000000000023</v>
+        <v>-2.1850000000000023</v>
       </c>
     </row>
     <row r="222">
@@ -3186,7 +3190,7 @@
         <v>-1432</v>
       </c>
       <c r="D222">
-        <v>2.2049999999999841</v>
+        <v>-2.2049999999999841</v>
       </c>
     </row>
     <row r="223">
@@ -3200,7 +3204,7 @@
         <v>-1353</v>
       </c>
       <c r="D223">
-        <v>2.2069999999999936</v>
+        <v>-2.2069999999999936</v>
       </c>
     </row>
     <row r="224">
@@ -3214,7 +3218,7 @@
         <v>-1352</v>
       </c>
       <c r="D224">
-        <v>2.2139999999999986</v>
+        <v>-2.2139999999999986</v>
       </c>
     </row>
     <row r="225">
@@ -3228,7 +3232,7 @@
         <v>-1539</v>
       </c>
       <c r="D225">
-        <v>2.2169999999999845</v>
+        <v>-2.2169999999999845</v>
       </c>
     </row>
     <row r="226">
@@ -3242,7 +3246,7 @@
         <v>-1372</v>
       </c>
       <c r="D226">
-        <v>2.2379999999999995</v>
+        <v>-2.2379999999999995</v>
       </c>
     </row>
     <row r="227">
@@ -3256,7 +3260,7 @@
         <v>-1330</v>
       </c>
       <c r="D227">
-        <v>2.2389999999999759</v>
+        <v>-2.2389999999999759</v>
       </c>
     </row>
     <row r="228">
@@ -3270,7 +3274,7 @@
         <v>-1636</v>
       </c>
       <c r="D228">
-        <v>2.2599999999999909</v>
+        <v>-2.2599999999999909</v>
       </c>
     </row>
     <row r="229">
@@ -3284,7 +3288,7 @@
         <v>-1625</v>
       </c>
       <c r="D229">
-        <v>2.2609999999999673</v>
+        <v>-2.2609999999999673</v>
       </c>
     </row>
     <row r="230">
@@ -3298,7 +3302,7 @@
         <v>-1083</v>
       </c>
       <c r="D230">
-        <v>2.2930000000000064</v>
+        <v>-2.2930000000000064</v>
       </c>
     </row>
     <row r="231">
@@ -3312,7 +3316,7 @@
         <v>-1084</v>
       </c>
       <c r="D231">
-        <v>2.2949999999999591</v>
+        <v>-2.2949999999999591</v>
       </c>
     </row>
     <row r="232">
@@ -3326,7 +3330,7 @@
         <v>-811</v>
       </c>
       <c r="D232">
-        <v>2.2969999999999686</v>
+        <v>-2.2969999999999686</v>
       </c>
     </row>
     <row r="233">
@@ -3340,7 +3344,7 @@
         <v>-824</v>
       </c>
       <c r="D233">
-        <v>2.2980000000000018</v>
+        <v>-2.2980000000000018</v>
       </c>
     </row>
     <row r="234">
@@ -3354,7 +3358,7 @@
         <v>-575</v>
       </c>
       <c r="D234">
-        <v>2.3170000000000073</v>
+        <v>-2.3170000000000073</v>
       </c>
     </row>
     <row r="235">
@@ -3368,7 +3372,7 @@
         <v>-2678</v>
       </c>
       <c r="D235">
-        <v>2.3199999999999932</v>
+        <v>-2.3199999999999932</v>
       </c>
     </row>
     <row r="236">
@@ -3382,7 +3386,7 @@
         <v>-3412</v>
       </c>
       <c r="D236">
-        <v>2.339999999999975</v>
+        <v>-2.339999999999975</v>
       </c>
     </row>
     <row r="237">
@@ -3396,7 +3400,7 @@
         <v>-2195</v>
       </c>
       <c r="D237">
-        <v>2.3419999999999845</v>
+        <v>-2.3419999999999845</v>
       </c>
     </row>
     <row r="238">
@@ -3410,7 +3414,7 @@
         <v>-1438</v>
       </c>
       <c r="D238">
-        <v>2.3650000000000091</v>
+        <v>-2.3650000000000091</v>
       </c>
     </row>
     <row r="239">
@@ -3424,7 +3428,7 @@
         <v>-2508</v>
       </c>
       <c r="D239">
-        <v>2.3669999999999618</v>
+        <v>-2.3669999999999618</v>
       </c>
     </row>
     <row r="240">
@@ -3438,7 +3442,7 @@
         <v>-1615</v>
       </c>
       <c r="D240">
-        <v>2.3849999999999909</v>
+        <v>-2.3849999999999909</v>
       </c>
     </row>
     <row r="241">
@@ -3452,7 +3456,7 @@
         <v>141</v>
       </c>
       <c r="D241">
-        <v>2.3899999999999864</v>
+        <v>-2.3899999999999864</v>
       </c>
     </row>
     <row r="242">
@@ -3466,7 +3470,7 @@
         <v>-1354</v>
       </c>
       <c r="D242">
-        <v>2.3949999999999818</v>
+        <v>-2.3949999999999818</v>
       </c>
     </row>
     <row r="243">
@@ -3480,7 +3484,7 @@
         <v>2761</v>
       </c>
       <c r="D243">
-        <v>2.3979999999999677</v>
+        <v>-2.3979999999999677</v>
       </c>
     </row>
     <row r="244">
@@ -3494,7 +3498,7 @@
         <v>4935</v>
       </c>
       <c r="D244">
-        <v>2.4180000000000064</v>
+        <v>-2.4180000000000064</v>
       </c>
     </row>
     <row r="245">
@@ -3508,7 +3512,7 @@
         <v>-348</v>
       </c>
       <c r="D245">
-        <v>2.4199999999999591</v>
+        <v>-2.4199999999999591</v>
       </c>
     </row>
     <row r="246">
@@ -3522,7 +3526,7 @@
         <v>5130</v>
       </c>
       <c r="D246">
-        <v>2.4409999999999741</v>
+        <v>-2.4409999999999741</v>
       </c>
     </row>
     <row r="247">
@@ -3536,7 +3540,7 @@
         <v>3669</v>
       </c>
       <c r="D247">
-        <v>2.44399999999996</v>
+        <v>-2.44399999999996</v>
       </c>
     </row>
     <row r="248">
@@ -3550,7 +3554,7 @@
         <v>3338</v>
       </c>
       <c r="D248">
-        <v>2.4729999999999563</v>
+        <v>-2.4729999999999563</v>
       </c>
     </row>
     <row r="249">
@@ -3564,7 +3568,7 @@
         <v>2735</v>
       </c>
       <c r="D249">
-        <v>2.4759999999999991</v>
+        <v>-2.4759999999999991</v>
       </c>
     </row>
     <row r="250">
@@ -3578,7 +3582,7 @@
         <v>2272</v>
       </c>
       <c r="D250">
-        <v>2.4779999999999518</v>
+        <v>-2.4779999999999518</v>
       </c>
     </row>
     <row r="251">
@@ -3592,7 +3596,7 @@
         <v>1899</v>
       </c>
       <c r="D251">
-        <v>2.478999999999985</v>
+        <v>-2.478999999999985</v>
       </c>
     </row>
     <row r="252">
@@ -3606,7 +3610,7 @@
         <v>1409</v>
       </c>
       <c r="D252">
-        <v>2.4959999999999809</v>
+        <v>-2.4959999999999809</v>
       </c>
     </row>
     <row r="253">
@@ -3620,7 +3624,7 @@
         <v>695</v>
       </c>
       <c r="D253">
-        <v>2.4989999999999668</v>
+        <v>-2.4989999999999668</v>
       </c>
     </row>
     <row r="254">
@@ -3634,7 +3638,7 @@
         <v>-219</v>
       </c>
       <c r="D254">
-        <v>2.5190000000000055</v>
+        <v>-2.5190000000000055</v>
       </c>
     </row>
     <row r="255">
@@ -3648,7 +3652,7 @@
         <v>-807</v>
       </c>
       <c r="D255">
-        <v>2.5219999999999914</v>
+        <v>-2.5219999999999914</v>
       </c>
     </row>
     <row r="256">
@@ -3662,7 +3666,7 @@
         <v>-1639</v>
       </c>
       <c r="D256">
-        <v>2.5419999999999732</v>
+        <v>-2.5419999999999732</v>
       </c>
     </row>
     <row r="257">
@@ -3676,7 +3680,7 @@
         <v>-2067</v>
       </c>
       <c r="D257">
-        <v>2.5439999999999827</v>
+        <v>-2.5439999999999827</v>
       </c>
     </row>
     <row r="258">
@@ -3690,7 +3694,7 @@
         <v>-2246</v>
       </c>
       <c r="D258">
-        <v>2.5639999999999645</v>
+        <v>-2.5639999999999645</v>
       </c>
     </row>
     <row r="259">
@@ -3704,7 +3708,7 @@
         <v>-2376</v>
       </c>
       <c r="D259">
-        <v>2.5659999999999741</v>
+        <v>-2.5659999999999741</v>
       </c>
     </row>
     <row r="260">
@@ -3718,7 +3722,7 @@
         <v>-2041</v>
       </c>
       <c r="D260">
-        <v>2.5749999999999886</v>
+        <v>-2.5749999999999886</v>
       </c>
     </row>
     <row r="261">
@@ -3732,7 +3736,7 @@
         <v>-1814</v>
       </c>
       <c r="D261">
-        <v>2.5779999999999745</v>
+        <v>-2.5779999999999745</v>
       </c>
     </row>
     <row r="262">
@@ -3746,7 +3750,7 @@
         <v>-1402</v>
       </c>
       <c r="D262">
-        <v>2.5979999999999563</v>
+        <v>-2.5979999999999563</v>
       </c>
     </row>
     <row r="263">
@@ -3760,7 +3764,7 @@
         <v>-767</v>
       </c>
       <c r="D263">
-        <v>2.5999999999999659</v>
+        <v>-2.5999999999999659</v>
       </c>
     </row>
     <row r="264">
@@ -3774,7 +3778,7 @@
         <v>-1006</v>
       </c>
       <c r="D264">
-        <v>2.6209999999999809</v>
+        <v>-2.6209999999999809</v>
       </c>
     </row>
     <row r="265">
@@ -3788,7 +3792,7 @@
         <v>-1469</v>
       </c>
       <c r="D265">
-        <v>2.6239999999999668</v>
+        <v>-2.6239999999999668</v>
       </c>
     </row>
     <row r="266">
@@ -3802,7 +3806,7 @@
         <v>-1488</v>
       </c>
       <c r="D266">
-        <v>2.6529999999999632</v>
+        <v>-2.6529999999999632</v>
       </c>
     </row>
     <row r="267">
@@ -3816,7 +3820,7 @@
         <v>-2933</v>
       </c>
       <c r="D267">
-        <v>2.6549999999999727</v>
+        <v>-2.6549999999999727</v>
       </c>
     </row>
     <row r="268">
@@ -3830,7 +3834,7 @@
         <v>-4127</v>
       </c>
       <c r="D268">
-        <v>2.6569999999999823</v>
+        <v>-2.6569999999999823</v>
       </c>
     </row>
     <row r="269">
@@ -3844,7 +3848,7 @@
         <v>-5617</v>
       </c>
       <c r="D269">
-        <v>2.6589999999999918</v>
+        <v>-2.6589999999999918</v>
       </c>
     </row>
     <row r="270">
@@ -3858,7 +3862,7 @@
         <v>-7487</v>
       </c>
       <c r="D270">
-        <v>2.6759999999999877</v>
+        <v>-2.6759999999999877</v>
       </c>
     </row>
     <row r="271">
@@ -3872,7 +3876,7 @@
         <v>-8322</v>
       </c>
       <c r="D271">
-        <v>2.6769999999999641</v>
+        <v>-2.6769999999999641</v>
       </c>
     </row>
     <row r="272">
@@ -3886,7 +3890,7 @@
         <v>-8912</v>
       </c>
       <c r="D272">
-        <v>2.6989999999999554</v>
+        <v>-2.6989999999999554</v>
       </c>
     </row>
     <row r="273">
@@ -3900,7 +3904,7 @@
         <v>-8693</v>
       </c>
       <c r="D273">
-        <v>2.7019999999999982</v>
+        <v>-2.7019999999999982</v>
       </c>
     </row>
     <row r="274">
@@ -3914,7 +3918,7 @@
         <v>-8355</v>
       </c>
       <c r="D274">
-        <v>2.7210000000000036</v>
+        <v>-2.7210000000000036</v>
       </c>
     </row>
     <row r="275">
@@ -3928,7 +3932,7 @@
         <v>-7509</v>
       </c>
       <c r="D275">
-        <v>2.7249999999999659</v>
+        <v>-2.7249999999999659</v>
       </c>
     </row>
     <row r="276">
@@ -3942,7 +3946,7 @@
         <v>-7184</v>
       </c>
       <c r="D276">
-        <v>2.742999999999995</v>
+        <v>-2.742999999999995</v>
       </c>
     </row>
     <row r="277">
@@ -3956,7 +3960,7 @@
         <v>-7185</v>
       </c>
       <c r="D277">
-        <v>2.7439999999999714</v>
+        <v>-2.7439999999999714</v>
       </c>
     </row>
     <row r="278">
@@ -3970,7 +3974,7 @@
         <v>-6872</v>
       </c>
       <c r="D278">
-        <v>2.7539999999999623</v>
+        <v>-2.7539999999999623</v>
       </c>
     </row>
     <row r="279">
@@ -3984,7 +3988,7 @@
         <v>-6657</v>
       </c>
       <c r="D279">
-        <v>2.7559999999999718</v>
+        <v>-2.7559999999999718</v>
       </c>
     </row>
     <row r="280">
@@ -3998,7 +4002,7 @@
         <v>-7453</v>
       </c>
       <c r="D280">
-        <v>2.7769999999999868</v>
+        <v>-2.7769999999999868</v>
       </c>
     </row>
     <row r="281">
@@ -4012,7 +4016,7 @@
         <v>-8704</v>
       </c>
       <c r="D281">
-        <v>2.7789999999999964</v>
+        <v>-2.7789999999999964</v>
       </c>
     </row>
     <row r="282">
@@ -4026,7 +4030,7 @@
         <v>-3151</v>
       </c>
       <c r="D282">
-        <v>2.7999999999999545</v>
+        <v>-2.7999999999999545</v>
       </c>
     </row>
     <row r="283">
@@ -4040,7 +4044,7 @@
         <v>-2203</v>
       </c>
       <c r="D283">
-        <v>2.8009999999999877</v>
+        <v>-2.8009999999999877</v>
       </c>
     </row>
     <row r="284">
@@ -4054,7 +4058,7 @@
         <v>3305</v>
       </c>
       <c r="D284">
-        <v>2.8239999999999554</v>
+        <v>-2.8239999999999554</v>
       </c>
     </row>
     <row r="285">
@@ -4068,7 +4072,7 @@
         <v>2407</v>
       </c>
       <c r="D285">
-        <v>2.825999999999965</v>
+        <v>-2.825999999999965</v>
       </c>
     </row>
     <row r="286">
@@ -4082,7 +4086,7 @@
         <v>1543</v>
       </c>
       <c r="D286">
-        <v>2.8359999999999559</v>
+        <v>-2.8359999999999559</v>
       </c>
     </row>
     <row r="287">
@@ -4096,7 +4100,7 @@
         <v>-2604</v>
       </c>
       <c r="D287">
-        <v>2.8379999999999654</v>
+        <v>-2.8379999999999654</v>
       </c>
     </row>
     <row r="288">
@@ -4110,7 +4114,7 @@
         <v>-1889</v>
       </c>
       <c r="D288">
-        <v>2.8559999999999945</v>
+        <v>-2.8559999999999945</v>
       </c>
     </row>
     <row r="289">
@@ -4124,7 +4128,7 @@
         <v>-1933</v>
       </c>
       <c r="D289">
-        <v>2.8579999999999472</v>
+        <v>-2.8579999999999472</v>
       </c>
     </row>
     <row r="290">
@@ -4138,7 +4142,7 @@
         <v>-3256</v>
       </c>
       <c r="D290">
-        <v>2.8789999999999623</v>
+        <v>-2.8789999999999623</v>
       </c>
     </row>
     <row r="291">
@@ -4152,7 +4156,7 @@
         <v>-3008</v>
       </c>
       <c r="D291">
-        <v>2.8809999999999718</v>
+        <v>-2.8809999999999718</v>
       </c>
     </row>
     <row r="292">
@@ -4166,7 +4170,7 @@
         <v>-1677</v>
       </c>
       <c r="D292">
-        <v>2.9009999999999536</v>
+        <v>-2.9009999999999536</v>
       </c>
     </row>
     <row r="293">
@@ -4180,7 +4184,7 @@
         <v>-1607</v>
       </c>
       <c r="D293">
-        <v>2.9029999999999632</v>
+        <v>-2.9029999999999632</v>
       </c>
     </row>
     <row r="294">
@@ -4194,7 +4198,7 @@
         <v>-2108</v>
       </c>
       <c r="D294">
-        <v>2.9249999999999545</v>
+        <v>-2.9249999999999545</v>
       </c>
     </row>
     <row r="295">
@@ -4208,7 +4212,7 @@
         <v>-2061</v>
       </c>
       <c r="D295">
-        <v>2.9279999999999973</v>
+        <v>-2.9279999999999973</v>
       </c>
     </row>
     <row r="296">
@@ -4222,7 +4226,7 @@
         <v>-1428</v>
       </c>
       <c r="D296">
-        <v>2.9339999999999691</v>
+        <v>-2.9339999999999691</v>
       </c>
     </row>
     <row r="297">
@@ -4236,7 +4240,7 @@
         <v>-1305</v>
       </c>
       <c r="D297">
-        <v>2.936999999999955</v>
+        <v>-2.936999999999955</v>
       </c>
     </row>
     <row r="298">
@@ -4250,7 +4254,7 @@
         <v>-1466</v>
       </c>
       <c r="D298">
-        <v>2.9589999999999463</v>
+        <v>-2.9589999999999463</v>
       </c>
     </row>
     <row r="299">
@@ -4264,7 +4268,7 @@
         <v>-1826</v>
       </c>
       <c r="D299">
-        <v>2.9609999999999559</v>
+        <v>-2.9609999999999559</v>
       </c>
     </row>
     <row r="300">
@@ -4278,7 +4282,7 @@
         <v>-1282</v>
       </c>
       <c r="D300">
-        <v>2.9799999999999613</v>
+        <v>-2.9799999999999613</v>
       </c>
     </row>
     <row r="301">
@@ -4292,7 +4296,7 @@
         <v>-1565</v>
       </c>
       <c r="D301">
-        <v>2.9819999999999709</v>
+        <v>-2.9819999999999709</v>
       </c>
     </row>
     <row r="302">
@@ -4306,7 +4310,7 @@
         <v>-1467</v>
       </c>
       <c r="D302">
-        <v>3.0129999999999768</v>
+        <v>-3.0129999999999768</v>
       </c>
     </row>
     <row r="303">
@@ -4320,7 +4324,7 @@
         <v>-1451</v>
       </c>
       <c r="D303">
-        <v>3.0149999999999864</v>
+        <v>-3.0149999999999864</v>
       </c>
     </row>
     <row r="304">
@@ -4334,7 +4338,7 @@
         <v>-1583</v>
       </c>
       <c r="D304">
-        <v>3.0169999999999959</v>
+        <v>-3.0169999999999959</v>
       </c>
     </row>
     <row r="305">
@@ -4348,7 +4352,7 @@
         <v>-1530</v>
       </c>
       <c r="D305">
-        <v>3.0179999999999723</v>
+        <v>-3.0179999999999723</v>
       </c>
     </row>
     <row r="306">
@@ -4362,7 +4366,7 @@
         <v>-1516</v>
       </c>
       <c r="D306">
-        <v>3.0379999999999541</v>
+        <v>-3.0379999999999541</v>
       </c>
     </row>
     <row r="307">
@@ -4376,7 +4380,7 @@
         <v>-1513</v>
       </c>
       <c r="D307">
-        <v>3.0399999999999636</v>
+        <v>-3.0399999999999636</v>
       </c>
     </row>
     <row r="308">
@@ -4390,7 +4394,7 @@
         <v>-1446</v>
       </c>
       <c r="D308">
-        <v>3.0589999999999691</v>
+        <v>-3.0589999999999691</v>
       </c>
     </row>
     <row r="309">
@@ -4404,7 +4408,7 @@
         <v>-1482</v>
       </c>
       <c r="D309">
-        <v>3.0609999999999786</v>
+        <v>-3.0609999999999786</v>
       </c>
     </row>
     <row r="310">
@@ -4418,7 +4422,7 @@
         <v>-1476</v>
       </c>
       <c r="D310">
-        <v>3.0819999999999936</v>
+        <v>-3.0819999999999936</v>
       </c>
     </row>
     <row r="311">
@@ -4432,7 +4436,7 @@
         <v>-1460</v>
       </c>
       <c r="D311">
-        <v>3.0849999999999795</v>
+        <v>-3.0849999999999795</v>
       </c>
     </row>
     <row r="312">
@@ -4446,7 +4450,7 @@
         <v>-1460</v>
       </c>
       <c r="D312">
-        <v>3.1049999999999613</v>
+        <v>-3.1049999999999613</v>
       </c>
     </row>
     <row r="313">
@@ -4460,7 +4464,7 @@
         <v>-1539</v>
       </c>
       <c r="D313">
-        <v>3.1079999999999472</v>
+        <v>-3.1079999999999472</v>
       </c>
     </row>
     <row r="314">
@@ -4474,7 +4478,7 @@
         <v>-1512</v>
       </c>
       <c r="D314">
-        <v>3.1150000000000091</v>
+        <v>-3.1150000000000091</v>
       </c>
     </row>
     <row r="315">
@@ -4488,7 +4492,7 @@
         <v>-1488</v>
       </c>
       <c r="D315">
-        <v>3.1169999999999618</v>
+        <v>-3.1169999999999618</v>
       </c>
     </row>
     <row r="316">
@@ -4502,7 +4506,7 @@
         <v>-1511</v>
       </c>
       <c r="D316">
-        <v>3.1370000000000005</v>
+        <v>-3.1370000000000005</v>
       </c>
     </row>
     <row r="317">
@@ -4516,7 +4520,7 @@
         <v>-1477</v>
       </c>
       <c r="D317">
-        <v>3.1389999999999532</v>
+        <v>-3.1389999999999532</v>
       </c>
     </row>
     <row r="318">
@@ -4530,7 +4534,7 @@
         <v>-1499</v>
       </c>
       <c r="D318">
-        <v>3.1669999999999732</v>
+        <v>-3.1669999999999732</v>
       </c>
     </row>
     <row r="319">
@@ -4544,7 +4548,7 @@
         <v>-1483</v>
       </c>
       <c r="D319">
-        <v>3.1680000000000064</v>
+        <v>-3.1680000000000064</v>
       </c>
     </row>
     <row r="320">
@@ -4558,7 +4562,7 @@
         <v>-1485</v>
       </c>
       <c r="D320">
-        <v>3.1920000000000073</v>
+        <v>-3.1920000000000073</v>
       </c>
     </row>
     <row r="321">
@@ -4572,7 +4576,7 @@
         <v>-1491</v>
       </c>
       <c r="D321">
-        <v>3.19399999999996</v>
+        <v>-3.19399999999996</v>
       </c>
     </row>
     <row r="322">
@@ -4586,7 +4590,7 @@
         <v>-1444</v>
       </c>
       <c r="D322">
-        <v>3.1949999999999932</v>
+        <v>-3.1949999999999932</v>
       </c>
     </row>
     <row r="323">
@@ -4600,7 +4604,7 @@
         <v>-1490</v>
       </c>
       <c r="D323">
-        <v>3.1959999999999695</v>
+        <v>-3.1959999999999695</v>
       </c>
     </row>
     <row r="324">
@@ -4614,7 +4618,7 @@
         <v>-1513</v>
       </c>
       <c r="D324">
-        <v>3.214999999999975</v>
+        <v>-3.214999999999975</v>
       </c>
     </row>
     <row r="325">
@@ -4628,7 +4632,7 @@
         <v>-1548</v>
       </c>
       <c r="D325">
-        <v>3.2169999999999845</v>
+        <v>-3.2169999999999845</v>
       </c>
     </row>
     <row r="326">
@@ -4642,7 +4646,7 @@
         <v>-1549</v>
       </c>
       <c r="D326">
-        <v>3.2400000000000091</v>
+        <v>-3.2400000000000091</v>
       </c>
     </row>
     <row r="327">
@@ -4656,7 +4660,7 @@
         <v>-1532</v>
       </c>
       <c r="D327">
-        <v>3.242999999999995</v>
+        <v>-3.242999999999995</v>
       </c>
     </row>
     <row r="328">
@@ -4670,7 +4674,7 @@
         <v>-1555</v>
       </c>
       <c r="D328">
-        <v>3.2609999999999673</v>
+        <v>-3.2609999999999673</v>
       </c>
     </row>
     <row r="329">
@@ -4684,7 +4688,7 @@
         <v>-1578</v>
       </c>
       <c r="D329">
-        <v>3.2639999999999532</v>
+        <v>-3.2639999999999532</v>
       </c>
     </row>
     <row r="330">
@@ -4698,7 +4702,7 @@
         <v>-1498</v>
       </c>
       <c r="D330">
-        <v>3.2829999999999586</v>
+        <v>-3.2829999999999586</v>
       </c>
     </row>
     <row r="331">
@@ -4712,7 +4716,7 @@
         <v>-1512</v>
       </c>
       <c r="D331">
-        <v>3.2849999999999682</v>
+        <v>-3.2849999999999682</v>
       </c>
     </row>
     <row r="332">
@@ -4726,7 +4730,7 @@
         <v>-1530</v>
       </c>
       <c r="D332">
-        <v>3.2959999999999923</v>
+        <v>-3.2959999999999923</v>
       </c>
     </row>
     <row r="333">
@@ -4740,7 +4744,7 @@
         <v>-1520</v>
       </c>
       <c r="D333">
-        <v>3.2989999999999782</v>
+        <v>-3.2989999999999782</v>
       </c>
     </row>
     <row r="334">
@@ -4754,7 +4758,7 @@
         <v>-1502</v>
       </c>
       <c r="D334">
-        <v>3.3170000000000073</v>
+        <v>-3.3170000000000073</v>
       </c>
     </row>
     <row r="335">
@@ -4768,7 +4772,7 @@
         <v>-1497</v>
       </c>
       <c r="D335">
-        <v>3.31899999999996</v>
+        <v>-3.31899999999996</v>
       </c>
     </row>
     <row r="336">
@@ -4782,7 +4786,7 @@
         <v>-1546</v>
       </c>
       <c r="D336">
-        <v>3.339999999999975</v>
+        <v>-3.339999999999975</v>
       </c>
     </row>
     <row r="337">
@@ -4796,7 +4800,7 @@
         <v>-1551</v>
       </c>
       <c r="D337">
-        <v>3.3419999999999845</v>
+        <v>-3.3419999999999845</v>
       </c>
     </row>
     <row r="338">
@@ -4810,7 +4814,7 @@
         <v>-1511</v>
       </c>
       <c r="D338">
-        <v>3.3729999999999905</v>
+        <v>-3.3729999999999905</v>
       </c>
     </row>
     <row r="339">
@@ -4824,7 +4828,7 @@
         <v>-1522</v>
       </c>
       <c r="D339">
-        <v>3.375</v>
+        <v>-3.375</v>
       </c>
     </row>
     <row r="340">
@@ -4838,7 +4842,7 @@
         <v>-1552</v>
       </c>
       <c r="D340">
-        <v>3.3759999999999764</v>
+        <v>-3.3759999999999764</v>
       </c>
     </row>
     <row r="341">
@@ -4852,7 +4856,7 @@
         <v>-1581</v>
       </c>
       <c r="D341">
-        <v>3.3769999999999527</v>
+        <v>-3.3769999999999527</v>
       </c>
     </row>
     <row r="342">
@@ -4866,7 +4870,7 @@
         <v>-1526</v>
       </c>
       <c r="D342">
-        <v>3.3959999999999582</v>
+        <v>-3.3959999999999582</v>
       </c>
     </row>
     <row r="343">
@@ -4880,7 +4884,7 @@
         <v>-1406</v>
       </c>
       <c r="D343">
-        <v>3.3979999999999677</v>
+        <v>-3.3979999999999677</v>
       </c>
     </row>
     <row r="344">
@@ -4894,7 +4898,7 @@
         <v>-1494</v>
       </c>
       <c r="D344">
-        <v>3.4180000000000064</v>
+        <v>-3.4180000000000064</v>
       </c>
     </row>
     <row r="345">
@@ -4908,7 +4912,7 @@
         <v>-1521</v>
       </c>
       <c r="D345">
-        <v>3.4209999999999923</v>
+        <v>-3.4209999999999923</v>
       </c>
     </row>
     <row r="346">
@@ -4922,7 +4926,7 @@
         <v>-1654</v>
       </c>
       <c r="D346">
-        <v>3.4409999999999741</v>
+        <v>-3.4409999999999741</v>
       </c>
     </row>
     <row r="347">
@@ -4936,7 +4940,7 @@
         <v>-1464</v>
       </c>
       <c r="D347">
-        <v>3.44399999999996</v>
+        <v>-3.44399999999996</v>
       </c>
     </row>
     <row r="348">
@@ -4950,7 +4954,7 @@
         <v>-1198</v>
       </c>
       <c r="D348">
-        <v>3.4629999999999654</v>
+        <v>-3.4629999999999654</v>
       </c>
     </row>
     <row r="349">
@@ -4964,7 +4968,7 @@
         <v>-1468</v>
       </c>
       <c r="D349">
-        <v>3.464999999999975</v>
+        <v>-3.464999999999975</v>
       </c>
     </row>
     <row r="350">
@@ -4978,7 +4982,7 @@
         <v>-1520</v>
       </c>
       <c r="D350">
-        <v>3.4759999999999991</v>
+        <v>-3.4759999999999991</v>
       </c>
     </row>
     <row r="351">
@@ -4992,7 +4996,7 @@
         <v>-1484</v>
       </c>
       <c r="D351">
-        <v>3.478999999999985</v>
+        <v>-3.478999999999985</v>
       </c>
     </row>
     <row r="352">
@@ -5006,7 +5010,7 @@
         <v>-1460</v>
       </c>
       <c r="D352">
-        <v>3.4969999999999573</v>
+        <v>-3.4969999999999573</v>
       </c>
     </row>
     <row r="353">
@@ -5020,7 +5024,7 @@
         <v>-1649</v>
       </c>
       <c r="D353">
-        <v>3.5009999999999764</v>
+        <v>-3.5009999999999764</v>
       </c>
     </row>
     <row r="354">
@@ -5034,7 +5038,7 @@
         <v>-1246</v>
       </c>
       <c r="D354">
-        <v>3.5209999999999582</v>
+        <v>-3.5209999999999582</v>
       </c>
     </row>
     <row r="355">
@@ -5048,7 +5052,7 @@
         <v>-1413</v>
       </c>
       <c r="D355">
-        <v>3.5240000000000009</v>
+        <v>-3.5240000000000009</v>
       </c>
     </row>
     <row r="356">
@@ -5062,7 +5066,7 @@
         <v>-1845</v>
       </c>
       <c r="D356">
-        <v>3.5529999999999973</v>
+        <v>-3.5529999999999973</v>
       </c>
     </row>
     <row r="357">
@@ -5076,7 +5080,7 @@
         <v>-1185</v>
       </c>
       <c r="D357">
-        <v>3.55499999999995</v>
+        <v>-3.55499999999995</v>
       </c>
     </row>
     <row r="358">
@@ -5090,7 +5094,7 @@
         <v>-1395</v>
       </c>
       <c r="D358">
-        <v>3.5569999999999595</v>
+        <v>-3.5569999999999595</v>
       </c>
     </row>
     <row r="359">
@@ -5104,7 +5108,7 @@
         <v>-1206</v>
       </c>
       <c r="D359">
-        <v>3.5579999999999927</v>
+        <v>-3.5579999999999927</v>
       </c>
     </row>
     <row r="360">
@@ -5118,7 +5122,7 @@
         <v>-963</v>
       </c>
       <c r="D360">
-        <v>3.5769999999999982</v>
+        <v>-3.5769999999999982</v>
       </c>
     </row>
     <row r="361">
@@ -5132,7 +5136,7 @@
         <v>-66</v>
       </c>
       <c r="D361">
-        <v>3.5799999999999841</v>
+        <v>-3.5799999999999841</v>
       </c>
     </row>
     <row r="362">
@@ -5146,7 +5150,7 @@
         <v>81</v>
       </c>
       <c r="D362">
-        <v>3.5989999999999895</v>
+        <v>-3.5989999999999895</v>
       </c>
     </row>
     <row r="363">
@@ -5160,7 +5164,7 @@
         <v>-444</v>
       </c>
       <c r="D363">
-        <v>3.6019999999999754</v>
+        <v>-3.6019999999999754</v>
       </c>
     </row>
     <row r="364">
@@ -5174,7 +5178,7 @@
         <v>-2880</v>
       </c>
       <c r="D364">
-        <v>3.6219999999999573</v>
+        <v>-3.6219999999999573</v>
       </c>
     </row>
     <row r="365">
@@ -5188,7 +5192,7 @@
         <v>-2427</v>
       </c>
       <c r="D365">
-        <v>3.6239999999999668</v>
+        <v>-3.6239999999999668</v>
       </c>
     </row>
     <row r="366">
@@ -5202,7 +5206,7 @@
         <v>888</v>
       </c>
       <c r="D366">
-        <v>3.6429999999999723</v>
+        <v>-3.6429999999999723</v>
       </c>
     </row>
     <row r="367">
@@ -5216,7 +5220,7 @@
         <v>-4278</v>
       </c>
       <c r="D367">
-        <v>3.6459999999999582</v>
+        <v>-3.6459999999999582</v>
       </c>
     </row>
     <row r="368">
@@ -5230,7 +5234,7 @@
         <v>-1497</v>
       </c>
       <c r="D368">
-        <v>3.6549999999999727</v>
+        <v>-3.6549999999999727</v>
       </c>
     </row>
     <row r="369">
@@ -5244,7 +5248,7 @@
         <v>-2408</v>
       </c>
       <c r="D369">
-        <v>3.6579999999999586</v>
+        <v>-3.6579999999999586</v>
       </c>
     </row>
     <row r="370">
@@ -5258,7 +5262,7 @@
         <v>1171</v>
       </c>
       <c r="D370">
-        <v>3.6779999999999973</v>
+        <v>-3.6779999999999973</v>
       </c>
     </row>
     <row r="371">
@@ -5272,7 +5276,7 @@
         <v>9319</v>
       </c>
       <c r="D371">
-        <v>3.6809999999999832</v>
+        <v>-3.6809999999999832</v>
       </c>
     </row>
     <row r="372">
@@ -5286,7 +5290,7 @@
         <v>6372</v>
       </c>
       <c r="D372">
-        <v>3.6999999999999886</v>
+        <v>-3.6999999999999886</v>
       </c>
     </row>
     <row r="373">
@@ -5300,7 +5304,7 @@
         <v>6387</v>
       </c>
       <c r="D373">
-        <v>3.700999999999965</v>
+        <v>-3.700999999999965</v>
       </c>
     </row>
     <row r="374">
@@ -5314,7 +5318,7 @@
         <v>8414</v>
       </c>
       <c r="D374">
-        <v>3.7329999999999472</v>
+        <v>-3.7329999999999472</v>
       </c>
     </row>
     <row r="375">
@@ -5328,7 +5332,7 @@
         <v>4923</v>
       </c>
       <c r="D375">
-        <v>3.7349999999999568</v>
+        <v>-3.7349999999999568</v>
       </c>
     </row>
     <row r="376">
@@ -5342,7 +5346,7 @@
         <v>-347</v>
       </c>
       <c r="D376">
-        <v>3.7369999999999663</v>
+        <v>-3.7369999999999663</v>
       </c>
     </row>
     <row r="377">
@@ -5356,7 +5360,7 @@
         <v>1237</v>
       </c>
       <c r="D377">
-        <v>3.7389999999999759</v>
+        <v>-3.7389999999999759</v>
       </c>
     </row>
     <row r="378">
@@ -5370,7 +5374,7 @@
         <v>1574</v>
       </c>
       <c r="D378">
-        <v>3.7669999999999959</v>
+        <v>-3.7669999999999959</v>
       </c>
     </row>
     <row r="379">
@@ -5384,7 +5388,7 @@
         <v>26</v>
       </c>
       <c r="D379">
-        <v>3.7690000000000055</v>
+        <v>-3.7690000000000055</v>
       </c>
     </row>
     <row r="380">
@@ -5398,7 +5402,7 @@
         <v>-297</v>
       </c>
       <c r="D380">
-        <v>3.7799999999999727</v>
+        <v>-3.7799999999999727</v>
       </c>
     </row>
     <row r="381">
@@ -5412,7 +5416,7 @@
         <v>-536</v>
       </c>
       <c r="D381">
-        <v>3.7829999999999586</v>
+        <v>-3.7829999999999586</v>
       </c>
     </row>
     <row r="382">
@@ -5426,7 +5430,7 @@
         <v>-1165</v>
       </c>
       <c r="D382">
-        <v>3.8019999999999641</v>
+        <v>-3.8019999999999641</v>
       </c>
     </row>
     <row r="383">
@@ -5440,7 +5444,7 @@
         <v>-2117</v>
       </c>
       <c r="D383">
-        <v>3.80499999999995</v>
+        <v>-3.80499999999995</v>
       </c>
     </row>
     <row r="384">
@@ -5454,7 +5458,7 @@
         <v>-2721</v>
       </c>
       <c r="D384">
-        <v>3.8229999999999791</v>
+        <v>-3.8229999999999791</v>
       </c>
     </row>
     <row r="385">
@@ -5468,7 +5472,7 @@
         <v>-1320</v>
       </c>
       <c r="D385">
-        <v>3.8249999999999886</v>
+        <v>-3.8249999999999886</v>
       </c>
     </row>
     <row r="386">
@@ -5482,7 +5486,7 @@
         <v>-1034</v>
       </c>
       <c r="D386">
-        <v>3.8349999999999795</v>
+        <v>-3.8349999999999795</v>
       </c>
     </row>
     <row r="387">
@@ -5496,7 +5500,7 @@
         <v>-497</v>
       </c>
       <c r="D387">
-        <v>3.8369999999999891</v>
+        <v>-3.8369999999999891</v>
       </c>
     </row>
     <row r="388">
@@ -5510,7 +5514,7 @@
         <v>-120</v>
       </c>
       <c r="D388">
-        <v>3.8589999999999804</v>
+        <v>-3.8589999999999804</v>
       </c>
     </row>
     <row r="389">
@@ -5524,7 +5528,7 @@
         <v>-76</v>
       </c>
       <c r="D389">
-        <v>3.8619999999999663</v>
+        <v>-3.8619999999999663</v>
       </c>
     </row>
     <row r="390">
@@ -5538,7 +5542,7 @@
         <v>-438</v>
       </c>
       <c r="D390">
-        <v>3.8799999999999955</v>
+        <v>-3.8799999999999955</v>
       </c>
     </row>
     <row r="391">
@@ -5552,7 +5556,7 @@
         <v>-1048</v>
       </c>
       <c r="D391">
-        <v>3.8819999999999482</v>
+        <v>-3.8819999999999482</v>
       </c>
     </row>
     <row r="392">
@@ -5566,7 +5570,7 @@
         <v>-2552</v>
       </c>
       <c r="D392">
-        <v>3.9129999999999541</v>
+        <v>-3.9129999999999541</v>
       </c>
     </row>
     <row r="393">
@@ -5580,7 +5584,7 @@
         <v>-4039</v>
       </c>
       <c r="D393">
-        <v>3.9149999999999636</v>
+        <v>-3.9149999999999636</v>
       </c>
     </row>
     <row r="394">
@@ -5594,7 +5598,7 @@
         <v>-5758</v>
       </c>
       <c r="D394">
-        <v>3.9169999999999732</v>
+        <v>-3.9169999999999732</v>
       </c>
     </row>
     <row r="395">
@@ -5608,7 +5612,7 @@
         <v>-7273</v>
       </c>
       <c r="D395">
-        <v>3.9189999999999827</v>
+        <v>-3.9189999999999827</v>
       </c>
     </row>
     <row r="396">
@@ -5622,7 +5626,7 @@
         <v>-8682</v>
       </c>
       <c r="D396">
-        <v>3.9399999999999977</v>
+        <v>-3.9399999999999977</v>
       </c>
     </row>
     <row r="397">
@@ -5636,7 +5640,7 @@
         <v>-9304</v>
       </c>
       <c r="D397">
-        <v>3.9420000000000073</v>
+        <v>-3.9420000000000073</v>
       </c>
     </row>
     <row r="398">
@@ -5650,7 +5654,7 @@
         <v>-9804</v>
       </c>
       <c r="D398">
-        <v>3.95799999999997</v>
+        <v>-3.95799999999997</v>
       </c>
     </row>
     <row r="399">
@@ -5664,7 +5668,7 @@
         <v>-10370</v>
       </c>
       <c r="D399">
-        <v>3.9589999999999463</v>
+        <v>-3.9589999999999463</v>
       </c>
     </row>
     <row r="400">
@@ -5678,7 +5682,7 @@
         <v>-10680</v>
       </c>
       <c r="D400">
-        <v>3.9829999999999472</v>
+        <v>-3.9829999999999472</v>
       </c>
     </row>
     <row r="401">
@@ -5692,7 +5696,7 @@
         <v>-10770</v>
       </c>
       <c r="D401">
-        <v>3.9849999999999568</v>
+        <v>-3.9849999999999568</v>
       </c>
     </row>
     <row r="402">
@@ -5706,7 +5710,7 @@
         <v>-10655</v>
       </c>
       <c r="D402">
-        <v>4.0029999999999859</v>
+        <v>-4.0029999999999859</v>
       </c>
     </row>
     <row r="403">
@@ -5720,7 +5724,7 @@
         <v>-9913</v>
       </c>
       <c r="D403">
-        <v>4.0049999999999955</v>
+        <v>-4.0049999999999955</v>
       </c>
     </row>
     <row r="404">
@@ -5734,7 +5738,7 @@
         <v>-9085</v>
       </c>
       <c r="D404">
-        <v>4.0149999999999864</v>
+        <v>-4.0149999999999864</v>
       </c>
     </row>
     <row r="405">
@@ -5748,7 +5752,7 @@
         <v>-8070</v>
       </c>
       <c r="D405">
-        <v>4.0169999999999959</v>
+        <v>-4.0169999999999959</v>
       </c>
     </row>
     <row r="406">
@@ -5762,7 +5766,7 @@
         <v>-5922</v>
       </c>
       <c r="D406">
-        <v>4.0379999999999541</v>
+        <v>-4.0379999999999541</v>
       </c>
     </row>
     <row r="407">
@@ -5776,7 +5780,7 @@
         <v>-1221</v>
       </c>
       <c r="D407">
-        <v>4.0399999999999636</v>
+        <v>-4.0399999999999636</v>
       </c>
     </row>
     <row r="408">
@@ -5790,7 +5794,7 @@
         <v>748</v>
       </c>
       <c r="D408">
-        <v>4.0600000000000023</v>
+        <v>-4.0600000000000023</v>
       </c>
     </row>
     <row r="409">
@@ -5804,7 +5808,7 @@
         <v>4346</v>
       </c>
       <c r="D409">
-        <v>4.0629999999999882</v>
+        <v>-4.0629999999999882</v>
       </c>
     </row>
     <row r="410">
@@ -5818,7 +5822,7 @@
         <v>-58</v>
       </c>
       <c r="D410">
-        <v>4.0929999999999609</v>
+        <v>-4.0929999999999609</v>
       </c>
     </row>
     <row r="411">
@@ -5832,7 +5836,7 @@
         <v>-3325</v>
       </c>
       <c r="D411">
-        <v>4.0949999999999704</v>
+        <v>-4.0949999999999704</v>
       </c>
     </row>
     <row r="412">
@@ -5846,7 +5850,7 @@
         <v>-5005</v>
       </c>
       <c r="D412">
-        <v>4.1049999999999613</v>
+        <v>-4.1049999999999613</v>
       </c>
     </row>
     <row r="413">
@@ -5860,7 +5864,7 @@
         <v>-3611</v>
       </c>
       <c r="D413">
-        <v>4.1069999999999709</v>
+        <v>-4.1069999999999709</v>
       </c>
     </row>
     <row r="414">
@@ -5874,7 +5878,7 @@
         <v>-1976</v>
       </c>
       <c r="D414">
-        <v>4.1200000000000045</v>
+        <v>-4.1200000000000045</v>
       </c>
     </row>
     <row r="415">
@@ -5888,7 +5892,7 @@
         <v>-1122</v>
       </c>
       <c r="D415">
-        <v>4.1219999999999573</v>
+        <v>-4.1219999999999573</v>
       </c>
     </row>
     <row r="416">
@@ -5902,7 +5906,7 @@
         <v>-3087</v>
       </c>
       <c r="D416">
-        <v>4.1399999999999864</v>
+        <v>-4.1399999999999864</v>
       </c>
     </row>
     <row r="417">
@@ -5916,7 +5920,7 @@
         <v>-2678</v>
       </c>
       <c r="D417">
-        <v>4.1419999999999959</v>
+        <v>-4.1419999999999959</v>
       </c>
     </row>
     <row r="418">
@@ -5930,7 +5934,7 @@
         <v>-717</v>
       </c>
       <c r="D418">
-        <v>4.1610000000000014</v>
+        <v>-4.1610000000000014</v>
       </c>
     </row>
     <row r="419">
@@ -5944,7 +5948,7 @@
         <v>-2064</v>
       </c>
       <c r="D419">
-        <v>4.1629999999999541</v>
+        <v>-4.1629999999999541</v>
       </c>
     </row>
     <row r="420">
@@ -5958,7 +5962,7 @@
         <v>-1320</v>
       </c>
       <c r="D420">
-        <v>4.1850000000000023</v>
+        <v>-4.1850000000000023</v>
       </c>
     </row>
     <row r="421">
@@ -5972,7 +5976,7 @@
         <v>-1508</v>
       </c>
       <c r="D421">
-        <v>4.186999999999955</v>
+        <v>-4.186999999999955</v>
       </c>
     </row>
     <row r="422">
@@ -5986,7 +5990,7 @@
         <v>-1479</v>
       </c>
       <c r="D422">
-        <v>4.19399999999996</v>
+        <v>-4.19399999999996</v>
       </c>
     </row>
     <row r="423">
@@ -6000,7 +6004,7 @@
         <v>-1519</v>
       </c>
       <c r="D423">
-        <v>4.1959999999999695</v>
+        <v>-4.1959999999999695</v>
       </c>
     </row>
     <row r="424">
@@ -6014,7 +6018,7 @@
         <v>-1645</v>
       </c>
       <c r="D424">
-        <v>4.2179999999999609</v>
+        <v>-4.2179999999999609</v>
       </c>
     </row>
     <row r="425">
@@ -6028,7 +6032,7 @@
         <v>-1487</v>
       </c>
       <c r="D425">
-        <v>4.2189999999999941</v>
+        <v>-4.2189999999999941</v>
       </c>
     </row>
     <row r="426">
@@ -6042,7 +6046,7 @@
         <v>-1636</v>
       </c>
       <c r="D426">
-        <v>4.2400000000000091</v>
+        <v>-4.2400000000000091</v>
       </c>
     </row>
     <row r="427">
@@ -6056,7 +6060,7 @@
         <v>-1541</v>
       </c>
       <c r="D427">
-        <v>4.2419999999999618</v>
+        <v>-4.2419999999999618</v>
       </c>
     </row>
     <row r="428">
@@ -6070,7 +6074,7 @@
         <v>-1533</v>
       </c>
       <c r="D428">
-        <v>4.2779999999999632</v>
+        <v>-4.2779999999999632</v>
       </c>
     </row>
     <row r="429">
@@ -6084,7 +6088,7 @@
         <v>-1574</v>
       </c>
       <c r="D429">
-        <v>4.2799999999999727</v>
+        <v>-4.2799999999999727</v>
       </c>
     </row>
     <row r="430">
@@ -6098,7 +6102,7 @@
         <v>-1351</v>
       </c>
       <c r="D430">
-        <v>4.2969999999999686</v>
+        <v>-4.2969999999999686</v>
       </c>
     </row>
     <row r="431">
@@ -6112,7 +6116,7 @@
         <v>-1463</v>
       </c>
       <c r="D431">
-        <v>4.2999999999999545</v>
+        <v>-4.2999999999999545</v>
       </c>
     </row>
     <row r="432">
@@ -6126,7 +6130,7 @@
         <v>-1483</v>
       </c>
       <c r="D432">
-        <v>4.31899999999996</v>
+        <v>-4.31899999999996</v>
       </c>
     </row>
     <row r="433">
@@ -6140,7 +6144,7 @@
         <v>-1317</v>
       </c>
       <c r="D433">
-        <v>4.3209999999999695</v>
+        <v>-4.3209999999999695</v>
       </c>
     </row>
     <row r="434">
@@ -6154,7 +6158,7 @@
         <v>-1491</v>
       </c>
       <c r="D434">
-        <v>4.3429999999999609</v>
+        <v>-4.3429999999999609</v>
       </c>
     </row>
     <row r="435">
@@ -6168,7 +6172,7 @@
         <v>-1519</v>
       </c>
       <c r="D435">
-        <v>4.3449999999999704</v>
+        <v>-4.3449999999999704</v>
       </c>
     </row>
     <row r="436">
@@ -6182,7 +6186,7 @@
         <v>-1502</v>
       </c>
       <c r="D436">
-        <v>4.3629999999999995</v>
+        <v>-4.3629999999999995</v>
       </c>
     </row>
     <row r="437">
@@ -6196,7 +6200,7 @@
         <v>-1513</v>
       </c>
       <c r="D437">
-        <v>4.3639999999999759</v>
+        <v>-4.3639999999999759</v>
       </c>
     </row>
     <row r="438">
@@ -6210,7 +6214,7 @@
         <v>-1526</v>
       </c>
       <c r="D438">
-        <v>4.3739999999999668</v>
+        <v>-4.3739999999999668</v>
       </c>
     </row>
     <row r="439">
@@ -6224,7 +6228,7 @@
         <v>-1540</v>
       </c>
       <c r="D439">
-        <v>4.3759999999999764</v>
+        <v>-4.3759999999999764</v>
       </c>
     </row>
     <row r="440">
@@ -6238,7 +6242,7 @@
         <v>-1469</v>
       </c>
       <c r="D440">
-        <v>4.3990000000000009</v>
+        <v>-4.3990000000000009</v>
       </c>
     </row>
     <row r="441">
@@ -6252,7 +6256,7 @@
         <v>-1504</v>
       </c>
       <c r="D441">
-        <v>4.4029999999999632</v>
+        <v>-4.4029999999999632</v>
       </c>
     </row>
     <row r="442">
@@ -6266,7 +6270,7 @@
         <v>-1472</v>
       </c>
       <c r="D442">
-        <v>4.4209999999999923</v>
+        <v>-4.4209999999999923</v>
       </c>
     </row>
     <row r="443">
@@ -6280,7 +6284,7 @@
         <v>-1428</v>
       </c>
       <c r="D443">
-        <v>4.4230000000000018</v>
+        <v>-4.4230000000000018</v>
       </c>
     </row>
     <row r="444">
@@ -6294,7 +6298,7 @@
         <v>-1467</v>
       </c>
       <c r="D444">
-        <v>4.4429999999999836</v>
+        <v>-4.4429999999999836</v>
       </c>
     </row>
     <row r="445">
@@ -6308,7 +6312,7 @@
         <v>-1481</v>
       </c>
       <c r="D445">
-        <v>4.4449999999999932</v>
+        <v>-4.4449999999999932</v>
       </c>
     </row>
     <row r="446">
@@ -6322,7 +6326,7 @@
         <v>-1453</v>
       </c>
       <c r="D446">
-        <v>4.4539999999999509</v>
+        <v>-4.4539999999999509</v>
       </c>
     </row>
     <row r="447">
@@ -6336,7 +6340,7 @@
         <v>-1455</v>
       </c>
       <c r="D447">
-        <v>4.4549999999999841</v>
+        <v>-4.4549999999999841</v>
       </c>
     </row>
     <row r="448">
@@ -6350,7 +6354,7 @@
         <v>-1489</v>
       </c>
       <c r="D448">
-        <v>4.4769999999999754</v>
+        <v>-4.4769999999999754</v>
       </c>
     </row>
     <row r="449">
@@ -6364,7 +6368,7 @@
         <v>-1476</v>
       </c>
       <c r="D449">
-        <v>4.4799999999999613</v>
+        <v>-4.4799999999999613</v>
       </c>
     </row>
     <row r="450">
@@ -6378,7 +6382,7 @@
         <v>-1476</v>
       </c>
       <c r="D450">
-        <v>4.4989999999999668</v>
+        <v>-4.4989999999999668</v>
       </c>
     </row>
     <row r="451">
@@ -6392,7 +6396,7 @@
         <v>-1494</v>
       </c>
       <c r="D451">
-        <v>4.5019999999999527</v>
+        <v>-4.5019999999999527</v>
       </c>
     </row>
     <row r="452">
@@ -6406,7 +6410,7 @@
         <v>-1464</v>
       </c>
       <c r="D452">
-        <v>4.5240000000000009</v>
+        <v>-4.5240000000000009</v>
       </c>
     </row>
     <row r="453">
@@ -6420,7 +6424,7 @@
         <v>-1537</v>
       </c>
       <c r="D453">
-        <v>4.5259999999999536</v>
+        <v>-4.5259999999999536</v>
       </c>
     </row>
     <row r="454">
@@ -6434,7 +6438,7 @@
         <v>-1509</v>
       </c>
       <c r="D454">
-        <v>4.5469999999999686</v>
+        <v>-4.5469999999999686</v>
       </c>
     </row>
     <row r="455">
@@ -6448,7 +6452,7 @@
         <v>-1476</v>
       </c>
       <c r="D455">
-        <v>4.5489999999999782</v>
+        <v>-4.5489999999999782</v>
       </c>
     </row>
     <row r="456">
@@ -6462,7 +6466,7 @@
         <v>-1508</v>
       </c>
       <c r="D456">
-        <v>4.55499999999995</v>
+        <v>-4.55499999999995</v>
       </c>
     </row>
     <row r="457">
@@ -6476,7 +6480,7 @@
         <v>-1533</v>
       </c>
       <c r="D457">
-        <v>4.5569999999999595</v>
+        <v>-4.5569999999999595</v>
       </c>
     </row>
     <row r="458">
@@ -6490,7 +6494,7 @@
         <v>-1685</v>
       </c>
       <c r="D458">
-        <v>4.5779999999999745</v>
+        <v>-4.5779999999999745</v>
       </c>
     </row>
     <row r="459">
@@ -6504,7 +6508,7 @@
         <v>-1335</v>
       </c>
       <c r="D459">
-        <v>4.5809999999999604</v>
+        <v>-4.5809999999999604</v>
       </c>
     </row>
     <row r="460">
@@ -6518,7 +6522,7 @@
         <v>-1410</v>
       </c>
       <c r="D460">
-        <v>4.5999999999999659</v>
+        <v>-4.5999999999999659</v>
       </c>
     </row>
     <row r="461">
@@ -6532,7 +6536,7 @@
         <v>-1583</v>
       </c>
       <c r="D461">
-        <v>4.6009999999999991</v>
+        <v>-4.6009999999999991</v>
       </c>
     </row>
     <row r="462">
@@ -6546,7 +6550,7 @@
         <v>-1405</v>
       </c>
       <c r="D462">
-        <v>4.6339999999999577</v>
+        <v>-4.6339999999999577</v>
       </c>
     </row>
     <row r="463">
@@ -6560,7 +6564,7 @@
         <v>-1421</v>
       </c>
       <c r="D463">
-        <v>4.6370000000000005</v>
+        <v>-4.6370000000000005</v>
       </c>
     </row>
     <row r="464">
@@ -6574,7 +6578,7 @@
         <v>-1483</v>
       </c>
       <c r="D464">
-        <v>4.6579999999999586</v>
+        <v>-4.6579999999999586</v>
       </c>
     </row>
     <row r="465">
@@ -6588,7 +6592,7 @@
         <v>-1477</v>
       </c>
       <c r="D465">
-        <v>4.6589999999999918</v>
+        <v>-4.6589999999999918</v>
       </c>
     </row>
     <row r="466">
@@ -6602,7 +6606,7 @@
         <v>-1482</v>
       </c>
       <c r="D466">
-        <v>4.6789999999999736</v>
+        <v>-4.6789999999999736</v>
       </c>
     </row>
     <row r="467">
@@ -6616,7 +6620,7 @@
         <v>-1509</v>
       </c>
       <c r="D467">
-        <v>4.6789999999999736</v>
+        <v>-4.6789999999999736</v>
       </c>
     </row>
     <row r="468">
@@ -6630,7 +6634,7 @@
         <v>-1488</v>
       </c>
       <c r="D468">
-        <v>4.7019999999999982</v>
+        <v>-4.7019999999999982</v>
       </c>
     </row>
     <row r="469">
@@ -6644,7 +6648,7 @@
         <v>-1319</v>
       </c>
       <c r="D469">
-        <v>4.7049999999999841</v>
+        <v>-4.7049999999999841</v>
       </c>
     </row>
     <row r="470">
@@ -6658,7 +6662,7 @@
         <v>-1709</v>
       </c>
       <c r="D470">
-        <v>4.7229999999999563</v>
+        <v>-4.7229999999999563</v>
       </c>
     </row>
     <row r="471">
@@ -6672,7 +6676,7 @@
         <v>-1721</v>
       </c>
       <c r="D471">
-        <v>4.7249999999999659</v>
+        <v>-4.7249999999999659</v>
       </c>
     </row>
     <row r="472">
@@ -6686,7 +6690,7 @@
         <v>-851</v>
       </c>
       <c r="D472">
-        <v>4.7349999999999568</v>
+        <v>-4.7349999999999568</v>
       </c>
     </row>
     <row r="473">
@@ -6700,7 +6704,7 @@
         <v>-2076</v>
       </c>
       <c r="D473">
-        <v>4.7369999999999663</v>
+        <v>-4.7369999999999663</v>
       </c>
     </row>
     <row r="474">
@@ -6714,7 +6718,7 @@
         <v>-1196</v>
       </c>
       <c r="D474">
-        <v>4.7569999999999482</v>
+        <v>-4.7569999999999482</v>
       </c>
     </row>
     <row r="475">
@@ -6728,7 +6732,7 @@
         <v>-1235</v>
       </c>
       <c r="D475">
-        <v>4.7589999999999577</v>
+        <v>-4.7589999999999577</v>
       </c>
     </row>
     <row r="476">
@@ -6742,7 +6746,7 @@
         <v>-1727</v>
       </c>
       <c r="D476">
-        <v>4.7799999999999727</v>
+        <v>-4.7799999999999727</v>
       </c>
     </row>
     <row r="477">
@@ -6756,7 +6760,7 @@
         <v>-1192</v>
       </c>
       <c r="D477">
-        <v>4.7829999999999586</v>
+        <v>-4.7829999999999586</v>
       </c>
     </row>
     <row r="478">
@@ -6770,7 +6774,7 @@
         <v>-805</v>
       </c>
       <c r="D478">
-        <v>4.8249999999999886</v>
+        <v>-4.8249999999999886</v>
       </c>
     </row>
     <row r="479">
@@ -6784,7 +6788,7 @@
         <v>-832</v>
       </c>
       <c r="D479">
-        <v>4.8269999999999982</v>
+        <v>-4.8269999999999982</v>
       </c>
     </row>
     <row r="480">
@@ -6798,7 +6802,7 @@
         <v>-1415</v>
       </c>
       <c r="D480">
-        <v>4.8289999999999509</v>
+        <v>-4.8289999999999509</v>
       </c>
     </row>
     <row r="481">
@@ -6812,7 +6816,7 @@
         <v>-21</v>
       </c>
       <c r="D481">
-        <v>4.8309999999999604</v>
+        <v>-4.8309999999999604</v>
       </c>
     </row>
     <row r="482">
@@ -6826,7 +6830,7 @@
         <v>-791</v>
       </c>
       <c r="D482">
-        <v>4.8359999999999559</v>
+        <v>-4.8359999999999559</v>
       </c>
     </row>
     <row r="483">
@@ -6840,7 +6844,7 @@
         <v>-2519</v>
       </c>
       <c r="D483">
-        <v>4.8379999999999654</v>
+        <v>-4.8379999999999654</v>
       </c>
     </row>
     <row r="484">
@@ -6854,7 +6858,7 @@
         <v>-2188</v>
       </c>
       <c r="D484">
-        <v>4.8589999999999804</v>
+        <v>-4.8589999999999804</v>
       </c>
     </row>
     <row r="485">
@@ -6868,7 +6872,7 @@
         <v>-2625</v>
       </c>
       <c r="D485">
-        <v>4.8619999999999663</v>
+        <v>-4.8619999999999663</v>
       </c>
     </row>
     <row r="486">
@@ -6882,7 +6886,7 @@
         <v>-4425</v>
       </c>
       <c r="D486">
-        <v>4.8839999999999577</v>
+        <v>-4.8839999999999577</v>
       </c>
     </row>
     <row r="487">
@@ -6896,7 +6900,7 @@
         <v>-1254</v>
       </c>
       <c r="D487">
-        <v>4.8859999999999673</v>
+        <v>-4.8859999999999673</v>
       </c>
     </row>
     <row r="488">
@@ -6910,7 +6914,7 @@
         <v>-50</v>
       </c>
       <c r="D488">
-        <v>4.9029999999999632</v>
+        <v>-4.9029999999999632</v>
       </c>
     </row>
     <row r="489">
@@ -6924,7 +6928,7 @@
         <v>2718</v>
       </c>
       <c r="D489">
-        <v>4.9049999999999727</v>
+        <v>-4.9049999999999727</v>
       </c>
     </row>
     <row r="490">
@@ -6938,7 +6942,7 @@
         <v>6607</v>
       </c>
       <c r="D490">
-        <v>4.9139999999999873</v>
+        <v>-4.9139999999999873</v>
       </c>
     </row>
     <row r="491">
@@ -6952,7 +6956,7 @@
         <v>887</v>
       </c>
       <c r="D491">
-        <v>4.9159999999999968</v>
+        <v>-4.9159999999999968</v>
       </c>
     </row>
     <row r="492">
@@ -6966,7 +6970,7 @@
         <v>10480</v>
       </c>
       <c r="D492">
-        <v>4.9379999999999882</v>
+        <v>-4.9379999999999882</v>
       </c>
     </row>
     <row r="493">
@@ -6980,7 +6984,7 @@
         <v>5811</v>
       </c>
       <c r="D493">
-        <v>4.9409999999999741</v>
+        <v>-4.9409999999999741</v>
       </c>
     </row>
     <row r="494">
@@ -6994,7 +6998,7 @@
         <v>3763</v>
       </c>
       <c r="D494">
-        <v>4.9599999999999795</v>
+        <v>-4.9599999999999795</v>
       </c>
     </row>
     <row r="495">
@@ -7008,7 +7012,7 @@
         <v>3245</v>
       </c>
       <c r="D495">
-        <v>4.9619999999999891</v>
+        <v>-4.9619999999999891</v>
       </c>
     </row>
     <row r="496">
@@ -7022,7 +7026,7 @@
         <v>2981</v>
       </c>
       <c r="D496">
-        <v>4.9919999999999618</v>
+        <v>-4.9919999999999618</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7040,7 @@
         <v>2867</v>
       </c>
       <c r="D497">
-        <v>4.9950000000000045</v>
+        <v>-4.9950000000000045</v>
       </c>
     </row>
     <row r="498">
@@ -7050,7 +7054,7 @@
         <v>2546</v>
       </c>
       <c r="D498">
-        <v>4.9969999999999573</v>
+        <v>-4.9969999999999573</v>
       </c>
     </row>
     <row r="499">
@@ -7064,7 +7068,7 @@
         <v>1844</v>
       </c>
       <c r="D499">
-        <v>4.9989999999999668</v>
+        <v>-4.9989999999999668</v>
       </c>
     </row>
     <row r="500">
@@ -7078,7 +7082,7 @@
         <v>964</v>
       </c>
       <c r="D500">
-        <v>5.0169999999999959</v>
+        <v>-5.0169999999999959</v>
       </c>
     </row>
     <row r="501">
@@ -7092,7 +7096,7 @@
         <v>16</v>
       </c>
       <c r="D501">
-        <v>5.0190000000000055</v>
+        <v>-5.0190000000000055</v>
       </c>
     </row>
     <row r="502">
@@ -7106,7 +7110,7 @@
         <v>-1258</v>
       </c>
       <c r="D502">
-        <v>5.0389999999999873</v>
+        <v>-5.0389999999999873</v>
       </c>
     </row>
     <row r="503">
@@ -7120,7 +7124,7 @@
         <v>-1643</v>
       </c>
       <c r="D503">
-        <v>5.0409999999999968</v>
+        <v>-5.0409999999999968</v>
       </c>
     </row>
     <row r="504">
@@ -7134,7 +7138,7 @@
         <v>-1681</v>
       </c>
       <c r="D504">
-        <v>5.061999999999955</v>
+        <v>-5.061999999999955</v>
       </c>
     </row>
     <row r="505">
@@ -7148,7 +7152,7 @@
         <v>-1747</v>
       </c>
       <c r="D505">
-        <v>5.0639999999999645</v>
+        <v>-5.0639999999999645</v>
       </c>
     </row>
     <row r="506">
@@ -7162,7 +7166,7 @@
         <v>-1887</v>
       </c>
       <c r="D506">
-        <v>5.0839999999999463</v>
+        <v>-5.0839999999999463</v>
       </c>
     </row>
     <row r="507">
@@ -7176,7 +7180,7 @@
         <v>-1869</v>
       </c>
       <c r="D507">
-        <v>5.0869999999999891</v>
+        <v>-5.0869999999999891</v>
       </c>
     </row>
     <row r="508">
@@ -7190,7 +7194,7 @@
         <v>-2017</v>
       </c>
       <c r="D508">
-        <v>5.0960000000000036</v>
+        <v>-5.0960000000000036</v>
       </c>
     </row>
     <row r="509">
@@ -7204,7 +7208,7 @@
         <v>-2650</v>
       </c>
       <c r="D509">
-        <v>5.0979999999999563</v>
+        <v>-5.0979999999999563</v>
       </c>
     </row>
     <row r="510">
@@ -7218,7 +7222,7 @@
         <v>-3550</v>
       </c>
       <c r="D510">
-        <v>5.1189999999999714</v>
+        <v>-5.1189999999999714</v>
       </c>
     </row>
     <row r="511">
@@ -7232,7 +7236,7 @@
         <v>-4533</v>
       </c>
       <c r="D511">
-        <v>5.1219999999999573</v>
+        <v>-5.1219999999999573</v>
       </c>
     </row>
     <row r="512">
@@ -7246,7 +7250,7 @@
         <v>-5715</v>
       </c>
       <c r="D512">
-        <v>5.1399999999999864</v>
+        <v>-5.1399999999999864</v>
       </c>
     </row>
     <row r="513">
@@ -7260,7 +7264,7 @@
         <v>-7298</v>
       </c>
       <c r="D513">
-        <v>5.1440000000000055</v>
+        <v>-5.1440000000000055</v>
       </c>
     </row>
     <row r="514">
@@ -7274,7 +7278,7 @@
         <v>-9426</v>
       </c>
       <c r="D514">
-        <v>5.1739999999999782</v>
+        <v>-5.1739999999999782</v>
       </c>
     </row>
     <row r="515">
@@ -7288,7 +7292,7 @@
         <v>-10690</v>
       </c>
       <c r="D515">
-        <v>5.1759999999999877</v>
+        <v>-5.1759999999999877</v>
       </c>
     </row>
     <row r="516">
@@ -7302,7 +7306,7 @@
         <v>-9812</v>
       </c>
       <c r="D516">
-        <v>5.1779999999999973</v>
+        <v>-5.1779999999999973</v>
       </c>
     </row>
     <row r="517">
@@ -7316,7 +7320,7 @@
         <v>-10485</v>
       </c>
       <c r="D517">
-        <v>5.1789999999999736</v>
+        <v>-5.1789999999999736</v>
       </c>
     </row>
     <row r="518">
@@ -7330,7 +7334,7 @@
         <v>-10747</v>
       </c>
       <c r="D518">
-        <v>5.1970000000000027</v>
+        <v>-5.1970000000000027</v>
       </c>
     </row>
     <row r="519">
@@ -7344,7 +7348,7 @@
         <v>-10813</v>
       </c>
       <c r="D519">
-        <v>5.1979999999999791</v>
+        <v>-5.1979999999999791</v>
       </c>
     </row>
     <row r="520">
@@ -7358,7 +7362,7 @@
         <v>-10555</v>
       </c>
       <c r="D520">
-        <v>5.2189999999999941</v>
+        <v>-5.2189999999999941</v>
       </c>
     </row>
     <row r="521">
@@ -7372,7 +7376,7 @@
         <v>-11519</v>
       </c>
       <c r="D521">
-        <v>5.2199999999999704</v>
+        <v>-5.2199999999999704</v>
       </c>
     </row>
     <row r="522">
@@ -7386,7 +7390,7 @@
         <v>-10830</v>
       </c>
       <c r="D522">
-        <v>5.2409999999999854</v>
+        <v>-5.2409999999999854</v>
       </c>
     </row>
     <row r="523">
@@ -7400,7 +7404,7 @@
         <v>-10856</v>
       </c>
       <c r="D523">
-        <v>5.2439999999999714</v>
+        <v>-5.2439999999999714</v>
       </c>
     </row>
     <row r="524">
@@ -7414,7 +7418,7 @@
         <v>-1126</v>
       </c>
       <c r="D524">
-        <v>5.2629999999999768</v>
+        <v>-5.2629999999999768</v>
       </c>
     </row>
     <row r="525">
@@ -7428,7 +7432,7 @@
         <v>6305</v>
       </c>
       <c r="D525">
-        <v>5.2639999999999532</v>
+        <v>-5.2639999999999532</v>
       </c>
     </row>
     <row r="526">
@@ -7442,7 +7446,7 @@
         <v>3035</v>
       </c>
       <c r="D526">
-        <v>5.2759999999999536</v>
+        <v>-5.2759999999999536</v>
       </c>
     </row>
     <row r="527">
@@ -7456,7 +7460,7 @@
         <v>-4178</v>
       </c>
       <c r="D527">
-        <v>5.2779999999999632</v>
+        <v>-5.2779999999999632</v>
       </c>
     </row>
     <row r="528">
@@ -7470,7 +7474,7 @@
         <v>-4001</v>
       </c>
       <c r="D528">
-        <v>5.2980000000000018</v>
+        <v>-5.2980000000000018</v>
       </c>
     </row>
     <row r="529">
@@ -7484,7 +7488,7 @@
         <v>-3706</v>
       </c>
       <c r="D529">
-        <v>5.2999999999999545</v>
+        <v>-5.2999999999999545</v>
       </c>
     </row>
     <row r="530">
@@ -7498,7 +7502,7 @@
         <v>-3155</v>
       </c>
       <c r="D530">
-        <v>5.3199999999999932</v>
+        <v>-5.3199999999999932</v>
       </c>
     </row>
     <row r="531">
@@ -7512,7 +7516,7 @@
         <v>-2456</v>
       </c>
       <c r="D531">
-        <v>5.3220000000000027</v>
+        <v>-5.3220000000000027</v>
       </c>
     </row>
     <row r="532">
@@ -7526,7 +7530,7 @@
         <v>-1740</v>
       </c>
       <c r="D532">
-        <v>5.3589999999999804</v>
+        <v>-5.3589999999999804</v>
       </c>
     </row>
     <row r="533">
@@ -7540,7 +7544,7 @@
         <v>-2154</v>
       </c>
       <c r="D533">
-        <v>5.36099999999999</v>
+        <v>-5.36099999999999</v>
       </c>
     </row>
     <row r="534">
@@ -7554,7 +7558,7 @@
         <v>-1582</v>
       </c>
       <c r="D534">
-        <v>5.3769999999999527</v>
+        <v>-5.3769999999999527</v>
       </c>
     </row>
     <row r="535">
@@ -7568,7 +7572,7 @@
         <v>-1675</v>
       </c>
       <c r="D535">
-        <v>5.3789999999999623</v>
+        <v>-5.3789999999999623</v>
       </c>
     </row>
     <row r="536">
@@ -7582,7 +7586,7 @@
         <v>-1362</v>
       </c>
       <c r="D536">
-        <v>5.3990000000000009</v>
+        <v>-5.3990000000000009</v>
       </c>
     </row>
     <row r="537">
@@ -7596,7 +7600,7 @@
         <v>-1461</v>
       </c>
       <c r="D537">
-        <v>5.4019999999999868</v>
+        <v>-5.4019999999999868</v>
       </c>
     </row>
     <row r="538">
@@ -7610,7 +7614,7 @@
         <v>-1466</v>
       </c>
       <c r="D538">
-        <v>5.4219999999999686</v>
+        <v>-5.4219999999999686</v>
       </c>
     </row>
     <row r="539">
@@ -7624,7 +7628,7 @@
         <v>-1520</v>
       </c>
       <c r="D539">
-        <v>5.4249999999999545</v>
+        <v>-5.4249999999999545</v>
       </c>
     </row>
     <row r="540">
@@ -7638,7 +7642,7 @@
         <v>-1404</v>
       </c>
       <c r="D540">
-        <v>5.44399999999996</v>
+        <v>-5.44399999999996</v>
       </c>
     </row>
     <row r="541">
@@ -7652,7 +7656,7 @@
         <v>-1357</v>
       </c>
       <c r="D541">
-        <v>5.4459999999999695</v>
+        <v>-5.4459999999999695</v>
       </c>
     </row>
     <row r="542">
@@ -7666,7 +7670,7 @@
         <v>-1420</v>
       </c>
       <c r="D542">
-        <v>5.4559999999999604</v>
+        <v>-5.4559999999999604</v>
       </c>
     </row>
     <row r="543">
@@ -7680,7 +7684,7 @@
         <v>-1366</v>
       </c>
       <c r="D543">
-        <v>5.45799999999997</v>
+        <v>-5.45799999999997</v>
       </c>
     </row>
     <row r="544">
@@ -7694,7 +7698,7 @@
         <v>-1421</v>
       </c>
       <c r="D544">
-        <v>5.4779999999999518</v>
+        <v>-5.4779999999999518</v>
       </c>
     </row>
     <row r="545">
@@ -7708,7 +7712,7 @@
         <v>-1436</v>
       </c>
       <c r="D545">
-        <v>5.4799999999999613</v>
+        <v>-5.4799999999999613</v>
       </c>
     </row>
     <row r="546">
@@ -7722,7 +7726,7 @@
         <v>-1417</v>
       </c>
       <c r="D546">
-        <v>5.5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="547">
@@ -7736,7 +7740,7 @@
         <v>-1460</v>
       </c>
       <c r="D547">
-        <v>5.5019999999999527</v>
+        <v>-5.5019999999999527</v>
       </c>
     </row>
     <row r="548">
@@ -7750,7 +7754,7 @@
         <v>-1470</v>
       </c>
       <c r="D548">
-        <v>5.5329999999999586</v>
+        <v>-5.5329999999999586</v>
       </c>
     </row>
     <row r="549">
@@ -7764,7 +7768,7 @@
         <v>-1468</v>
       </c>
       <c r="D549">
-        <v>5.5349999999999682</v>
+        <v>-5.5349999999999682</v>
       </c>
     </row>
     <row r="550">
@@ -7778,7 +7782,7 @@
         <v>-1449</v>
       </c>
       <c r="D550">
-        <v>5.5369999999999777</v>
+        <v>-5.5369999999999777</v>
       </c>
     </row>
     <row r="551">
@@ -7792,7 +7796,7 @@
         <v>-1413</v>
       </c>
       <c r="D551">
-        <v>5.5379999999999541</v>
+        <v>-5.5379999999999541</v>
       </c>
     </row>
     <row r="552">
@@ -7806,7 +7810,7 @@
         <v>-1447</v>
       </c>
       <c r="D552">
-        <v>5.5559999999999832</v>
+        <v>-5.5559999999999832</v>
       </c>
     </row>
     <row r="553">
@@ -7820,7 +7824,7 @@
         <v>-1481</v>
       </c>
       <c r="D553">
-        <v>5.5579999999999927</v>
+        <v>-5.5579999999999927</v>
       </c>
     </row>
     <row r="554">
@@ -7834,7 +7838,7 @@
         <v>-1476</v>
       </c>
       <c r="D554">
-        <v>5.5779999999999745</v>
+        <v>-5.5779999999999745</v>
       </c>
     </row>
     <row r="555">
@@ -7848,7 +7852,7 @@
         <v>-1474</v>
       </c>
       <c r="D555">
-        <v>5.5799999999999841</v>
+        <v>-5.5799999999999841</v>
       </c>
     </row>
     <row r="556">
@@ -7862,7 +7866,7 @@
         <v>-1462</v>
       </c>
       <c r="D556">
-        <v>5.6019999999999754</v>
+        <v>-5.6019999999999754</v>
       </c>
     </row>
     <row r="557">
@@ -7876,7 +7880,7 @@
         <v>-1498</v>
       </c>
       <c r="D557">
-        <v>5.603999999999985</v>
+        <v>-5.603999999999985</v>
       </c>
     </row>
     <row r="558">
@@ -7890,7 +7894,7 @@
         <v>-1471</v>
       </c>
       <c r="D558">
-        <v>5.6229999999999905</v>
+        <v>-5.6229999999999905</v>
       </c>
     </row>
     <row r="559">
@@ -7904,7 +7908,7 @@
         <v>-1461</v>
       </c>
       <c r="D559">
-        <v>5.625</v>
+        <v>-5.625</v>
       </c>
     </row>
     <row r="560">
@@ -7918,7 +7922,7 @@
         <v>-1494</v>
       </c>
       <c r="D560">
-        <v>5.6339999999999577</v>
+        <v>-5.6339999999999577</v>
       </c>
     </row>
     <row r="561">
@@ -7932,7 +7936,7 @@
         <v>-1495</v>
       </c>
       <c r="D561">
-        <v>5.6359999999999673</v>
+        <v>-5.6359999999999673</v>
       </c>
     </row>
     <row r="562">
@@ -7946,7 +7950,7 @@
         <v>-1497</v>
       </c>
       <c r="D562">
-        <v>5.6579999999999586</v>
+        <v>-5.6579999999999586</v>
       </c>
     </row>
     <row r="563">
@@ -7960,7 +7964,7 @@
         <v>-1462</v>
       </c>
       <c r="D563">
-        <v>5.6610000000000014</v>
+        <v>-5.6610000000000014</v>
       </c>
     </row>
     <row r="564">
@@ -7974,7 +7978,7 @@
         <v>-1463</v>
       </c>
       <c r="D564">
-        <v>5.67999999999995</v>
+        <v>-5.67999999999995</v>
       </c>
     </row>
     <row r="565">
@@ -7988,7 +7992,7 @@
         <v>-1414</v>
       </c>
       <c r="D565">
-        <v>5.6819999999999595</v>
+        <v>-5.6819999999999595</v>
       </c>
     </row>
     <row r="566">
@@ -8002,7 +8006,7 @@
         <v>-1478</v>
       </c>
       <c r="D566">
-        <v>5.7119999999999891</v>
+        <v>-5.7119999999999891</v>
       </c>
     </row>
     <row r="567">
@@ -8016,7 +8020,7 @@
         <v>-1449</v>
       </c>
       <c r="D567">
-        <v>5.7139999999999986</v>
+        <v>-5.7139999999999986</v>
       </c>
     </row>
     <row r="568">
@@ -8030,7 +8034,7 @@
         <v>-1488</v>
       </c>
       <c r="D568">
-        <v>5.7160000000000082</v>
+        <v>-5.7160000000000082</v>
       </c>
     </row>
     <row r="569">
@@ -8044,7 +8048,7 @@
         <v>-1505</v>
       </c>
       <c r="D569">
-        <v>5.7179999999999609</v>
+        <v>-5.7179999999999609</v>
       </c>
     </row>
     <row r="570">
@@ -8058,7 +8062,7 @@
         <v>-1485</v>
       </c>
       <c r="D570">
-        <v>5.73599999999999</v>
+        <v>-5.73599999999999</v>
       </c>
     </row>
     <row r="571">
@@ -8072,7 +8076,7 @@
         <v>-1438</v>
       </c>
       <c r="D571">
-        <v>5.7389999999999759</v>
+        <v>-5.7389999999999759</v>
       </c>
     </row>
     <row r="572">
@@ -8086,7 +8090,7 @@
         <v>-1493</v>
       </c>
       <c r="D572">
-        <v>5.7589999999999577</v>
+        <v>-5.7589999999999577</v>
       </c>
     </row>
     <row r="573">
@@ -8100,7 +8104,7 @@
         <v>-1417</v>
       </c>
       <c r="D573">
-        <v>5.7620000000000005</v>
+        <v>-5.7620000000000005</v>
       </c>
     </row>
     <row r="574">
@@ -8114,7 +8118,7 @@
         <v>-1478</v>
       </c>
       <c r="D574">
-        <v>5.7819999999999823</v>
+        <v>-5.7819999999999823</v>
       </c>
     </row>
     <row r="575">
@@ -8128,7 +8132,7 @@
         <v>-1486</v>
       </c>
       <c r="D575">
-        <v>5.7849999999999682</v>
+        <v>-5.7849999999999682</v>
       </c>
     </row>
     <row r="576">
@@ -8142,7 +8146,7 @@
         <v>-1134</v>
       </c>
       <c r="D576">
-        <v>5.8059999999999832</v>
+        <v>-5.8059999999999832</v>
       </c>
     </row>
     <row r="577">
@@ -8156,7 +8160,7 @@
         <v>-1582</v>
       </c>
       <c r="D577">
-        <v>5.8069999999999595</v>
+        <v>-5.8069999999999595</v>
       </c>
     </row>
     <row r="578">
@@ -8170,7 +8174,7 @@
         <v>-1544</v>
       </c>
       <c r="D578">
-        <v>5.8149999999999977</v>
+        <v>-5.8149999999999977</v>
       </c>
     </row>
     <row r="579">
@@ -8184,7 +8188,7 @@
         <v>-1571</v>
       </c>
       <c r="D579">
-        <v>5.8179999999999836</v>
+        <v>-5.8179999999999836</v>
       </c>
     </row>
     <row r="580">
@@ -8198,7 +8202,7 @@
         <v>-1601</v>
       </c>
       <c r="D580">
-        <v>5.8410000000000082</v>
+        <v>-5.8410000000000082</v>
       </c>
     </row>
     <row r="581">
@@ -8212,7 +8216,7 @@
         <v>-1473</v>
       </c>
       <c r="D581">
-        <v>5.8429999999999609</v>
+        <v>-5.8429999999999609</v>
       </c>
     </row>
     <row r="582">
@@ -8226,7 +8230,7 @@
         <v>-1675</v>
       </c>
       <c r="D582">
-        <v>5.86099999999999</v>
+        <v>-5.86099999999999</v>
       </c>
     </row>
     <row r="583">
@@ -8240,7 +8244,7 @@
         <v>-1252</v>
       </c>
       <c r="D583">
-        <v>5.8639999999999759</v>
+        <v>-5.8639999999999759</v>
       </c>
     </row>
     <row r="584">
@@ -8254,7 +8258,7 @@
         <v>-1401</v>
       </c>
       <c r="D584">
-        <v>5.8919999999999959</v>
+        <v>-5.8919999999999959</v>
       </c>
     </row>
     <row r="585">
@@ -8268,7 +8272,7 @@
         <v>-1424</v>
       </c>
       <c r="D585">
-        <v>5.8940000000000055</v>
+        <v>-5.8940000000000055</v>
       </c>
     </row>
     <row r="586">
@@ -8282,7 +8286,7 @@
         <v>-1571</v>
       </c>
       <c r="D586">
-        <v>5.8959999999999582</v>
+        <v>-5.8959999999999582</v>
       </c>
     </row>
     <row r="587">
@@ -8296,7 +8300,7 @@
         <v>-1121</v>
       </c>
       <c r="D587">
-        <v>5.8969999999999914</v>
+        <v>-5.8969999999999914</v>
       </c>
     </row>
     <row r="588">
@@ -8310,7 +8314,7 @@
         <v>-1357</v>
       </c>
       <c r="D588">
-        <v>5.9159999999999968</v>
+        <v>-5.9159999999999968</v>
       </c>
     </row>
     <row r="589">
@@ -8324,7 +8328,7 @@
         <v>-1579</v>
       </c>
       <c r="D589">
-        <v>5.9180000000000064</v>
+        <v>-5.9180000000000064</v>
       </c>
     </row>
     <row r="590">
@@ -8338,7 +8342,7 @@
         <v>-1310</v>
       </c>
       <c r="D590">
-        <v>5.9389999999999645</v>
+        <v>-5.9389999999999645</v>
       </c>
     </row>
     <row r="591">
@@ -8352,7 +8356,7 @@
         <v>-1414</v>
       </c>
       <c r="D591">
-        <v>5.9420000000000073</v>
+        <v>-5.9420000000000073</v>
       </c>
     </row>
     <row r="592">
@@ -8366,7 +8370,7 @@
         <v>-1718</v>
       </c>
       <c r="D592">
-        <v>5.9829999999999472</v>
+        <v>-5.9829999999999472</v>
       </c>
     </row>
     <row r="593">
@@ -8380,7 +8384,7 @@
         <v>-1644</v>
       </c>
       <c r="D593">
-        <v>5.9849999999999568</v>
+        <v>-5.9849999999999568</v>
       </c>
     </row>
     <row r="594">
@@ -8394,7 +8398,7 @@
         <v>-939</v>
       </c>
       <c r="D594">
-        <v>5.9869999999999663</v>
+        <v>-5.9869999999999663</v>
       </c>
     </row>
     <row r="595">
@@ -8408,7 +8412,7 @@
         <v>-916</v>
       </c>
       <c r="D595">
-        <v>5.9889999999999759</v>
+        <v>-5.9889999999999759</v>
       </c>
     </row>
     <row r="596">
@@ -8422,7 +8426,7 @@
         <v>-941</v>
       </c>
       <c r="D596">
-        <v>5.9950000000000045</v>
+        <v>-5.9950000000000045</v>
       </c>
     </row>
     <row r="597">
@@ -8436,7 +8440,7 @@
         <v>-1318</v>
       </c>
       <c r="D597">
-        <v>5.9969999999999573</v>
+        <v>-5.9969999999999573</v>
       </c>
     </row>
     <row r="598">
@@ -8450,7 +8454,7 @@
         <v>-1191</v>
       </c>
       <c r="D598">
-        <v>6.0179999999999723</v>
+        <v>-6.0179999999999723</v>
       </c>
     </row>
     <row r="599">
@@ -8464,7 +8468,7 @@
         <v>-853</v>
       </c>
       <c r="D599">
-        <v>6.0199999999999818</v>
+        <v>-6.0199999999999818</v>
       </c>
     </row>
     <row r="600">
@@ -8478,7 +8482,7 @@
         <v>-1114</v>
       </c>
       <c r="D600">
-        <v>6.0529999999999973</v>
+        <v>-6.0529999999999973</v>
       </c>
     </row>
     <row r="601">
@@ -8492,7 +8496,7 @@
         <v>-2105</v>
       </c>
       <c r="D601">
-        <v>6.0559999999999832</v>
+        <v>-6.0559999999999832</v>
       </c>
     </row>
     <row r="602">
@@ -8506,7 +8510,7 @@
         <v>-2652</v>
       </c>
       <c r="D602">
-        <v>6.0729999999999791</v>
+        <v>-6.0729999999999791</v>
       </c>
     </row>
     <row r="603">
@@ -8520,7 +8524,7 @@
         <v>-3297</v>
       </c>
       <c r="D603">
-        <v>6.0739999999999554</v>
+        <v>-6.0739999999999554</v>
       </c>
     </row>
     <row r="604">
@@ -8534,7 +8538,7 @@
         <v>-102</v>
       </c>
       <c r="D604">
-        <v>6.075999999999965</v>
+        <v>-6.075999999999965</v>
       </c>
     </row>
     <row r="605">
@@ -8548,7 +8552,7 @@
         <v>-2866</v>
       </c>
       <c r="D605">
-        <v>6.0779999999999745</v>
+        <v>-6.0779999999999745</v>
       </c>
     </row>
     <row r="606">
@@ -8562,7 +8566,7 @@
         <v>-3185</v>
       </c>
       <c r="D606">
-        <v>6.0979999999999563</v>
+        <v>-6.0979999999999563</v>
       </c>
     </row>
     <row r="607">
@@ -8576,7 +8580,7 @@
         <v>-1943</v>
       </c>
       <c r="D607">
-        <v>6.1019999999999754</v>
+        <v>-6.1019999999999754</v>
       </c>
     </row>
     <row r="608">
@@ -8590,7 +8594,7 @@
         <v>-2212</v>
       </c>
       <c r="D608">
-        <v>6.117999999999995</v>
+        <v>-6.117999999999995</v>
       </c>
     </row>
     <row r="609">
@@ -8604,7 +8608,7 @@
         <v>-338</v>
       </c>
       <c r="D609">
-        <v>6.1200000000000045</v>
+        <v>-6.1200000000000045</v>
       </c>
     </row>
     <row r="610">
@@ -8618,7 +8622,7 @@
         <v>6699</v>
       </c>
       <c r="D610">
-        <v>6.1689999999999827</v>
+        <v>-6.1689999999999827</v>
       </c>
     </row>
     <row r="611">
@@ -8632,7 +8636,7 @@
         <v>-167</v>
       </c>
       <c r="D611">
-        <v>6.1789999999999736</v>
+        <v>-6.1789999999999736</v>
       </c>
     </row>
     <row r="612">
@@ -8646,7 +8650,7 @@
         <v>3582</v>
       </c>
       <c r="D612">
-        <v>6.1829999999999927</v>
+        <v>-6.1829999999999927</v>
       </c>
     </row>
     <row r="613">
@@ -8660,7 +8664,7 @@
         <v>3784</v>
       </c>
       <c r="D613">
-        <v>6.1850000000000023</v>
+        <v>-6.1850000000000023</v>
       </c>
     </row>
     <row r="614">
@@ -8674,7 +8678,7 @@
         <v>3545</v>
       </c>
       <c r="D614">
-        <v>6.186999999999955</v>
+        <v>-6.186999999999955</v>
       </c>
     </row>
     <row r="615">
@@ -8688,7 +8692,7 @@
         <v>2623</v>
       </c>
       <c r="D615">
-        <v>6.1889999999999645</v>
+        <v>-6.1889999999999645</v>
       </c>
     </row>
     <row r="616">
@@ -8702,7 +8706,7 @@
         <v>2838</v>
       </c>
       <c r="D616">
-        <v>6.1979999999999791</v>
+        <v>-6.1979999999999791</v>
       </c>
     </row>
     <row r="617">
@@ -8716,7 +8720,7 @@
         <v>2674</v>
       </c>
       <c r="D617">
-        <v>6.1989999999999554</v>
+        <v>-6.1989999999999554</v>
       </c>
     </row>
     <row r="618">
@@ -8730,7 +8734,7 @@
         <v>2653</v>
       </c>
       <c r="D618">
-        <v>6.2210000000000036</v>
+        <v>-6.2210000000000036</v>
       </c>
     </row>
     <row r="619">
@@ -8744,7 +8748,7 @@
         <v>2230</v>
       </c>
       <c r="D619">
-        <v>6.22199999999998</v>
+        <v>-6.22199999999998</v>
       </c>
     </row>
     <row r="620">
@@ -8758,7 +8762,7 @@
         <v>-486</v>
       </c>
       <c r="D620">
-        <v>6.2539999999999623</v>
+        <v>-6.2539999999999623</v>
       </c>
     </row>
     <row r="621">
@@ -8772,7 +8776,7 @@
         <v>-908</v>
       </c>
       <c r="D621">
-        <v>6.2569999999999482</v>
+        <v>-6.2569999999999482</v>
       </c>
     </row>
     <row r="622">
@@ -8786,7 +8790,7 @@
         <v>-1414</v>
       </c>
       <c r="D622">
-        <v>6.2759999999999536</v>
+        <v>-6.2759999999999536</v>
       </c>
     </row>
     <row r="623">
@@ -8800,7 +8804,7 @@
         <v>-1723</v>
       </c>
       <c r="D623">
-        <v>6.2779999999999632</v>
+        <v>-6.2779999999999632</v>
       </c>
     </row>
     <row r="624">
@@ -8814,7 +8818,7 @@
         <v>-1941</v>
       </c>
       <c r="D624">
-        <v>6.2999999999999545</v>
+        <v>-6.2999999999999545</v>
       </c>
     </row>
     <row r="625">
@@ -8828,7 +8832,7 @@
         <v>-2042</v>
       </c>
       <c r="D625">
-        <v>6.3019999999999641</v>
+        <v>-6.3019999999999641</v>
       </c>
     </row>
     <row r="626">
@@ -8842,7 +8846,7 @@
         <v>-2018</v>
       </c>
       <c r="D626">
-        <v>6.3239999999999554</v>
+        <v>-6.3239999999999554</v>
       </c>
     </row>
     <row r="627">
@@ -8856,7 +8860,7 @@
         <v>-1924</v>
       </c>
       <c r="D627">
-        <v>6.3249999999999886</v>
+        <v>-6.3249999999999886</v>
       </c>
     </row>
     <row r="628">
@@ -8870,7 +8874,7 @@
         <v>-2262</v>
       </c>
       <c r="D628">
-        <v>6.3449999999999704</v>
+        <v>-6.3449999999999704</v>
       </c>
     </row>
     <row r="629">
@@ -8884,7 +8888,7 @@
         <v>-2541</v>
       </c>
       <c r="D629">
-        <v>6.3479999999999563</v>
+        <v>-6.3479999999999563</v>
       </c>
     </row>
     <row r="630">
@@ -8898,7 +8902,7 @@
         <v>-2733</v>
       </c>
       <c r="D630">
-        <v>6.3549999999999613</v>
+        <v>-6.3549999999999613</v>
       </c>
     </row>
     <row r="631">
@@ -8912,7 +8916,7 @@
         <v>-2890</v>
       </c>
       <c r="D631">
-        <v>6.3569999999999709</v>
+        <v>-6.3569999999999709</v>
       </c>
     </row>
     <row r="632">
@@ -8926,7 +8930,7 @@
         <v>-3584</v>
       </c>
       <c r="D632">
-        <v>6.3769999999999527</v>
+        <v>-6.3769999999999527</v>
       </c>
     </row>
     <row r="633">
@@ -8940,7 +8944,7 @@
         <v>-4291</v>
       </c>
       <c r="D633">
-        <v>6.3789999999999623</v>
+        <v>-6.3789999999999623</v>
       </c>
     </row>
     <row r="634">
@@ -8954,7 +8958,7 @@
         <v>-4817</v>
       </c>
       <c r="D634">
-        <v>6.3999999999999773</v>
+        <v>-6.3999999999999773</v>
       </c>
     </row>
     <row r="635">
@@ -8968,7 +8972,7 @@
         <v>-5446</v>
       </c>
       <c r="D635">
-        <v>6.4019999999999868</v>
+        <v>-6.4019999999999868</v>
       </c>
     </row>
     <row r="636">
@@ -8982,7 +8986,7 @@
         <v>-6499</v>
       </c>
       <c r="D636">
-        <v>6.4359999999999786</v>
+        <v>-6.4359999999999786</v>
       </c>
     </row>
     <row r="637">
@@ -8996,7 +9000,7 @@
         <v>-7317</v>
       </c>
       <c r="D637">
-        <v>6.4389999999999645</v>
+        <v>-6.4389999999999645</v>
       </c>
     </row>
     <row r="638">
@@ -9010,7 +9014,7 @@
         <v>-7913</v>
       </c>
       <c r="D638">
-        <v>6.4409999999999741</v>
+        <v>-6.4409999999999741</v>
       </c>
     </row>
     <row r="639">
@@ -9024,7 +9028,7 @@
         <v>-8795</v>
       </c>
       <c r="D639">
-        <v>6.4429999999999836</v>
+        <v>-6.4429999999999836</v>
       </c>
     </row>
     <row r="640">
@@ -9038,7 +9042,7 @@
         <v>-9355</v>
       </c>
       <c r="D640">
-        <v>6.4569999999999936</v>
+        <v>-6.4569999999999936</v>
       </c>
     </row>
     <row r="641">
@@ -9052,7 +9056,7 @@
         <v>-10030</v>
       </c>
       <c r="D641">
-        <v>6.4589999999999463</v>
+        <v>-6.4589999999999463</v>
       </c>
     </row>
     <row r="642">
@@ -9066,7 +9070,7 @@
         <v>-10689</v>
       </c>
       <c r="D642">
-        <v>6.478999999999985</v>
+        <v>-6.478999999999985</v>
       </c>
     </row>
     <row r="643">
@@ -9080,7 +9084,7 @@
         <v>-10501</v>
       </c>
       <c r="D643">
-        <v>6.4809999999999945</v>
+        <v>-6.4809999999999945</v>
       </c>
     </row>
     <row r="644">
@@ -9094,7 +9098,7 @@
         <v>-9443</v>
       </c>
       <c r="D644">
-        <v>6.5029999999999859</v>
+        <v>-6.5029999999999859</v>
       </c>
     </row>
     <row r="645">
@@ -9108,7 +9112,7 @@
         <v>-7976</v>
       </c>
       <c r="D645">
-        <v>6.5049999999999955</v>
+        <v>-6.5049999999999955</v>
       </c>
     </row>
     <row r="646">
@@ -9122,7 +9126,7 @@
         <v>-537</v>
       </c>
       <c r="D646">
-        <v>6.5240000000000009</v>
+        <v>-6.5240000000000009</v>
       </c>
     </row>
     <row r="647">
@@ -9136,7 +9140,7 @@
         <v>1501</v>
       </c>
       <c r="D647">
-        <v>6.5249999999999773</v>
+        <v>-6.5249999999999773</v>
       </c>
     </row>
     <row r="648">
@@ -9150,7 +9154,7 @@
         <v>6115</v>
       </c>
       <c r="D648">
-        <v>6.5379999999999541</v>
+        <v>-6.5379999999999541</v>
       </c>
     </row>
     <row r="649">
@@ -9164,7 +9168,7 @@
         <v>6012</v>
       </c>
       <c r="D649">
-        <v>6.5389999999999873</v>
+        <v>-6.5389999999999873</v>
       </c>
     </row>
     <row r="650">
@@ -9178,7 +9182,7 @@
         <v>75</v>
       </c>
       <c r="D650">
-        <v>6.5579999999999927</v>
+        <v>-6.5579999999999927</v>
       </c>
     </row>
     <row r="651">
@@ -9192,7 +9196,7 @@
         <v>-5861</v>
       </c>
       <c r="D651">
-        <v>6.5600000000000023</v>
+        <v>-6.5600000000000023</v>
       </c>
     </row>
     <row r="652">
@@ -9206,7 +9210,7 @@
         <v>-2328</v>
       </c>
       <c r="D652">
-        <v>6.5819999999999936</v>
+        <v>-6.5819999999999936</v>
       </c>
     </row>
     <row r="653">
@@ -9220,7 +9224,7 @@
         <v>-2189</v>
       </c>
       <c r="D653">
-        <v>6.5839999999999463</v>
+        <v>-6.5839999999999463</v>
       </c>
     </row>
     <row r="654">
@@ -9234,7 +9238,7 @@
         <v>-2869</v>
       </c>
       <c r="D654">
-        <v>6.6129999999999995</v>
+        <v>-6.6129999999999995</v>
       </c>
     </row>
     <row r="655">
@@ -9248,7 +9252,7 @@
         <v>-2950</v>
       </c>
       <c r="D655">
-        <v>6.6139999999999759</v>
+        <v>-6.6139999999999759</v>
       </c>
     </row>
     <row r="656">
@@ -9262,7 +9266,7 @@
         <v>-1910</v>
       </c>
       <c r="D656">
-        <v>6.6159999999999854</v>
+        <v>-6.6159999999999854</v>
       </c>
     </row>
     <row r="657">
@@ -9276,7 +9280,7 @@
         <v>-1562</v>
       </c>
       <c r="D657">
-        <v>6.617999999999995</v>
+        <v>-6.617999999999995</v>
       </c>
     </row>
     <row r="658">
@@ -9290,7 +9294,7 @@
         <v>-2334</v>
       </c>
       <c r="D658">
-        <v>6.6370000000000005</v>
+        <v>-6.6370000000000005</v>
       </c>
     </row>
     <row r="659">
@@ -9304,7 +9308,7 @@
         <v>-2370</v>
       </c>
       <c r="D659">
-        <v>6.6389999999999532</v>
+        <v>-6.6389999999999532</v>
       </c>
     </row>
     <row r="660">
@@ -9318,7 +9322,7 @@
         <v>-1423</v>
       </c>
       <c r="D660">
-        <v>6.6589999999999918</v>
+        <v>-6.6589999999999918</v>
       </c>
     </row>
     <row r="661">
@@ -9332,7 +9336,7 @@
         <v>-1863</v>
       </c>
       <c r="D661">
-        <v>6.6610000000000014</v>
+        <v>-6.6610000000000014</v>
       </c>
     </row>
     <row r="662">
@@ -9346,7 +9350,7 @@
         <v>-1467</v>
       </c>
       <c r="D662">
-        <v>6.6829999999999927</v>
+        <v>-6.6829999999999927</v>
       </c>
     </row>
     <row r="663">
@@ -9360,7 +9364,7 @@
         <v>-1315</v>
       </c>
       <c r="D663">
-        <v>6.6850000000000023</v>
+        <v>-6.6850000000000023</v>
       </c>
     </row>
     <row r="664">
@@ -9374,7 +9378,7 @@
         <v>-1274</v>
       </c>
       <c r="D664">
-        <v>6.7029999999999745</v>
+        <v>-6.7029999999999745</v>
       </c>
     </row>
     <row r="665">
@@ -9388,7 +9392,7 @@
         <v>-1414</v>
       </c>
       <c r="D665">
-        <v>6.7049999999999841</v>
+        <v>-6.7049999999999841</v>
       </c>
     </row>
     <row r="666">
@@ -9402,7 +9406,7 @@
         <v>-1453</v>
       </c>
       <c r="D666">
-        <v>6.7160000000000082</v>
+        <v>-6.7160000000000082</v>
       </c>
     </row>
     <row r="667">
@@ -9416,7 +9420,7 @@
         <v>-1525</v>
       </c>
       <c r="D667">
-        <v>6.7189999999999941</v>
+        <v>-6.7189999999999941</v>
       </c>
     </row>
     <row r="668">
@@ -9430,7 +9434,7 @@
         <v>-1571</v>
       </c>
       <c r="D668">
-        <v>6.7379999999999995</v>
+        <v>-6.7379999999999995</v>
       </c>
     </row>
     <row r="669">
@@ -9444,7 +9448,7 @@
         <v>-1532</v>
       </c>
       <c r="D669">
-        <v>6.7409999999999854</v>
+        <v>-6.7409999999999854</v>
       </c>
     </row>
     <row r="670">
@@ -9458,7 +9462,7 @@
         <v>-1613</v>
       </c>
       <c r="D670">
-        <v>6.7609999999999673</v>
+        <v>-6.7609999999999673</v>
       </c>
     </row>
     <row r="671">
@@ -9472,7 +9476,7 @@
         <v>-1525</v>
       </c>
       <c r="D671">
-        <v>6.7639999999999532</v>
+        <v>-6.7639999999999532</v>
       </c>
     </row>
     <row r="672">
@@ -9486,7 +9490,7 @@
         <v>-1608</v>
       </c>
       <c r="D672">
-        <v>6.7930000000000064</v>
+        <v>-6.7930000000000064</v>
       </c>
     </row>
     <row r="673">
@@ -9500,7 +9504,7 @@
         <v>-1490</v>
       </c>
       <c r="D673">
-        <v>6.7939999999999827</v>
+        <v>-6.7939999999999827</v>
       </c>
     </row>
     <row r="674">
@@ -9514,7 +9518,7 @@
         <v>-1487</v>
       </c>
       <c r="D674">
-        <v>6.7959999999999923</v>
+        <v>-6.7959999999999923</v>
       </c>
     </row>
     <row r="675">
@@ -9528,7 +9532,7 @@
         <v>-1447</v>
       </c>
       <c r="D675">
-        <v>6.7980000000000018</v>
+        <v>-6.7980000000000018</v>
       </c>
     </row>
     <row r="676">
@@ -9542,7 +9546,7 @@
         <v>-1473</v>
       </c>
       <c r="D676">
-        <v>6.8170000000000073</v>
+        <v>-6.8170000000000073</v>
       </c>
     </row>
     <row r="677">
@@ -9556,7 +9560,7 @@
         <v>-1489</v>
       </c>
       <c r="D677">
-        <v>6.81899999999996</v>
+        <v>-6.81899999999996</v>
       </c>
     </row>
     <row r="678">
@@ -9570,7 +9574,7 @@
         <v>-1479</v>
       </c>
       <c r="D678">
-        <v>6.8379999999999654</v>
+        <v>-6.8379999999999654</v>
       </c>
     </row>
     <row r="679">
@@ -9584,7 +9588,7 @@
         <v>-1420</v>
       </c>
       <c r="D679">
-        <v>6.839999999999975</v>
+        <v>-6.839999999999975</v>
       </c>
     </row>
     <row r="680">
@@ -9598,7 +9602,7 @@
         <v>-1501</v>
       </c>
       <c r="D680">
-        <v>6.86099999999999</v>
+        <v>-6.86099999999999</v>
       </c>
     </row>
     <row r="681">
@@ -9612,7 +9616,7 @@
         <v>-1480</v>
       </c>
       <c r="D681">
-        <v>6.8629999999999995</v>
+        <v>-6.8629999999999995</v>
       </c>
     </row>
     <row r="682">
@@ -9626,7 +9630,7 @@
         <v>-1473</v>
       </c>
       <c r="D682">
-        <v>6.8829999999999814</v>
+        <v>-6.8829999999999814</v>
       </c>
     </row>
     <row r="683">
@@ -9640,7 +9644,7 @@
         <v>-1502</v>
       </c>
       <c r="D683">
-        <v>6.8849999999999909</v>
+        <v>-6.8849999999999909</v>
       </c>
     </row>
     <row r="684">
@@ -9654,7 +9658,7 @@
         <v>-1487</v>
       </c>
       <c r="D684">
-        <v>6.8949999999999818</v>
+        <v>-6.8949999999999818</v>
       </c>
     </row>
     <row r="685">
@@ -9668,7 +9672,7 @@
         <v>-1481</v>
       </c>
       <c r="D685">
-        <v>6.8959999999999582</v>
+        <v>-6.8959999999999582</v>
       </c>
     </row>
     <row r="686">
@@ -9682,7 +9686,7 @@
         <v>-1464</v>
       </c>
       <c r="D686">
-        <v>6.9169999999999732</v>
+        <v>-6.9169999999999732</v>
       </c>
     </row>
     <row r="687">
@@ -9696,7 +9700,7 @@
         <v>-1451</v>
       </c>
       <c r="D687">
-        <v>6.9189999999999827</v>
+        <v>-6.9189999999999827</v>
       </c>
     </row>
     <row r="688">
@@ -9710,7 +9714,7 @@
         <v>-1445</v>
       </c>
       <c r="D688">
-        <v>6.9399999999999977</v>
+        <v>-6.9399999999999977</v>
       </c>
     </row>
     <row r="689">
@@ -9724,7 +9728,7 @@
         <v>-1444</v>
       </c>
       <c r="D689">
-        <v>6.9420000000000073</v>
+        <v>-6.9420000000000073</v>
       </c>
     </row>
     <row r="690">
@@ -9738,7 +9742,7 @@
         <v>-1495</v>
       </c>
       <c r="D690">
-        <v>6.9739999999999895</v>
+        <v>-6.9739999999999895</v>
       </c>
     </row>
     <row r="691">
@@ -9752,7 +9756,7 @@
         <v>-1495</v>
       </c>
       <c r="D691">
-        <v>6.9759999999999991</v>
+        <v>-6.9759999999999991</v>
       </c>
     </row>
     <row r="692">
@@ -9766,7 +9770,7 @@
         <v>-1493</v>
       </c>
       <c r="D692">
-        <v>6.9959999999999809</v>
+        <v>-6.9959999999999809</v>
       </c>
     </row>
     <row r="693">
@@ -9780,7 +9784,7 @@
         <v>-1507</v>
       </c>
       <c r="D693">
-        <v>6.9979999999999905</v>
+        <v>-6.9979999999999905</v>
       </c>
     </row>
     <row r="694">
@@ -9794,7 +9798,7 @@
         <v>-1522</v>
       </c>
       <c r="D694">
-        <v>7.0190000000000055</v>
+        <v>-7.0190000000000055</v>
       </c>
     </row>
     <row r="695">
@@ -9808,7 +9812,7 @@
         <v>-1488</v>
       </c>
       <c r="D695">
-        <v>7.0219999999999914</v>
+        <v>-7.0219999999999914</v>
       </c>
     </row>
     <row r="696">
@@ -9822,7 +9826,7 @@
         <v>-1486</v>
       </c>
       <c r="D696">
-        <v>7.0409999999999968</v>
+        <v>-7.0409999999999968</v>
       </c>
     </row>
     <row r="697">
@@ -9836,7 +9840,7 @@
         <v>-1464</v>
       </c>
       <c r="D697">
-        <v>7.0439999999999827</v>
+        <v>-7.0439999999999827</v>
       </c>
     </row>
     <row r="698">
@@ -9850,7 +9854,7 @@
         <v>-1467</v>
       </c>
       <c r="D698">
-        <v>7.0629999999999882</v>
+        <v>-7.0629999999999882</v>
       </c>
     </row>
     <row r="699">
@@ -9864,7 +9868,7 @@
         <v>-1457</v>
       </c>
       <c r="D699">
-        <v>7.0639999999999645</v>
+        <v>-7.0639999999999645</v>
       </c>
     </row>
     <row r="700">
@@ -9878,7 +9882,7 @@
         <v>-1469</v>
       </c>
       <c r="D700">
-        <v>7.0749999999999886</v>
+        <v>-7.0749999999999886</v>
       </c>
     </row>
     <row r="701">
@@ -9892,7 +9896,7 @@
         <v>-1506</v>
       </c>
       <c r="D701">
-        <v>7.0789999999999509</v>
+        <v>-7.0789999999999509</v>
       </c>
     </row>
     <row r="702">
@@ -9906,7 +9910,7 @@
         <v>-1428</v>
       </c>
       <c r="D702">
-        <v>7.0979999999999563</v>
+        <v>-7.0979999999999563</v>
       </c>
     </row>
     <row r="703">
@@ -9920,7 +9924,7 @@
         <v>-1471</v>
       </c>
       <c r="D703">
-        <v>7.0989999999999895</v>
+        <v>-7.0989999999999895</v>
       </c>
     </row>
     <row r="704">
@@ -9934,7 +9938,7 @@
         <v>-1494</v>
       </c>
       <c r="D704">
-        <v>7.1209999999999809</v>
+        <v>-7.1209999999999809</v>
       </c>
     </row>
     <row r="705">
@@ -9948,7 +9952,7 @@
         <v>-1466</v>
       </c>
       <c r="D705">
-        <v>7.1229999999999905</v>
+        <v>-7.1229999999999905</v>
       </c>
     </row>
     <row r="706">
@@ -9962,7 +9966,7 @@
         <v>-1470</v>
       </c>
       <c r="D706">
-        <v>7.1689999999999827</v>
+        <v>-7.1689999999999827</v>
       </c>
     </row>
     <row r="707">
@@ -9976,7 +9980,7 @@
         <v>-1459</v>
       </c>
       <c r="D707">
-        <v>7.1709999999999923</v>
+        <v>-7.1709999999999923</v>
       </c>
     </row>
     <row r="708">
@@ -9990,7 +9994,7 @@
         <v>-1425</v>
       </c>
       <c r="D708">
-        <v>7.1730000000000018</v>
+        <v>-7.1730000000000018</v>
       </c>
     </row>
     <row r="709">
@@ -10004,7 +10008,7 @@
         <v>-1511</v>
       </c>
       <c r="D709">
-        <v>7.1739999999999782</v>
+        <v>-7.1739999999999782</v>
       </c>
     </row>
     <row r="710">
@@ -10018,7 +10022,7 @@
         <v>-1193</v>
       </c>
       <c r="D710">
-        <v>7.1769999999999641</v>
+        <v>-7.1769999999999641</v>
       </c>
     </row>
     <row r="711">
@@ -10032,7 +10036,7 @@
         <v>-1268</v>
       </c>
       <c r="D711">
-        <v>7.1779999999999973</v>
+        <v>-7.1779999999999973</v>
       </c>
     </row>
     <row r="712">
@@ -10046,7 +10050,7 @@
         <v>-1607</v>
       </c>
       <c r="D712">
-        <v>7.1979999999999791</v>
+        <v>-7.1979999999999791</v>
       </c>
     </row>
     <row r="713">
@@ -10060,7 +10064,7 @@
         <v>-1329</v>
       </c>
       <c r="D713">
-        <v>7.1999999999999886</v>
+        <v>-7.1999999999999886</v>
       </c>
     </row>
     <row r="714">
@@ -10074,7 +10078,7 @@
         <v>-1534</v>
       </c>
       <c r="D714">
-        <v>7.2210000000000036</v>
+        <v>-7.2210000000000036</v>
       </c>
     </row>
     <row r="715">
@@ -10088,7 +10092,7 @@
         <v>-982</v>
       </c>
       <c r="D715">
-        <v>7.22199999999998</v>
+        <v>-7.22199999999998</v>
       </c>
     </row>
     <row r="716">
@@ -10102,7 +10106,7 @@
         <v>-1570</v>
       </c>
       <c r="D716">
-        <v>7.2439999999999714</v>
+        <v>-7.2439999999999714</v>
       </c>
     </row>
     <row r="717">
@@ -10116,7 +10120,7 @@
         <v>-1792</v>
       </c>
       <c r="D717">
-        <v>7.2459999999999809</v>
+        <v>-7.2459999999999809</v>
       </c>
     </row>
     <row r="718">
@@ -10130,7 +10134,7 @@
         <v>-1463</v>
       </c>
       <c r="D718">
-        <v>7.2559999999999718</v>
+        <v>-7.2559999999999718</v>
       </c>
     </row>
     <row r="719">
@@ -10144,7 +10148,7 @@
         <v>-1728</v>
       </c>
       <c r="D719">
-        <v>7.2579999999999814</v>
+        <v>-7.2579999999999814</v>
       </c>
     </row>
     <row r="720">
@@ -10158,7 +10162,7 @@
         <v>-1614</v>
       </c>
       <c r="D720">
-        <v>7.2769999999999868</v>
+        <v>-7.2769999999999868</v>
       </c>
     </row>
     <row r="721">
@@ -10172,7 +10176,7 @@
         <v>-1061</v>
       </c>
       <c r="D721">
-        <v>7.2789999999999964</v>
+        <v>-7.2789999999999964</v>
       </c>
     </row>
     <row r="722">
@@ -10186,7 +10190,7 @@
         <v>-1191</v>
       </c>
       <c r="D722">
-        <v>7.3009999999999877</v>
+        <v>-7.3009999999999877</v>
       </c>
     </row>
     <row r="723">
@@ -10200,7 +10204,7 @@
         <v>-1446</v>
       </c>
       <c r="D723">
-        <v>7.3039999999999736</v>
+        <v>-7.3039999999999736</v>
       </c>
     </row>
     <row r="724">
@@ -10214,7 +10218,7 @@
         <v>-1500</v>
       </c>
       <c r="D724">
-        <v>7.33299999999997</v>
+        <v>-7.33299999999997</v>
       </c>
     </row>
     <row r="725">
@@ -10228,7 +10232,7 @@
         <v>-1075</v>
       </c>
       <c r="D725">
-        <v>7.3349999999999795</v>
+        <v>-7.3349999999999795</v>
       </c>
     </row>
     <row r="726">
@@ -10242,7 +10246,7 @@
         <v>-617</v>
       </c>
       <c r="D726">
-        <v>7.3369999999999891</v>
+        <v>-7.3369999999999891</v>
       </c>
     </row>
     <row r="727">
@@ -10256,7 +10260,7 @@
         <v>-1593</v>
       </c>
       <c r="D727">
-        <v>7.3389999999999986</v>
+        <v>-7.3389999999999986</v>
       </c>
     </row>
     <row r="728">
@@ -10270,7 +10274,7 @@
         <v>-2434</v>
       </c>
       <c r="D728">
-        <v>7.3569999999999709</v>
+        <v>-7.3569999999999709</v>
       </c>
     </row>
     <row r="729">
@@ -10284,7 +10288,7 @@
         <v>-2786</v>
       </c>
       <c r="D729">
-        <v>7.3589999999999804</v>
+        <v>-7.3589999999999804</v>
       </c>
     </row>
     <row r="730">
@@ -10298,7 +10302,7 @@
         <v>-792</v>
       </c>
       <c r="D730">
-        <v>7.3779999999999859</v>
+        <v>-7.3779999999999859</v>
       </c>
     </row>
     <row r="731">
@@ -10312,7 +10316,7 @@
         <v>-143</v>
       </c>
       <c r="D731">
-        <v>7.3819999999999482</v>
+        <v>-7.3819999999999482</v>
       </c>
     </row>
     <row r="732">
@@ -10326,7 +10330,7 @@
         <v>-3066</v>
       </c>
       <c r="D732">
-        <v>7.4039999999999964</v>
+        <v>-7.4039999999999964</v>
       </c>
     </row>
     <row r="733">
@@ -10340,7 +10344,7 @@
         <v>-757</v>
       </c>
       <c r="D733">
-        <v>7.4059999999999491</v>
+        <v>-7.4059999999999491</v>
       </c>
     </row>
     <row r="734">
@@ -10354,7 +10358,7 @@
         <v>-733</v>
       </c>
       <c r="D734">
-        <v>7.4239999999999782</v>
+        <v>-7.4239999999999782</v>
       </c>
     </row>
     <row r="735">
@@ -10368,7 +10372,7 @@
         <v>6740</v>
       </c>
       <c r="D735">
-        <v>7.4259999999999877</v>
+        <v>-7.4259999999999877</v>
       </c>
     </row>
     <row r="736">
@@ -10382,7 +10386,7 @@
         <v>1516</v>
       </c>
       <c r="D736">
-        <v>7.4359999999999786</v>
+        <v>-7.4359999999999786</v>
       </c>
     </row>
     <row r="737">
@@ -10396,7 +10400,7 @@
         <v>4569</v>
       </c>
       <c r="D737">
-        <v>7.4399999999999977</v>
+        <v>-7.4399999999999977</v>
       </c>
     </row>
     <row r="738">
@@ -10410,7 +10414,7 @@
         <v>3211</v>
       </c>
       <c r="D738">
-        <v>7.45799999999997</v>
+        <v>-7.45799999999997</v>
       </c>
     </row>
     <row r="739">
@@ -10424,7 +10428,7 @@
         <v>2956</v>
       </c>
       <c r="D739">
-        <v>7.4599999999999795</v>
+        <v>-7.4599999999999795</v>
       </c>
     </row>
     <row r="740">
@@ -10438,7 +10442,7 @@
         <v>1856</v>
       </c>
       <c r="D740">
-        <v>7.4809999999999945</v>
+        <v>-7.4809999999999945</v>
       </c>
     </row>
     <row r="741">
@@ -10452,7 +10456,7 @@
         <v>2377</v>
       </c>
       <c r="D741">
-        <v>7.4849999999999568</v>
+        <v>-7.4849999999999568</v>
       </c>
     </row>
     <row r="742">
@@ -10466,7 +10470,7 @@
         <v>1650</v>
       </c>
       <c r="D742">
-        <v>7.5139999999999532</v>
+        <v>-7.5139999999999532</v>
       </c>
     </row>
     <row r="743">
@@ -10480,7 +10484,7 @@
         <v>1519</v>
       </c>
       <c r="D743">
-        <v>7.5149999999999864</v>
+        <v>-7.5149999999999864</v>
       </c>
     </row>
     <row r="744">
@@ -10494,7 +10498,7 @@
         <v>874</v>
       </c>
       <c r="D744">
-        <v>7.5169999999999959</v>
+        <v>-7.5169999999999959</v>
       </c>
     </row>
     <row r="745">
@@ -10508,7 +10512,7 @@
         <v>468</v>
       </c>
       <c r="D745">
-        <v>7.5190000000000055</v>
+        <v>-7.5190000000000055</v>
       </c>
     </row>
     <row r="746">
@@ -10522,7 +10526,7 @@
         <v>-192</v>
       </c>
       <c r="D746">
-        <v>7.5369999999999777</v>
+        <v>-7.5369999999999777</v>
       </c>
     </row>
     <row r="747">
@@ -10536,7 +10540,7 @@
         <v>-763</v>
       </c>
       <c r="D747">
-        <v>7.5389999999999873</v>
+        <v>-7.5389999999999873</v>
       </c>
     </row>
     <row r="748">
@@ -10550,7 +10554,7 @@
         <v>-990</v>
       </c>
       <c r="D748">
-        <v>7.5589999999999691</v>
+        <v>-7.5589999999999691</v>
       </c>
     </row>
     <row r="749">
@@ -10564,7 +10568,7 @@
         <v>-1177</v>
       </c>
       <c r="D749">
-        <v>7.561999999999955</v>
+        <v>-7.561999999999955</v>
       </c>
     </row>
     <row r="750">
@@ -10578,7 +10582,7 @@
         <v>-1120</v>
       </c>
       <c r="D750">
-        <v>7.5849999999999795</v>
+        <v>-7.5849999999999795</v>
       </c>
     </row>
     <row r="751">
@@ -10592,7 +10596,7 @@
         <v>-1102</v>
       </c>
       <c r="D751">
-        <v>7.5869999999999891</v>
+        <v>-7.5869999999999891</v>
       </c>
     </row>
     <row r="752">
@@ -10606,7 +10610,7 @@
         <v>-969</v>
       </c>
       <c r="D752">
-        <v>7.6029999999999518</v>
+        <v>-7.6029999999999518</v>
       </c>
     </row>
     <row r="753">
@@ -10620,7 +10624,7 @@
         <v>-965</v>
       </c>
       <c r="D753">
-        <v>7.6049999999999613</v>
+        <v>-7.6049999999999613</v>
       </c>
     </row>
     <row r="754">
@@ -10634,7 +10638,7 @@
         <v>-1302</v>
       </c>
       <c r="D754">
-        <v>7.6139999999999759</v>
+        <v>-7.6139999999999759</v>
       </c>
     </row>
     <row r="755">
@@ -10648,7 +10652,7 @@
         <v>-1586</v>
       </c>
       <c r="D755">
-        <v>7.6159999999999854</v>
+        <v>-7.6159999999999854</v>
       </c>
     </row>
     <row r="756">
@@ -10662,7 +10666,7 @@
         <v>-2565</v>
       </c>
       <c r="D756">
-        <v>7.6379999999999768</v>
+        <v>-7.6379999999999768</v>
       </c>
     </row>
     <row r="757">
@@ -10676,7 +10680,7 @@
         <v>-3194</v>
       </c>
       <c r="D757">
-        <v>7.6399999999999864</v>
+        <v>-7.6399999999999864</v>
       </c>
     </row>
     <row r="758">
@@ -10690,7 +10694,7 @@
         <v>-4351</v>
       </c>
       <c r="D758">
-        <v>7.6599999999999682</v>
+        <v>-7.6599999999999682</v>
       </c>
     </row>
     <row r="759">
@@ -10704,7 +10708,7 @@
         <v>-5629</v>
       </c>
       <c r="D759">
-        <v>7.6610000000000014</v>
+        <v>-7.6610000000000014</v>
       </c>
     </row>
     <row r="760">
@@ -10718,7 +10722,7 @@
         <v>-7323</v>
       </c>
       <c r="D760">
-        <v>7.6929999999999836</v>
+        <v>-7.6929999999999836</v>
       </c>
     </row>
     <row r="761">
@@ -10732,7 +10736,7 @@
         <v>-8009</v>
       </c>
       <c r="D761">
-        <v>7.69399999999996</v>
+        <v>-7.69399999999996</v>
       </c>
     </row>
     <row r="762">
@@ -10746,7 +10750,7 @@
         <v>-8453</v>
       </c>
       <c r="D762">
-        <v>7.6959999999999695</v>
+        <v>-7.6959999999999695</v>
       </c>
     </row>
     <row r="763">
@@ -10760,7 +10764,7 @@
         <v>-9232</v>
       </c>
       <c r="D763">
-        <v>7.6979999999999791</v>
+        <v>-7.6979999999999791</v>
       </c>
     </row>
     <row r="764">
@@ -10774,7 +10778,7 @@
         <v>-9396</v>
       </c>
       <c r="D764">
-        <v>7.7169999999999845</v>
+        <v>-7.7169999999999845</v>
       </c>
     </row>
     <row r="765">
@@ -10788,7 +10792,7 @@
         <v>-10292</v>
       </c>
       <c r="D765">
-        <v>7.7189999999999941</v>
+        <v>-7.7189999999999941</v>
       </c>
     </row>
     <row r="766">
@@ -10802,7 +10806,7 @@
         <v>-10389</v>
       </c>
       <c r="D766">
-        <v>7.7489999999999668</v>
+        <v>-7.7489999999999668</v>
       </c>
     </row>
     <row r="767">
@@ -10816,7 +10820,7 @@
         <v>-10952</v>
       </c>
       <c r="D767">
-        <v>7.7509999999999764</v>
+        <v>-7.7509999999999764</v>
       </c>
     </row>
     <row r="768">
@@ -10830,7 +10834,7 @@
         <v>-10446</v>
       </c>
       <c r="D768">
-        <v>7.7609999999999673</v>
+        <v>-7.7609999999999673</v>
       </c>
     </row>
     <row r="769">
@@ -10844,7 +10848,7 @@
         <v>-6989</v>
       </c>
       <c r="D769">
-        <v>7.7649999999999864</v>
+        <v>-7.7649999999999864</v>
       </c>
     </row>
     <row r="770">
@@ -10858,7 +10862,7 @@
         <v>691</v>
       </c>
       <c r="D770">
-        <v>7.7829999999999586</v>
+        <v>-7.7829999999999586</v>
       </c>
     </row>
     <row r="771">
@@ -10872,7 +10876,7 @@
         <v>4972</v>
       </c>
       <c r="D771">
-        <v>7.7849999999999682</v>
+        <v>-7.7849999999999682</v>
       </c>
     </row>
     <row r="772">
@@ -10886,7 +10890,7 @@
         <v>-77</v>
       </c>
       <c r="D772">
-        <v>7.7949999999999591</v>
+        <v>-7.7949999999999591</v>
       </c>
     </row>
     <row r="773">
@@ -10900,7 +10904,7 @@
         <v>-3721</v>
       </c>
       <c r="D773">
-        <v>7.7969999999999686</v>
+        <v>-7.7969999999999686</v>
       </c>
     </row>
     <row r="774">
@@ -10914,7 +10918,7 @@
         <v>-3143</v>
       </c>
       <c r="D774">
-        <v>7.81899999999996</v>
+        <v>-7.81899999999996</v>
       </c>
     </row>
     <row r="775">
@@ -10928,7 +10932,7 @@
         <v>-2789</v>
       </c>
       <c r="D775">
-        <v>7.8220000000000027</v>
+        <v>-7.8220000000000027</v>
       </c>
     </row>
     <row r="776">
@@ -10942,7 +10946,7 @@
         <v>-1640</v>
       </c>
       <c r="D776">
-        <v>7.839999999999975</v>
+        <v>-7.839999999999975</v>
       </c>
     </row>
     <row r="777">
@@ -10956,7 +10960,7 @@
         <v>-926</v>
       </c>
       <c r="D777">
-        <v>7.8419999999999845</v>
+        <v>-7.8419999999999845</v>
       </c>
     </row>
     <row r="778">
@@ -10970,7 +10974,7 @@
         <v>-1406</v>
       </c>
       <c r="D778">
-        <v>7.8799999999999955</v>
+        <v>-7.8799999999999955</v>
       </c>
     </row>
     <row r="779">
@@ -10984,7 +10988,7 @@
         <v>-1177</v>
       </c>
       <c r="D779">
-        <v>7.8819999999999482</v>
+        <v>-7.8819999999999482</v>
       </c>
     </row>
     <row r="780">
@@ -10998,7 +11002,7 @@
         <v>-2237</v>
       </c>
       <c r="D780">
-        <v>7.8979999999999677</v>
+        <v>-7.8979999999999677</v>
       </c>
     </row>
     <row r="781">
@@ -11012,7 +11016,7 @@
         <v>-1166</v>
       </c>
       <c r="D781">
-        <v>7.8999999999999773</v>
+        <v>-7.8999999999999773</v>
       </c>
     </row>
     <row r="782">
@@ -11026,7 +11030,7 @@
         <v>-1278</v>
       </c>
       <c r="D782">
-        <v>7.9180000000000064</v>
+        <v>-7.9180000000000064</v>
       </c>
     </row>
     <row r="783">
@@ -11040,7 +11044,7 @@
         <v>-1235</v>
       </c>
       <c r="D783">
-        <v>7.9199999999999591</v>
+        <v>-7.9199999999999591</v>
       </c>
     </row>
     <row r="784">
@@ -11054,7 +11058,7 @@
         <v>-1692</v>
       </c>
       <c r="D784">
-        <v>7.94399999999996</v>
+        <v>-7.94399999999996</v>
       </c>
     </row>
     <row r="785">
@@ -11068,7 +11072,7 @@
         <v>-1253</v>
       </c>
       <c r="D785">
-        <v>7.9449999999999932</v>
+        <v>-7.9449999999999932</v>
       </c>
     </row>
     <row r="786">
@@ -11082,7 +11086,7 @@
         <v>-1184</v>
       </c>
       <c r="D786">
-        <v>7.9629999999999654</v>
+        <v>-7.9629999999999654</v>
       </c>
     </row>
     <row r="787">
@@ -11096,7 +11100,7 @@
         <v>-1361</v>
       </c>
       <c r="D787">
-        <v>7.9639999999999986</v>
+        <v>-7.9639999999999986</v>
       </c>
     </row>
     <row r="788">
@@ -11110,7 +11114,7 @@
         <v>-1354</v>
       </c>
       <c r="D788">
-        <v>7.9769999999999754</v>
+        <v>-7.9769999999999754</v>
       </c>
     </row>
     <row r="789">
@@ -11124,7 +11128,7 @@
         <v>-1490</v>
       </c>
       <c r="D789">
-        <v>7.978999999999985</v>
+        <v>-7.978999999999985</v>
       </c>
     </row>
     <row r="790">
@@ -11138,7 +11142,7 @@
         <v>-1398</v>
       </c>
       <c r="D790">
-        <v>7.9969999999999573</v>
+        <v>-7.9969999999999573</v>
       </c>
     </row>
     <row r="791">
@@ -11152,7 +11156,7 @@
         <v>-1616</v>
       </c>
       <c r="D791">
-        <v>7.9989999999999668</v>
+        <v>-7.9989999999999668</v>
       </c>
     </row>
     <row r="792">
@@ -11166,7 +11170,7 @@
         <v>-1448</v>
       </c>
       <c r="D792">
-        <v>8.0199999999999818</v>
+        <v>-8.0199999999999818</v>
       </c>
     </row>
     <row r="793">
@@ -11180,7 +11184,7 @@
         <v>-1427</v>
       </c>
       <c r="D793">
-        <v>8.0219999999999914</v>
+        <v>-8.0219999999999914</v>
       </c>
     </row>
     <row r="794">
@@ -11194,7 +11198,7 @@
         <v>-1502</v>
       </c>
       <c r="D794">
-        <v>8.0579999999999927</v>
+        <v>-8.0579999999999927</v>
       </c>
     </row>
     <row r="795">
@@ -11208,7 +11212,7 @@
         <v>-1536</v>
       </c>
       <c r="D795">
-        <v>8.0600000000000023</v>
+        <v>-8.0600000000000023</v>
       </c>
     </row>
     <row r="796">
@@ -11222,7 +11226,7 @@
         <v>-1427</v>
       </c>
       <c r="D796">
-        <v>8.0869999999999891</v>
+        <v>-8.0869999999999891</v>
       </c>
     </row>
     <row r="797">
@@ -11236,7 +11240,7 @@
         <v>-1361</v>
       </c>
       <c r="D797">
-        <v>8.0889999999999986</v>
+        <v>-8.0889999999999986</v>
       </c>
     </row>
     <row r="798">
@@ -11250,7 +11254,7 @@
         <v>-1458</v>
       </c>
       <c r="D798">
-        <v>8.1119999999999663</v>
+        <v>-8.1119999999999663</v>
       </c>
     </row>
     <row r="799">
@@ -11264,7 +11268,7 @@
         <v>-1398</v>
       </c>
       <c r="D799">
-        <v>8.1129999999999995</v>
+        <v>-8.1129999999999995</v>
       </c>
     </row>
     <row r="800">
@@ -11278,7 +11282,7 @@
         <v>-1433</v>
       </c>
       <c r="D800">
-        <v>8.1219999999999573</v>
+        <v>-8.1219999999999573</v>
       </c>
     </row>
     <row r="801">
@@ -11292,7 +11296,7 @@
         <v>-1445</v>
       </c>
       <c r="D801">
-        <v>8.125</v>
+        <v>-8.125</v>
       </c>
     </row>
     <row r="802">
@@ -11306,7 +11310,7 @@
         <v>-1437</v>
       </c>
       <c r="D802">
-        <v>8.1440000000000055</v>
+        <v>-8.1440000000000055</v>
       </c>
     </row>
     <row r="803">
@@ -11320,7 +11324,7 @@
         <v>-1443</v>
       </c>
       <c r="D803">
-        <v>8.1449999999999818</v>
+        <v>-8.1449999999999818</v>
       </c>
     </row>
     <row r="804">
@@ -11334,7 +11338,7 @@
         <v>-1402</v>
       </c>
       <c r="D804">
-        <v>8.1610000000000014</v>
+        <v>-8.1610000000000014</v>
       </c>
     </row>
     <row r="805">
@@ -11348,7 +11352,7 @@
         <v>-1401</v>
       </c>
       <c r="D805">
-        <v>8.1629999999999541</v>
+        <v>-8.1629999999999541</v>
       </c>
     </row>
     <row r="806">
@@ -11362,7 +11366,7 @@
         <v>-1419</v>
       </c>
       <c r="D806">
-        <v>8.1769999999999641</v>
+        <v>-8.1769999999999641</v>
       </c>
     </row>
     <row r="807">
@@ -11376,7 +11380,7 @@
         <v>-1421</v>
       </c>
       <c r="D807">
-        <v>8.1789999999999736</v>
+        <v>-8.1789999999999736</v>
       </c>
     </row>
     <row r="808">
@@ -11390,7 +11394,7 @@
         <v>-1429</v>
       </c>
       <c r="D808">
-        <v>8.200999999999965</v>
+        <v>-8.200999999999965</v>
       </c>
     </row>
     <row r="809">
@@ -11404,7 +11408,7 @@
         <v>-1421</v>
       </c>
       <c r="D809">
-        <v>8.2019999999999982</v>
+        <v>-8.2019999999999982</v>
       </c>
     </row>
     <row r="810">
@@ -11418,7 +11422,7 @@
         <v>-1434</v>
       </c>
       <c r="D810">
-        <v>8.2329999999999472</v>
+        <v>-8.2329999999999472</v>
       </c>
     </row>
     <row r="811">
@@ -11432,7 +11436,7 @@
         <v>-1444</v>
       </c>
       <c r="D811">
-        <v>8.2339999999999804</v>
+        <v>-8.2339999999999804</v>
       </c>
     </row>
     <row r="812">
@@ -11446,7 +11450,7 @@
         <v>-1420</v>
       </c>
       <c r="D812">
-        <v>8.2349999999999568</v>
+        <v>-8.2349999999999568</v>
       </c>
     </row>
     <row r="813">
@@ -11460,7 +11464,7 @@
         <v>-1429</v>
       </c>
       <c r="D813">
-        <v>8.23599999999999</v>
+        <v>-8.23599999999999</v>
       </c>
     </row>
     <row r="814">
@@ -11474,7 +11478,7 @@
         <v>-1437</v>
       </c>
       <c r="D814">
-        <v>8.2569999999999482</v>
+        <v>-8.2569999999999482</v>
       </c>
     </row>
     <row r="815">
@@ -11488,7 +11492,7 @@
         <v>-1430</v>
       </c>
       <c r="D815">
-        <v>8.2589999999999577</v>
+        <v>-8.2589999999999577</v>
       </c>
     </row>
     <row r="816">
@@ -11502,7 +11506,7 @@
         <v>-1474</v>
       </c>
       <c r="D816">
-        <v>8.2789999999999964</v>
+        <v>-8.2789999999999964</v>
       </c>
     </row>
     <row r="817">
@@ -11516,7 +11520,7 @@
         <v>-1431</v>
       </c>
       <c r="D817">
-        <v>8.2809999999999491</v>
+        <v>-8.2809999999999491</v>
       </c>
     </row>
     <row r="818">
@@ -11530,7 +11534,7 @@
         <v>-1417</v>
       </c>
       <c r="D818">
-        <v>8.3279999999999745</v>
+        <v>-8.3279999999999745</v>
       </c>
     </row>
     <row r="819">
@@ -11544,7 +11548,7 @@
         <v>-1393</v>
       </c>
       <c r="D819">
-        <v>8.3299999999999841</v>
+        <v>-8.3299999999999841</v>
       </c>
     </row>
     <row r="820">
@@ -11558,7 +11562,7 @@
         <v>-1406</v>
       </c>
       <c r="D820">
-        <v>8.3339999999999463</v>
+        <v>-8.3339999999999463</v>
       </c>
     </row>
     <row r="821">
@@ -11572,7 +11576,7 @@
         <v>-1450</v>
       </c>
       <c r="D821">
-        <v>8.3359999999999559</v>
+        <v>-8.3359999999999559</v>
       </c>
     </row>
     <row r="822">
@@ -11586,7 +11590,7 @@
         <v>-1432</v>
       </c>
       <c r="D822">
-        <v>8.3579999999999472</v>
+        <v>-8.3579999999999472</v>
       </c>
     </row>
     <row r="823">
@@ -11600,7 +11604,7 @@
         <v>-1430</v>
       </c>
       <c r="D823">
-        <v>8.36099999999999</v>
+        <v>-8.36099999999999</v>
       </c>
     </row>
     <row r="824">
@@ -11614,7 +11618,7 @@
         <v>-1439</v>
       </c>
       <c r="D824">
-        <v>8.3799999999999955</v>
+        <v>-8.3799999999999955</v>
       </c>
     </row>
     <row r="825">
@@ -11628,7 +11632,7 @@
         <v>-1446</v>
       </c>
       <c r="D825">
-        <v>8.3829999999999814</v>
+        <v>-8.3829999999999814</v>
       </c>
     </row>
     <row r="826">
@@ -11642,7 +11646,7 @@
         <v>-1446</v>
       </c>
       <c r="D826">
-        <v>8.4129999999999541</v>
+        <v>-8.4129999999999541</v>
       </c>
     </row>
     <row r="827">
@@ -11656,7 +11660,7 @@
         <v>-1480</v>
       </c>
       <c r="D827">
-        <v>8.4139999999999873</v>
+        <v>-8.4139999999999873</v>
       </c>
     </row>
     <row r="828">
@@ -11670,7 +11674,7 @@
         <v>-1410</v>
       </c>
       <c r="D828">
-        <v>8.4159999999999968</v>
+        <v>-8.4159999999999968</v>
       </c>
     </row>
     <row r="829">
@@ -11684,7 +11688,7 @@
         <v>-1363</v>
       </c>
       <c r="D829">
-        <v>8.4169999999999732</v>
+        <v>-8.4169999999999732</v>
       </c>
     </row>
     <row r="830">
@@ -11698,7 +11702,7 @@
         <v>-1347</v>
       </c>
       <c r="D830">
-        <v>8.4359999999999786</v>
+        <v>-8.4359999999999786</v>
       </c>
     </row>
     <row r="831">
@@ -11712,7 +11716,7 @@
         <v>-1324</v>
       </c>
       <c r="D831">
-        <v>8.436999999999955</v>
+        <v>-8.436999999999955</v>
       </c>
     </row>
     <row r="832">
@@ -11726,7 +11730,7 @@
         <v>-1243</v>
       </c>
       <c r="D832">
-        <v>8.4710000000000036</v>
+        <v>-8.4710000000000036</v>
       </c>
     </row>
     <row r="833">
@@ -11740,7 +11744,7 @@
         <v>-1262</v>
       </c>
       <c r="D833">
-        <v>8.4739999999999895</v>
+        <v>-8.4739999999999895</v>
       </c>
     </row>
     <row r="834">
@@ -11754,7 +11758,7 @@
         <v>-1754</v>
       </c>
       <c r="D834">
-        <v>8.4819999999999709</v>
+        <v>-8.4819999999999709</v>
       </c>
     </row>
     <row r="835">
@@ -11768,7 +11772,7 @@
         <v>-510</v>
       </c>
       <c r="D835">
-        <v>8.4849999999999568</v>
+        <v>-8.4849999999999568</v>
       </c>
     </row>
     <row r="836">
@@ -11782,7 +11786,7 @@
         <v>-1240</v>
       </c>
       <c r="D836">
-        <v>8.5029999999999859</v>
+        <v>-8.5029999999999859</v>
       </c>
     </row>
     <row r="837">
@@ -11796,7 +11800,7 @@
         <v>-1331</v>
       </c>
       <c r="D837">
-        <v>8.5049999999999955</v>
+        <v>-8.5049999999999955</v>
       </c>
     </row>
     <row r="838">
@@ -11810,7 +11814,7 @@
         <v>-1657</v>
       </c>
       <c r="D838">
-        <v>8.5149999999999864</v>
+        <v>-8.5149999999999864</v>
       </c>
     </row>
     <row r="839">
@@ -11824,7 +11828,7 @@
         <v>-1606</v>
       </c>
       <c r="D839">
-        <v>8.5179999999999723</v>
+        <v>-8.5179999999999723</v>
       </c>
     </row>
     <row r="840">
@@ -11838,7 +11842,7 @@
         <v>-1367</v>
       </c>
       <c r="D840">
-        <v>8.5489999999999782</v>
+        <v>-8.5489999999999782</v>
       </c>
     </row>
     <row r="841">
@@ -11852,7 +11856,7 @@
         <v>-1424</v>
       </c>
       <c r="D841">
-        <v>8.5499999999999545</v>
+        <v>-8.5499999999999545</v>
       </c>
     </row>
     <row r="842">
@@ -11866,7 +11870,7 @@
         <v>-1354</v>
       </c>
       <c r="D842">
-        <v>8.561999999999955</v>
+        <v>-8.561999999999955</v>
       </c>
     </row>
     <row r="843">
@@ -11880,7 +11884,7 @@
         <v>-1162</v>
       </c>
       <c r="D843">
-        <v>8.5639999999999645</v>
+        <v>-8.5639999999999645</v>
       </c>
     </row>
     <row r="844">
@@ -11894,7 +11898,7 @@
         <v>-1058</v>
       </c>
       <c r="D844">
-        <v>8.5929999999999609</v>
+        <v>-8.5929999999999609</v>
       </c>
     </row>
     <row r="845">
@@ -11908,7 +11912,7 @@
         <v>-1895</v>
       </c>
       <c r="D845">
-        <v>8.5949999999999704</v>
+        <v>-8.5949999999999704</v>
       </c>
     </row>
     <row r="846">
@@ -11922,7 +11926,7 @@
         <v>-2061</v>
       </c>
       <c r="D846">
-        <v>8.59699999999998</v>
+        <v>-8.59699999999998</v>
       </c>
     </row>
     <row r="847">
@@ -11936,7 +11940,7 @@
         <v>-761</v>
       </c>
       <c r="D847">
-        <v>8.5989999999999895</v>
+        <v>-8.5989999999999895</v>
       </c>
     </row>
     <row r="848">
@@ -11950,7 +11954,7 @@
         <v>-2467</v>
       </c>
       <c r="D848">
-        <v>8.6150000000000091</v>
+        <v>-8.6150000000000091</v>
       </c>
     </row>
     <row r="849">
@@ -11964,7 +11968,7 @@
         <v>-1695</v>
       </c>
       <c r="D849">
-        <v>8.6169999999999618</v>
+        <v>-8.6169999999999618</v>
       </c>
     </row>
     <row r="850">
@@ -11978,7 +11982,7 @@
         <v>-3514</v>
       </c>
       <c r="D850">
-        <v>8.6389999999999532</v>
+        <v>-8.6389999999999532</v>
       </c>
     </row>
     <row r="851">
@@ -11992,7 +11996,7 @@
         <v>-148</v>
       </c>
       <c r="D851">
-        <v>8.6409999999999627</v>
+        <v>-8.6409999999999627</v>
       </c>
     </row>
     <row r="852">
@@ -12006,7 +12010,7 @@
         <v>-467</v>
       </c>
       <c r="D852">
-        <v>8.6639999999999873</v>
+        <v>-8.6639999999999873</v>
       </c>
     </row>
     <row r="853">
@@ -12020,7 +12024,7 @@
         <v>-3156</v>
       </c>
       <c r="D853">
-        <v>8.6659999999999968</v>
+        <v>-8.6659999999999968</v>
       </c>
     </row>
     <row r="854">
@@ -12034,7 +12038,7 @@
         <v>-247</v>
       </c>
       <c r="D854">
-        <v>8.6839999999999691</v>
+        <v>-8.6839999999999691</v>
       </c>
     </row>
     <row r="855">
@@ -12048,7 +12052,7 @@
         <v>6078</v>
       </c>
       <c r="D855">
-        <v>8.6859999999999786</v>
+        <v>-8.6859999999999786</v>
       </c>
     </row>
     <row r="856">
@@ -12062,7 +12066,7 @@
         <v>4968</v>
       </c>
       <c r="D856">
-        <v>8.6959999999999695</v>
+        <v>-8.6959999999999695</v>
       </c>
     </row>
     <row r="857">
@@ -12076,7 +12080,7 @@
         <v>4529</v>
       </c>
       <c r="D857">
-        <v>8.6979999999999791</v>
+        <v>-8.6979999999999791</v>
       </c>
     </row>
     <row r="858">
@@ -12090,7 +12094,7 @@
         <v>4195</v>
       </c>
       <c r="D858">
-        <v>8.7189999999999941</v>
+        <v>-8.7189999999999941</v>
       </c>
     </row>
     <row r="859">
@@ -12104,7 +12108,7 @@
         <v>3057</v>
       </c>
       <c r="D859">
-        <v>8.72199999999998</v>
+        <v>-8.72199999999998</v>
       </c>
     </row>
     <row r="860">
@@ -12118,7 +12122,7 @@
         <v>2494</v>
       </c>
       <c r="D860">
-        <v>8.7419999999999618</v>
+        <v>-8.7419999999999618</v>
       </c>
     </row>
     <row r="861">
@@ -12132,7 +12136,7 @@
         <v>2141</v>
       </c>
       <c r="D861">
-        <v>8.7450000000000045</v>
+        <v>-8.7450000000000045</v>
       </c>
     </row>
     <row r="862">
@@ -12146,7 +12150,7 @@
         <v>-839</v>
       </c>
       <c r="D862">
-        <v>8.7860000000000014</v>
+        <v>-8.7860000000000014</v>
       </c>
     </row>
     <row r="863">
@@ -12160,7 +12164,7 @@
         <v>-2057</v>
       </c>
       <c r="D863">
-        <v>8.7879999999999541</v>
+        <v>-8.7879999999999541</v>
       </c>
     </row>
     <row r="864">
@@ -12174,7 +12178,7 @@
         <v>-2290</v>
       </c>
       <c r="D864">
-        <v>8.7959999999999923</v>
+        <v>-8.7959999999999923</v>
       </c>
     </row>
     <row r="865">
@@ -12188,7 +12192,7 @@
         <v>-2208</v>
       </c>
       <c r="D865">
-        <v>8.7980000000000018</v>
+        <v>-8.7980000000000018</v>
       </c>
     </row>
     <row r="866">
@@ -12202,7 +12206,7 @@
         <v>-2047</v>
       </c>
       <c r="D866">
-        <v>8.81899999999996</v>
+        <v>-8.81899999999996</v>
       </c>
     </row>
     <row r="867">
@@ -12216,7 +12220,7 @@
         <v>-1959</v>
       </c>
       <c r="D867">
-        <v>8.8220000000000027</v>
+        <v>-8.8220000000000027</v>
       </c>
     </row>
     <row r="868">
@@ -12230,7 +12234,7 @@
         <v>-2015</v>
       </c>
       <c r="D868">
-        <v>8.8419999999999845</v>
+        <v>-8.8419999999999845</v>
       </c>
     </row>
     <row r="869">
@@ -12244,7 +12248,7 @@
         <v>-2456</v>
       </c>
       <c r="D869">
-        <v>8.8439999999999941</v>
+        <v>-8.8439999999999941</v>
       </c>
     </row>
     <row r="870">
@@ -12258,7 +12262,7 @@
         <v>-3567</v>
       </c>
       <c r="D870">
-        <v>8.8639999999999759</v>
+        <v>-8.8639999999999759</v>
       </c>
     </row>
     <row r="871">
@@ -12272,7 +12276,7 @@
         <v>-4522</v>
       </c>
       <c r="D871">
-        <v>8.8659999999999854</v>
+        <v>-8.8659999999999854</v>
       </c>
     </row>
     <row r="872">
@@ -12286,7 +12290,7 @@
         <v>-5331</v>
       </c>
       <c r="D872">
-        <v>8.8769999999999527</v>
+        <v>-8.8769999999999527</v>
       </c>
     </row>
     <row r="873">
@@ -12300,7 +12304,7 @@
         <v>-6060</v>
       </c>
       <c r="D873">
-        <v>8.8789999999999623</v>
+        <v>-8.8789999999999623</v>
       </c>
     </row>
     <row r="874">
@@ -12314,7 +12318,7 @@
         <v>-6635</v>
       </c>
       <c r="D874">
-        <v>8.8999999999999773</v>
+        <v>-8.8999999999999773</v>
       </c>
     </row>
     <row r="875">
@@ -12328,7 +12332,7 @@
         <v>-6774</v>
       </c>
       <c r="D875">
-        <v>8.9019999999999868</v>
+        <v>-8.9019999999999868</v>
       </c>
     </row>
     <row r="876">
@@ -12342,7 +12346,7 @@
         <v>-10864</v>
       </c>
       <c r="D876">
-        <v>8.9209999999999923</v>
+        <v>-8.9209999999999923</v>
       </c>
     </row>
     <row r="877">
@@ -12356,7 +12360,7 @@
         <v>-9456</v>
       </c>
       <c r="D877">
-        <v>8.9230000000000018</v>
+        <v>-8.9230000000000018</v>
       </c>
     </row>
     <row r="878">
@@ -12370,7 +12374,7 @@
         <v>-10652</v>
       </c>
       <c r="D878">
-        <v>8.9529999999999745</v>
+        <v>-8.9529999999999745</v>
       </c>
     </row>
     <row r="879">
@@ -12384,7 +12388,7 @@
         <v>-11562</v>
       </c>
       <c r="D879">
-        <v>8.9539999999999509</v>
+        <v>-8.9539999999999509</v>
       </c>
     </row>
     <row r="880">
@@ -12398,7 +12402,7 @@
         <v>-12931</v>
       </c>
       <c r="D880">
-        <v>8.9559999999999604</v>
+        <v>-8.9559999999999604</v>
       </c>
     </row>
     <row r="881">
@@ -12412,7 +12416,7 @@
         <v>-780</v>
       </c>
       <c r="D881">
-        <v>8.95799999999997</v>
+        <v>-8.95799999999997</v>
       </c>
     </row>
     <row r="882">
@@ -12426,7 +12430,7 @@
         <v>-1833</v>
       </c>
       <c r="D882">
-        <v>8.9769999999999754</v>
+        <v>-8.9769999999999754</v>
       </c>
     </row>
     <row r="883">
@@ -12440,7 +12444,7 @@
         <v>-3007</v>
       </c>
       <c r="D883">
-        <v>8.978999999999985</v>
+        <v>-8.978999999999985</v>
       </c>
     </row>
     <row r="884">
@@ -12454,7 +12458,7 @@
         <v>1704</v>
       </c>
       <c r="D884">
-        <v>8.9989999999999668</v>
+        <v>-8.9989999999999668</v>
       </c>
     </row>
     <row r="885">
@@ -12468,7 +12472,7 @@
         <v>-1347</v>
       </c>
       <c r="D885">
-        <v>9.0009999999999764</v>
+        <v>-9.0009999999999764</v>
       </c>
     </row>
     <row r="886">
@@ -12482,7 +12486,7 @@
         <v>-1563</v>
       </c>
       <c r="D886">
-        <v>9.0249999999999773</v>
+        <v>-9.0249999999999773</v>
       </c>
     </row>
     <row r="887">
@@ -12496,7 +12500,7 @@
         <v>-1906</v>
       </c>
       <c r="D887">
-        <v>9.0269999999999868</v>
+        <v>-9.0269999999999868</v>
       </c>
     </row>
     <row r="888">
@@ -12510,7 +12514,7 @@
         <v>-1552</v>
       </c>
       <c r="D888">
-        <v>9.0430000000000064</v>
+        <v>-9.0430000000000064</v>
       </c>
     </row>
     <row r="889">
@@ -12524,7 +12528,7 @@
         <v>-842</v>
       </c>
       <c r="D889">
-        <v>9.0449999999999591</v>
+        <v>-9.0449999999999591</v>
       </c>
     </row>
     <row r="890">
@@ -12538,7 +12542,7 @@
         <v>-1246</v>
       </c>
       <c r="D890">
-        <v>9.05499999999995</v>
+        <v>-9.05499999999995</v>
       </c>
     </row>
     <row r="891">
@@ -12552,7 +12556,7 @@
         <v>-1698</v>
       </c>
       <c r="D891">
-        <v>9.0569999999999595</v>
+        <v>-9.0569999999999595</v>
       </c>
     </row>
     <row r="892">
@@ -12566,7 +12570,7 @@
         <v>-1490</v>
       </c>
       <c r="D892">
-        <v>9.0779999999999745</v>
+        <v>-9.0779999999999745</v>
       </c>
     </row>
     <row r="893">
@@ -12580,7 +12584,7 @@
         <v>-1215</v>
       </c>
       <c r="D893">
-        <v>9.0819999999999936</v>
+        <v>-9.0819999999999936</v>
       </c>
     </row>
     <row r="894">
@@ -12594,7 +12598,7 @@
         <v>-1150</v>
       </c>
       <c r="D894">
-        <v>9.1009999999999991</v>
+        <v>-9.1009999999999991</v>
       </c>
     </row>
     <row r="895">
@@ -12608,7 +12612,7 @@
         <v>-1385</v>
       </c>
       <c r="D895">
-        <v>9.103999999999985</v>
+        <v>-9.103999999999985</v>
       </c>
     </row>
     <row r="896">
@@ -12622,7 +12626,7 @@
         <v>-1385</v>
       </c>
       <c r="D896">
-        <v>9.1339999999999577</v>
+        <v>-9.1339999999999577</v>
       </c>
     </row>
     <row r="897">
@@ -12636,7 +12640,7 @@
         <v>-1335</v>
       </c>
       <c r="D897">
-        <v>9.1370000000000005</v>
+        <v>-9.1370000000000005</v>
       </c>
     </row>
     <row r="898">
@@ -12650,7 +12654,7 @@
         <v>-1349</v>
       </c>
       <c r="D898">
-        <v>9.1619999999999777</v>
+        <v>-9.1619999999999777</v>
       </c>
     </row>
     <row r="899">
@@ -12664,7 +12668,7 @@
         <v>-1398</v>
       </c>
       <c r="D899">
-        <v>9.1639999999999873</v>
+        <v>-9.1639999999999873</v>
       </c>
     </row>
     <row r="900">
@@ -12678,7 +12682,7 @@
         <v>-1372</v>
       </c>
       <c r="D900">
-        <v>9.1779999999999973</v>
+        <v>-9.1779999999999973</v>
       </c>
     </row>
     <row r="901">
@@ -12692,7 +12696,7 @@
         <v>-1355</v>
       </c>
       <c r="D901">
-        <v>9.17999999999995</v>
+        <v>-9.17999999999995</v>
       </c>
     </row>
     <row r="902">
@@ -12706,7 +12710,7 @@
         <v>-1355</v>
       </c>
       <c r="D902">
-        <v>9.2019999999999982</v>
+        <v>-9.2019999999999982</v>
       </c>
     </row>
     <row r="903">
@@ -12720,7 +12724,7 @@
         <v>-1354</v>
       </c>
       <c r="D903">
-        <v>9.2029999999999745</v>
+        <v>-9.2029999999999745</v>
       </c>
     </row>
     <row r="904">
@@ -12734,7 +12738,7 @@
         <v>-1391</v>
       </c>
       <c r="D904">
-        <v>9.2239999999999895</v>
+        <v>-9.2239999999999895</v>
       </c>
     </row>
     <row r="905">
@@ -12748,7 +12752,7 @@
         <v>-1426</v>
       </c>
       <c r="D905">
-        <v>9.2249999999999659</v>
+        <v>-9.2249999999999659</v>
       </c>
     </row>
     <row r="906">
@@ -12762,7 +12766,7 @@
         <v>-1425</v>
       </c>
       <c r="D906">
-        <v>9.2349999999999568</v>
+        <v>-9.2349999999999568</v>
       </c>
     </row>
     <row r="907">
@@ -12776,7 +12780,7 @@
         <v>-1355</v>
       </c>
       <c r="D907">
-        <v>9.2369999999999663</v>
+        <v>-9.2369999999999663</v>
       </c>
     </row>
     <row r="908">
@@ -12790,7 +12794,7 @@
         <v>-1401</v>
       </c>
       <c r="D908">
-        <v>9.2579999999999814</v>
+        <v>-9.2579999999999814</v>
       </c>
     </row>
     <row r="909">
@@ -12804,7 +12808,7 @@
         <v>-1355</v>
       </c>
       <c r="D909">
-        <v>9.2599999999999909</v>
+        <v>-9.2599999999999909</v>
       </c>
     </row>
     <row r="910">
@@ -12818,7 +12822,7 @@
         <v>-1365</v>
       </c>
       <c r="D910">
-        <v>9.2789999999999964</v>
+        <v>-9.2789999999999964</v>
       </c>
     </row>
     <row r="911">
@@ -12832,7 +12836,7 @@
         <v>-1377</v>
       </c>
       <c r="D911">
-        <v>9.2809999999999491</v>
+        <v>-9.2809999999999491</v>
       </c>
     </row>
     <row r="912">
@@ -12846,7 +12850,7 @@
         <v>-1418</v>
       </c>
       <c r="D912">
-        <v>9.3239999999999554</v>
+        <v>-9.3239999999999554</v>
       </c>
     </row>
     <row r="913">
@@ -12860,7 +12864,7 @@
         <v>-1376</v>
       </c>
       <c r="D913">
-        <v>9.325999999999965</v>
+        <v>-9.325999999999965</v>
       </c>
     </row>
     <row r="914">
@@ -12874,7 +12878,7 @@
         <v>-1408</v>
       </c>
       <c r="D914">
-        <v>9.3279999999999745</v>
+        <v>-9.3279999999999745</v>
       </c>
     </row>
     <row r="915">
@@ -12888,7 +12892,7 @@
         <v>-1411</v>
       </c>
       <c r="D915">
-        <v>9.3299999999999841</v>
+        <v>-9.3299999999999841</v>
       </c>
     </row>
     <row r="916">
@@ -12902,7 +12906,7 @@
         <v>-1408</v>
       </c>
       <c r="D916">
-        <v>9.3359999999999559</v>
+        <v>-9.3359999999999559</v>
       </c>
     </row>
     <row r="917">
@@ -12916,7 +12920,7 @@
         <v>-1451</v>
       </c>
       <c r="D917">
-        <v>9.3369999999999891</v>
+        <v>-9.3369999999999891</v>
       </c>
     </row>
     <row r="918">
@@ -12930,7 +12934,7 @@
         <v>-1403</v>
       </c>
       <c r="D918">
-        <v>9.3589999999999804</v>
+        <v>-9.3589999999999804</v>
       </c>
     </row>
     <row r="919">
@@ -12944,7 +12948,7 @@
         <v>-1483</v>
       </c>
       <c r="D919">
-        <v>9.36099999999999</v>
+        <v>-9.36099999999999</v>
       </c>
     </row>
     <row r="920">
@@ -12958,7 +12962,7 @@
         <v>-1466</v>
       </c>
       <c r="D920">
-        <v>9.3819999999999482</v>
+        <v>-9.3819999999999482</v>
       </c>
     </row>
     <row r="921">
@@ -12972,7 +12976,7 @@
         <v>-1401</v>
       </c>
       <c r="D921">
-        <v>9.3849999999999909</v>
+        <v>-9.3849999999999909</v>
       </c>
     </row>
     <row r="922">
@@ -12986,7 +12990,7 @@
         <v>-1455</v>
       </c>
       <c r="D922">
-        <v>9.4039999999999964</v>
+        <v>-9.4039999999999964</v>
       </c>
     </row>
     <row r="923">
@@ -13000,7 +13004,7 @@
         <v>-1418</v>
       </c>
       <c r="D923">
-        <v>9.4059999999999491</v>
+        <v>-9.4059999999999491</v>
       </c>
     </row>
     <row r="924">
@@ -13014,7 +13018,7 @@
         <v>-1408</v>
       </c>
       <c r="D924">
-        <v>9.4149999999999636</v>
+        <v>-9.4149999999999636</v>
       </c>
     </row>
     <row r="925">
@@ -13028,7 +13032,7 @@
         <v>-1391</v>
       </c>
       <c r="D925">
-        <v>9.4169999999999732</v>
+        <v>-9.4169999999999732</v>
       </c>
     </row>
     <row r="926">
@@ -13042,7 +13046,7 @@
         <v>-1339</v>
       </c>
       <c r="D926">
-        <v>9.436999999999955</v>
+        <v>-9.436999999999955</v>
       </c>
     </row>
     <row r="927">
@@ -13056,7 +13060,7 @@
         <v>-1373</v>
       </c>
       <c r="D927">
-        <v>9.4399999999999977</v>
+        <v>-9.4399999999999977</v>
       </c>
     </row>
     <row r="928">
@@ -13070,7 +13074,7 @@
         <v>-1379</v>
       </c>
       <c r="D928">
-        <v>9.4589999999999463</v>
+        <v>-9.4589999999999463</v>
       </c>
     </row>
     <row r="929">
@@ -13084,7 +13088,7 @@
         <v>-1393</v>
       </c>
       <c r="D929">
-        <v>9.4609999999999559</v>
+        <v>-9.4609999999999559</v>
       </c>
     </row>
     <row r="930">
@@ -13098,7 +13102,7 @@
         <v>-1397</v>
       </c>
       <c r="D930">
-        <v>9.4939999999999714</v>
+        <v>-9.4939999999999714</v>
       </c>
     </row>
     <row r="931">
@@ -13112,7 +13116,7 @@
         <v>-1417</v>
       </c>
       <c r="D931">
-        <v>9.4969999999999573</v>
+        <v>-9.4969999999999573</v>
       </c>
     </row>
     <row r="932">
@@ -13126,7 +13130,7 @@
         <v>-1412</v>
       </c>
       <c r="D932">
-        <v>9.4989999999999668</v>
+        <v>-9.4989999999999668</v>
       </c>
     </row>
     <row r="933">
@@ -13140,7 +13144,7 @@
         <v>-1413</v>
       </c>
       <c r="D933">
-        <v>9.5</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="934">
@@ -13154,7 +13158,7 @@
         <v>-1390</v>
       </c>
       <c r="D934">
-        <v>9.5169999999999959</v>
+        <v>-9.5169999999999959</v>
       </c>
     </row>
     <row r="935">
@@ -13168,7 +13172,7 @@
         <v>-1393</v>
       </c>
       <c r="D935">
-        <v>9.5190000000000055</v>
+        <v>-9.5190000000000055</v>
       </c>
     </row>
     <row r="936">
@@ -13182,7 +13186,7 @@
         <v>-1331</v>
       </c>
       <c r="D936">
-        <v>9.5389999999999873</v>
+        <v>-9.5389999999999873</v>
       </c>
     </row>
     <row r="937">
@@ -13196,7 +13200,7 @@
         <v>-1350</v>
       </c>
       <c r="D937">
-        <v>9.5409999999999968</v>
+        <v>-9.5409999999999968</v>
       </c>
     </row>
     <row r="938">
@@ -13210,7 +13214,7 @@
         <v>-1370</v>
       </c>
       <c r="D938">
-        <v>9.561999999999955</v>
+        <v>-9.561999999999955</v>
       </c>
     </row>
     <row r="939">
@@ -13224,7 +13228,7 @@
         <v>-1428</v>
       </c>
       <c r="D939">
-        <v>9.5649999999999977</v>
+        <v>-9.5649999999999977</v>
       </c>
     </row>
     <row r="940">
@@ -13238,7 +13242,7 @@
         <v>-1409</v>
       </c>
       <c r="D940">
-        <v>9.5859999999999559</v>
+        <v>-9.5859999999999559</v>
       </c>
     </row>
     <row r="941">
@@ -13252,7 +13256,7 @@
         <v>-1370</v>
       </c>
       <c r="D941">
-        <v>9.5879999999999654</v>
+        <v>-9.5879999999999654</v>
       </c>
     </row>
     <row r="942">
@@ -13266,7 +13270,7 @@
         <v>-1400</v>
       </c>
       <c r="D942">
-        <v>9.5949999999999704</v>
+        <v>-9.5949999999999704</v>
       </c>
     </row>
     <row r="943">
@@ -13280,7 +13284,7 @@
         <v>-1469</v>
       </c>
       <c r="D943">
-        <v>9.5979999999999563</v>
+        <v>-9.5979999999999563</v>
       </c>
     </row>
     <row r="944">
@@ -13294,7 +13298,7 @@
         <v>-1272</v>
       </c>
       <c r="D944">
-        <v>9.617999999999995</v>
+        <v>-9.617999999999995</v>
       </c>
     </row>
     <row r="945">
@@ -13308,7 +13312,7 @@
         <v>-1454</v>
       </c>
       <c r="D945">
-        <v>9.6209999999999809</v>
+        <v>-9.6209999999999809</v>
       </c>
     </row>
     <row r="946">
@@ -13322,7 +13326,7 @@
         <v>-1442</v>
       </c>
       <c r="D946">
-        <v>9.6419999999999959</v>
+        <v>-9.6419999999999959</v>
       </c>
     </row>
     <row r="947">
@@ -13336,7 +13340,7 @@
         <v>-1433</v>
       </c>
       <c r="D947">
-        <v>9.6429999999999723</v>
+        <v>-9.6429999999999723</v>
       </c>
     </row>
     <row r="948">
@@ -13350,7 +13354,7 @@
         <v>-1401</v>
       </c>
       <c r="D948">
-        <v>9.6749999999999545</v>
+        <v>-9.6749999999999545</v>
       </c>
     </row>
     <row r="949">
@@ -13364,7 +13368,7 @@
         <v>-1376</v>
       </c>
       <c r="D949">
-        <v>9.6769999999999641</v>
+        <v>-9.6769999999999641</v>
       </c>
     </row>
     <row r="950">
@@ -13378,7 +13382,7 @@
         <v>-1383</v>
       </c>
       <c r="D950">
-        <v>9.6970000000000027</v>
+        <v>-9.6970000000000027</v>
       </c>
     </row>
     <row r="951">
@@ -13392,7 +13396,7 @@
         <v>-1382</v>
       </c>
       <c r="D951">
-        <v>9.6989999999999554</v>
+        <v>-9.6989999999999554</v>
       </c>
     </row>
     <row r="952">
@@ -13406,7 +13410,7 @@
         <v>-1434</v>
       </c>
       <c r="D952">
-        <v>9.7199999999999704</v>
+        <v>-9.7199999999999704</v>
       </c>
     </row>
     <row r="953">
@@ -13420,7 +13424,7 @@
         <v>-1408</v>
       </c>
       <c r="D953">
-        <v>9.7239999999999895</v>
+        <v>-9.7239999999999895</v>
       </c>
     </row>
     <row r="954">
@@ -13434,7 +13438,7 @@
         <v>-1400</v>
       </c>
       <c r="D954">
-        <v>9.7419999999999618</v>
+        <v>-9.7419999999999618</v>
       </c>
     </row>
     <row r="955">
@@ -13448,7 +13452,7 @@
         <v>-1368</v>
       </c>
       <c r="D955">
-        <v>9.7459999999999809</v>
+        <v>-9.7459999999999809</v>
       </c>
     </row>
     <row r="956">
@@ -13462,7 +13466,7 @@
         <v>-1428</v>
       </c>
       <c r="D956">
-        <v>9.7639999999999532</v>
+        <v>-9.7639999999999532</v>
       </c>
     </row>
     <row r="957">
@@ -13476,7 +13480,7 @@
         <v>-1415</v>
       </c>
       <c r="D957">
-        <v>9.7659999999999627</v>
+        <v>-9.7659999999999627</v>
       </c>
     </row>
     <row r="958">
@@ -13490,7 +13494,7 @@
         <v>-1423</v>
       </c>
       <c r="D958">
-        <v>9.7779999999999632</v>
+        <v>-9.7779999999999632</v>
       </c>
     </row>
     <row r="959">
@@ -13504,7 +13508,7 @@
         <v>-1443</v>
       </c>
       <c r="D959">
-        <v>9.7799999999999727</v>
+        <v>-9.7799999999999727</v>
       </c>
     </row>
     <row r="960">
@@ -13518,7 +13522,7 @@
         <v>-1434</v>
       </c>
       <c r="D960">
-        <v>9.7980000000000018</v>
+        <v>-9.7980000000000018</v>
       </c>
     </row>
     <row r="961">
@@ -13532,7 +13536,7 @@
         <v>-1454</v>
       </c>
       <c r="D961">
-        <v>9.7999999999999545</v>
+        <v>-9.7999999999999545</v>
       </c>
     </row>
     <row r="962">
@@ -13546,7 +13550,7 @@
         <v>-1432</v>
       </c>
       <c r="D962">
-        <v>9.8199999999999932</v>
+        <v>-9.8199999999999932</v>
       </c>
     </row>
     <row r="963">
@@ -13560,7 +13564,7 @@
         <v>-1387</v>
       </c>
       <c r="D963">
-        <v>9.8220000000000027</v>
+        <v>-9.8220000000000027</v>
       </c>
     </row>
     <row r="964">
@@ -13574,7 +13578,7 @@
         <v>-1373</v>
       </c>
       <c r="D964">
-        <v>9.853999999999985</v>
+        <v>-9.853999999999985</v>
       </c>
     </row>
     <row r="965">
@@ -13588,7 +13592,7 @@
         <v>-1394</v>
       </c>
       <c r="D965">
-        <v>9.8559999999999945</v>
+        <v>-9.8559999999999945</v>
       </c>
     </row>
     <row r="966">
@@ -13602,7 +13606,7 @@
         <v>-1402</v>
       </c>
       <c r="D966">
-        <v>9.8759999999999764</v>
+        <v>-9.8759999999999764</v>
       </c>
     </row>
     <row r="967">
@@ -13616,7 +13620,7 @@
         <v>-1409</v>
       </c>
       <c r="D967">
-        <v>9.8789999999999623</v>
+        <v>-9.8789999999999623</v>
       </c>
     </row>
     <row r="968">
@@ -13630,7 +13634,7 @@
         <v>-1384</v>
       </c>
       <c r="D968">
-        <v>9.8999999999999773</v>
+        <v>-9.8999999999999773</v>
       </c>
     </row>
     <row r="969">
@@ -13644,7 +13648,7 @@
         <v>-1392</v>
       </c>
       <c r="D969">
-        <v>9.9029999999999632</v>
+        <v>-9.9029999999999632</v>
       </c>
     </row>
     <row r="970">
@@ -13658,7 +13662,7 @@
         <v>-1413</v>
       </c>
       <c r="D970">
-        <v>9.9219999999999686</v>
+        <v>-9.9219999999999686</v>
       </c>
     </row>
     <row r="971">
@@ -13672,7 +13676,7 @@
         <v>-1390</v>
       </c>
       <c r="D971">
-        <v>9.9259999999999877</v>
+        <v>-9.9259999999999877</v>
       </c>
     </row>
     <row r="972">
@@ -13686,7 +13690,7 @@
         <v>-1403</v>
       </c>
       <c r="D972">
-        <v>9.94399999999996</v>
+        <v>-9.94399999999996</v>
       </c>
     </row>
     <row r="973">
@@ -13700,7 +13704,7 @@
         <v>-1404</v>
       </c>
       <c r="D973">
-        <v>9.9459999999999695</v>
+        <v>-9.9459999999999695</v>
       </c>
     </row>
     <row r="974">
@@ -13714,7 +13718,7 @@
         <v>-1394</v>
       </c>
       <c r="D974">
-        <v>9.9549999999999841</v>
+        <v>-9.9549999999999841</v>
       </c>
     </row>
     <row r="975">
@@ -13728,7 +13732,7 @@
         <v>-1389</v>
       </c>
       <c r="D975">
-        <v>9.9569999999999936</v>
+        <v>-9.9569999999999936</v>
       </c>
     </row>
     <row r="976">
@@ -13742,7 +13746,7 @@
         <v>-1414</v>
       </c>
       <c r="D976">
-        <v>9.9769999999999754</v>
+        <v>-9.9769999999999754</v>
       </c>
     </row>
     <row r="977">
@@ -13756,7 +13760,7 @@
         <v>-1427</v>
       </c>
       <c r="D977">
-        <v>9.9799999999999613</v>
+        <v>-9.9799999999999613</v>
       </c>
     </row>
     <row r="978">
@@ -13770,7 +13774,7 @@
         <v>-1326</v>
       </c>
       <c r="D978">
-        <v>10.000999999999976</v>
+        <v>-10.000999999999976</v>
       </c>
     </row>
     <row r="979">
@@ -13784,7 +13788,7 @@
         <v>-1249</v>
       </c>
       <c r="D979">
-        <v>10.004999999999995</v>
+        <v>-10.004999999999995</v>
       </c>
     </row>
     <row r="980">
@@ -13798,7 +13802,7 @@
         <v>-1393</v>
       </c>
       <c r="D980">
-        <v>10.034999999999968</v>
+        <v>-10.034999999999968</v>
       </c>
     </row>
     <row r="981">
@@ -13812,7 +13816,7 @@
         <v>-824</v>
       </c>
       <c r="D981">
-        <v>10.036999999999978</v>
+        <v>-10.036999999999978</v>
       </c>
     </row>
     <row r="982">
@@ -13826,7 +13830,7 @@
         <v>-1632</v>
       </c>
       <c r="D982">
-        <v>10.05699999999996</v>
+        <v>-10.05699999999996</v>
       </c>
     </row>
     <row r="983">
@@ -13840,7 +13844,7 @@
         <v>-959</v>
       </c>
       <c r="D983">
-        <v>10.060999999999979</v>
+        <v>-10.060999999999979</v>
       </c>
     </row>
     <row r="984">
@@ -13854,7 +13858,7 @@
         <v>-1240</v>
       </c>
       <c r="D984">
-        <v>10.078999999999951</v>
+        <v>-10.078999999999951</v>
       </c>
     </row>
     <row r="985">
@@ -13868,7 +13872,7 @@
         <v>-1220</v>
       </c>
       <c r="D985">
-        <v>10.081999999999994</v>
+        <v>-10.081999999999994</v>
       </c>
     </row>
     <row r="986">
@@ -13882,7 +13886,7 @@
         <v>-1167</v>
       </c>
       <c r="D986">
-        <v>10.102999999999952</v>
+        <v>-10.102999999999952</v>
       </c>
     </row>
     <row r="987">
@@ -13896,7 +13900,7 @@
         <v>-1312</v>
       </c>
       <c r="D987">
-        <v>10.104999999999961</v>
+        <v>-10.104999999999961</v>
       </c>
     </row>
     <row r="988">
@@ -13910,7 +13914,7 @@
         <v>-1150</v>
       </c>
       <c r="D988">
-        <v>10.125</v>
+        <v>-10.125</v>
       </c>
     </row>
     <row r="989">
@@ -13924,7 +13928,7 @@
         <v>-1103</v>
       </c>
       <c r="D989">
-        <v>10.127999999999986</v>
+        <v>-10.127999999999986</v>
       </c>
     </row>
     <row r="990">
@@ -13938,7 +13942,7 @@
         <v>-758</v>
       </c>
       <c r="D990">
-        <v>10.135999999999967</v>
+        <v>-10.135999999999967</v>
       </c>
     </row>
     <row r="991">
@@ -13952,7 +13956,7 @@
         <v>-1042</v>
       </c>
       <c r="D991">
-        <v>10.138999999999953</v>
+        <v>-10.138999999999953</v>
       </c>
     </row>
     <row r="992">
@@ -13966,7 +13970,7 @@
         <v>-187</v>
       </c>
       <c r="D992">
-        <v>10.158999999999992</v>
+        <v>-10.158999999999992</v>
       </c>
     </row>
     <row r="993">
@@ -13980,7 +13984,7 @@
         <v>-1053</v>
       </c>
       <c r="D993">
-        <v>10.161000000000001</v>
+        <v>-10.161000000000001</v>
       </c>
     </row>
     <row r="994">
@@ -13994,7 +13998,7 @@
         <v>-351</v>
       </c>
       <c r="D994">
-        <v>10.183999999999969</v>
+        <v>-10.183999999999969</v>
       </c>
     </row>
     <row r="995">
@@ -14008,7 +14012,7 @@
         <v>-1038</v>
       </c>
       <c r="D995">
-        <v>10.185000000000002</v>
+        <v>-10.185000000000002</v>
       </c>
     </row>
     <row r="996">
@@ -14022,7 +14026,7 @@
         <v>-3371</v>
       </c>
       <c r="D996">
-        <v>10.213999999999999</v>
+        <v>-10.213999999999999</v>
       </c>
     </row>
     <row r="997">
@@ -14036,7 +14040,7 @@
         <v>-556</v>
       </c>
       <c r="D997">
-        <v>10.216000000000008</v>
+        <v>-10.216000000000008</v>
       </c>
     </row>
     <row r="998">
@@ -14050,7 +14054,7 @@
         <v>796</v>
       </c>
       <c r="D998">
-        <v>10.21999999999997</v>
+        <v>-10.21999999999997</v>
       </c>
     </row>
     <row r="999">
@@ -14064,7 +14068,7 @@
         <v>4457</v>
       </c>
       <c r="D999">
-        <v>10.22199999999998</v>
+        <v>-10.22199999999998</v>
       </c>
     </row>
     <row r="1000">
@@ -14078,7 +14082,7 @@
         <v>4406</v>
       </c>
       <c r="D1000">
-        <v>10.23599999999999</v>
+        <v>-10.23599999999999</v>
       </c>
     </row>
     <row r="1001">
@@ -14092,7 +14096,7 @@
         <v>1599</v>
       </c>
       <c r="D1001">
-        <v>10.238</v>
+        <v>-10.238</v>
       </c>
     </row>
     <row r="1002">
@@ -14106,7 +14110,7 @@
         <v>-1172</v>
       </c>
       <c r="D1002">
-        <v>10.269999999999982</v>
+        <v>-10.269999999999982</v>
       </c>
     </row>
     <row r="1003">
@@ -14120,7 +14124,7 @@
         <v>-3670</v>
       </c>
       <c r="D1003">
-        <v>10.271999999999991</v>
+        <v>-10.271999999999991</v>
       </c>
     </row>
     <row r="1004">
@@ -14134,7 +14138,7 @@
         <v>-10565</v>
       </c>
       <c r="D1004">
-        <v>10.281999999999982</v>
+        <v>-10.281999999999982</v>
       </c>
     </row>
     <row r="1005">
@@ -14148,7 +14152,7 @@
         <v>-14180</v>
       </c>
       <c r="D1005">
-        <v>10.286000000000001</v>
+        <v>-10.286000000000001</v>
       </c>
     </row>
     <row r="1006">
@@ -14162,7 +14166,7 @@
         <v>-3954</v>
       </c>
       <c r="D1006">
-        <v>10.302999999999997</v>
+        <v>-10.302999999999997</v>
       </c>
     </row>
     <row r="1007">
@@ -14176,7 +14180,7 @@
         <v>-744</v>
       </c>
       <c r="D1007">
-        <v>10.30499999999995</v>
+        <v>-10.30499999999995</v>
       </c>
     </row>
     <row r="1008">
@@ -14190,7 +14194,7 @@
         <v>-2898</v>
       </c>
       <c r="D1008">
-        <v>10.314999999999998</v>
+        <v>-10.314999999999998</v>
       </c>
     </row>
     <row r="1009">
@@ -14204,7 +14208,7 @@
         <v>-3000</v>
       </c>
       <c r="D1009">
-        <v>10.317000000000007</v>
+        <v>-10.317000000000007</v>
       </c>
     </row>
     <row r="1010">
@@ -14218,7 +14222,7 @@
         <v>-2239</v>
       </c>
       <c r="D1010">
-        <v>10.337999999999965</v>
+        <v>-10.337999999999965</v>
       </c>
     </row>
     <row r="1011">
@@ -14232,7 +14236,7 @@
         <v>-2181</v>
       </c>
       <c r="D1011">
-        <v>10.341000000000008</v>
+        <v>-10.341000000000008</v>
       </c>
     </row>
     <row r="1012">
@@ -14246,7 +14250,7 @@
         <v>-1112</v>
       </c>
       <c r="D1012">
-        <v>10.361999999999966</v>
+        <v>-10.361999999999966</v>
       </c>
     </row>
     <row r="1013">
@@ -14260,7 +14264,7 @@
         <v>-1069</v>
       </c>
       <c r="D1013">
-        <v>10.365000000000009</v>
+        <v>-10.365000000000009</v>
       </c>
     </row>
     <row r="1014">
@@ -14274,7 +14278,7 @@
         <v>-1396</v>
       </c>
       <c r="D1014">
-        <v>10.394000000000005</v>
+        <v>-10.394000000000005</v>
       </c>
     </row>
     <row r="1015">
@@ -14288,7 +14292,7 @@
         <v>-1552</v>
       </c>
       <c r="D1015">
-        <v>10.395999999999958</v>
+        <v>-10.395999999999958</v>
       </c>
     </row>
     <row r="1016">
@@ -14302,7 +14306,7 @@
         <v>-1181</v>
       </c>
       <c r="D1016">
-        <v>10.397999999999968</v>
+        <v>-10.397999999999968</v>
       </c>
     </row>
     <row r="1017">
@@ -14316,7 +14320,7 @@
         <v>-1205</v>
       </c>
       <c r="D1017">
-        <v>10.399999999999977</v>
+        <v>-10.399999999999977</v>
       </c>
     </row>
     <row r="1018">
@@ -14330,7 +14334,7 @@
         <v>-1527</v>
       </c>
       <c r="D1018">
-        <v>10.416999999999973</v>
+        <v>-10.416999999999973</v>
       </c>
     </row>
     <row r="1019">
@@ -14344,7 +14348,7 @@
         <v>-1693</v>
       </c>
       <c r="D1019">
-        <v>10.419999999999959</v>
+        <v>-10.419999999999959</v>
       </c>
     </row>
     <row r="1020">
@@ -14358,7 +14362,7 @@
         <v>-1424</v>
       </c>
       <c r="D1020">
-        <v>10.440999999999974</v>
+        <v>-10.440999999999974</v>
       </c>
     </row>
     <row r="1021">
@@ -14372,7 +14376,7 @@
         <v>-1488</v>
       </c>
       <c r="D1021">
-        <v>10.442999999999984</v>
+        <v>-10.442999999999984</v>
       </c>
     </row>
     <row r="1022">
@@ -14386,7 +14390,7 @@
         <v>-1479</v>
       </c>
       <c r="D1022">
-        <v>10.464999999999975</v>
+        <v>-10.464999999999975</v>
       </c>
     </row>
     <row r="1023">
@@ -14400,7 +14404,7 @@
         <v>-1487</v>
       </c>
       <c r="D1023">
-        <v>10.466999999999985</v>
+        <v>-10.466999999999985</v>
       </c>
     </row>
     <row r="1024">
@@ -14414,7 +14418,7 @@
         <v>-1481</v>
       </c>
       <c r="D1024">
-        <v>10.48599999999999</v>
+        <v>-10.48599999999999</v>
       </c>
     </row>
     <row r="1025">
@@ -14428,7 +14432,7 @@
         <v>-1487</v>
       </c>
       <c r="D1025">
-        <v>10.488</v>
+        <v>-10.488</v>
       </c>
     </row>
     <row r="1026">
@@ -14442,7 +14446,7 @@
         <v>-1521</v>
       </c>
       <c r="D1026">
-        <v>10.496999999999957</v>
+        <v>-10.496999999999957</v>
       </c>
     </row>
     <row r="1027">
@@ -14456,7 +14460,7 @@
         <v>-1516</v>
       </c>
       <c r="D1027">
-        <v>10.498999999999967</v>
+        <v>-10.498999999999967</v>
       </c>
     </row>
     <row r="1028">
@@ -14470,7 +14474,7 @@
         <v>-1482</v>
       </c>
       <c r="D1028">
-        <v>10.516999999999996</v>
+        <v>-10.516999999999996</v>
       </c>
     </row>
     <row r="1029">
@@ -14484,7 +14488,7 @@
         <v>-1492</v>
       </c>
       <c r="D1029">
-        <v>10.519000000000005</v>
+        <v>-10.519000000000005</v>
       </c>
     </row>
     <row r="1030">
@@ -14498,7 +14502,7 @@
         <v>-1512</v>
       </c>
       <c r="D1030">
-        <v>10.539999999999964</v>
+        <v>-10.539999999999964</v>
       </c>
     </row>
     <row r="1031">
@@ -14512,7 +14516,7 @@
         <v>-1462</v>
       </c>
       <c r="D1031">
-        <v>10.540999999999997</v>
+        <v>-10.540999999999997</v>
       </c>
     </row>
   </sheetData>
